--- a/Playground/All of Us _ Public PPI Codebook - COPE.xlsx
+++ b/Playground/All of Us _ Public PPI Codebook - COPE.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssutherland/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaDa\Documents\GitHub\UVA\Playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3E0780-2FD4-2D45-AD9E-51D2CFF0E80B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E5669D-F5BE-4B2F-8461-5876CA6943F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="624" windowWidth="17520" windowHeight="10104" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COPE Survey" sheetId="18" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <customWorkbookViews>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="750">
   <si>
     <t>Display</t>
   </si>
@@ -2329,14 +2330,37 @@
   <si>
     <t>nhs_covid_fhc17b_cope_a_226</t>
   </si>
+  <si>
+    <t>Example Output for Survey Response</t>
+  </si>
+  <si>
+    <t>Responder_ID</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -2432,7 +2456,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2441,8 +2465,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -2764,18 +2788,18 @@
   </sheetPr>
   <dimension ref="A1:AD984"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A76" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.5" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="79.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
     <col min="5" max="5" width="45.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="40.44140625" customWidth="1"/>
     <col min="7" max="7" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2823,7 +2847,7 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -2869,7 +2893,7 @@
       <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>58</v>
       </c>
@@ -2917,7 +2941,7 @@
       <c r="AC3" s="11"/>
       <c r="AD3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -2965,7 +2989,7 @@
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
@@ -3013,7 +3037,7 @@
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
@@ -3061,7 +3085,7 @@
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>69</v>
       </c>
@@ -3109,7 +3133,7 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>71</v>
       </c>
@@ -3157,7 +3181,7 @@
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>73</v>
       </c>
@@ -3205,7 +3229,7 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>75</v>
       </c>
@@ -3253,7 +3277,7 @@
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>77</v>
       </c>
@@ -3301,7 +3325,7 @@
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>79</v>
       </c>
@@ -3349,7 +3373,7 @@
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>81</v>
       </c>
@@ -3397,7 +3421,7 @@
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>83</v>
       </c>
@@ -3445,7 +3469,7 @@
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>85</v>
       </c>
@@ -3493,7 +3517,7 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>87</v>
       </c>
@@ -3541,7 +3565,7 @@
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>89</v>
       </c>
@@ -3589,7 +3613,7 @@
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>91</v>
       </c>
@@ -3637,7 +3661,7 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>94</v>
       </c>
@@ -3685,7 +3709,7 @@
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>96</v>
       </c>
@@ -3733,7 +3757,7 @@
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>98</v>
       </c>
@@ -3781,7 +3805,7 @@
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>100</v>
       </c>
@@ -3829,7 +3853,7 @@
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>102</v>
       </c>
@@ -3877,7 +3901,7 @@
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
@@ -3925,7 +3949,7 @@
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>106</v>
       </c>
@@ -3973,7 +3997,7 @@
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>108</v>
       </c>
@@ -4021,7 +4045,7 @@
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>110</v>
       </c>
@@ -4069,7 +4093,7 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>112</v>
       </c>
@@ -4117,7 +4141,7 @@
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>114</v>
       </c>
@@ -4165,7 +4189,7 @@
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -4213,7 +4237,7 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>118</v>
       </c>
@@ -4261,7 +4285,7 @@
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>120</v>
       </c>
@@ -4309,7 +4333,7 @@
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>122</v>
       </c>
@@ -4357,7 +4381,7 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>124</v>
       </c>
@@ -4405,7 +4429,7 @@
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>126</v>
       </c>
@@ -4453,7 +4477,7 @@
       <c r="AC35" s="11"/>
       <c r="AD35" s="11"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>128</v>
       </c>
@@ -4501,7 +4525,7 @@
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>130</v>
       </c>
@@ -4549,7 +4573,7 @@
       <c r="AC37" s="11"/>
       <c r="AD37" s="11"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>132</v>
       </c>
@@ -4597,7 +4621,7 @@
       <c r="AC38" s="11"/>
       <c r="AD38" s="11"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>134</v>
       </c>
@@ -4645,7 +4669,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>136</v>
       </c>
@@ -4693,7 +4717,7 @@
       <c r="AC40" s="11"/>
       <c r="AD40" s="11"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
@@ -4741,7 +4765,7 @@
       <c r="AC41" s="11"/>
       <c r="AD41" s="11"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>34</v>
       </c>
@@ -4789,7 +4813,7 @@
       <c r="AC42" s="11"/>
       <c r="AD42" s="11"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>141</v>
       </c>
@@ -4837,7 +4861,7 @@
       <c r="AC43" s="11"/>
       <c r="AD43" s="11"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>110</v>
       </c>
@@ -4885,7 +4909,7 @@
       <c r="AC44" s="11"/>
       <c r="AD44" s="11"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>144</v>
       </c>
@@ -4933,7 +4957,7 @@
       <c r="AC45" s="11"/>
       <c r="AD45" s="11"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>24</v>
       </c>
@@ -4981,7 +5005,7 @@
       <c r="AC46" s="11"/>
       <c r="AD46" s="11"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>147</v>
       </c>
@@ -5029,7 +5053,7 @@
       <c r="AC47" s="11"/>
       <c r="AD47" s="11"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>110</v>
       </c>
@@ -5077,7 +5101,7 @@
       <c r="AC48" s="11"/>
       <c r="AD48" s="11"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>150</v>
       </c>
@@ -5125,7 +5149,7 @@
       <c r="AC49" s="11"/>
       <c r="AD49" s="11"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>152</v>
       </c>
@@ -5173,7 +5197,7 @@
       <c r="AC50" s="11"/>
       <c r="AD50" s="11"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>35</v>
       </c>
@@ -5221,7 +5245,7 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="11"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>56</v>
       </c>
@@ -5269,7 +5293,7 @@
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>156</v>
       </c>
@@ -5317,7 +5341,7 @@
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>158</v>
       </c>
@@ -5365,7 +5389,7 @@
       <c r="AC54" s="11"/>
       <c r="AD54" s="11"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>160</v>
       </c>
@@ -5413,7 +5437,7 @@
       <c r="AC55" s="11"/>
       <c r="AD55" s="11"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>162</v>
       </c>
@@ -5461,7 +5485,7 @@
       <c r="AC56" s="11"/>
       <c r="AD56" s="11"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>164</v>
       </c>
@@ -5509,7 +5533,7 @@
       <c r="AC57" s="11"/>
       <c r="AD57" s="11"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>166</v>
       </c>
@@ -5557,7 +5581,7 @@
       <c r="AC58" s="11"/>
       <c r="AD58" s="11"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>168</v>
       </c>
@@ -5605,7 +5629,7 @@
       <c r="AC59" s="11"/>
       <c r="AD59" s="11"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>170</v>
       </c>
@@ -5653,7 +5677,7 @@
       <c r="AC60" s="11"/>
       <c r="AD60" s="11"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>172</v>
       </c>
@@ -5701,7 +5725,7 @@
       <c r="AC61" s="11"/>
       <c r="AD61" s="11"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>174</v>
       </c>
@@ -5749,7 +5773,7 @@
       <c r="AC62" s="11"/>
       <c r="AD62" s="11"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>176</v>
       </c>
@@ -5797,7 +5821,7 @@
       <c r="AC63" s="11"/>
       <c r="AD63" s="11"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>178</v>
       </c>
@@ -5845,7 +5869,7 @@
       <c r="AC64" s="11"/>
       <c r="AD64" s="11"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>180</v>
       </c>
@@ -5893,7 +5917,7 @@
       <c r="AC65" s="11"/>
       <c r="AD65" s="11"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>182</v>
       </c>
@@ -5941,7 +5965,7 @@
       <c r="AC66" s="11"/>
       <c r="AD66" s="11"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>184</v>
       </c>
@@ -5989,7 +6013,7 @@
       <c r="AC67" s="11"/>
       <c r="AD67" s="11"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>186</v>
       </c>
@@ -6037,7 +6061,7 @@
       <c r="AC68" s="11"/>
       <c r="AD68" s="11"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>188</v>
       </c>
@@ -6085,7 +6109,7 @@
       <c r="AC69" s="11"/>
       <c r="AD69" s="11"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>190</v>
       </c>
@@ -6133,7 +6157,7 @@
       <c r="AC70" s="11"/>
       <c r="AD70" s="11"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>192</v>
       </c>
@@ -6181,7 +6205,7 @@
       <c r="AC71" s="11"/>
       <c r="AD71" s="11"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>194</v>
       </c>
@@ -6229,7 +6253,7 @@
       <c r="AC72" s="11"/>
       <c r="AD72" s="11"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>196</v>
       </c>
@@ -6277,7 +6301,7 @@
       <c r="AC73" s="11"/>
       <c r="AD73" s="11"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>198</v>
       </c>
@@ -6325,7 +6349,7 @@
       <c r="AC74" s="11"/>
       <c r="AD74" s="11"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>200</v>
       </c>
@@ -6373,7 +6397,7 @@
       <c r="AC75" s="11"/>
       <c r="AD75" s="11"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>202</v>
       </c>
@@ -6421,7 +6445,7 @@
       <c r="AC76" s="11"/>
       <c r="AD76" s="11"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>204</v>
       </c>
@@ -6469,7 +6493,7 @@
       <c r="AC77" s="11"/>
       <c r="AD77" s="11"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>206</v>
       </c>
@@ -6517,7 +6541,7 @@
       <c r="AC78" s="11"/>
       <c r="AD78" s="11"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>208</v>
       </c>
@@ -6565,7 +6589,7 @@
       <c r="AC79" s="11"/>
       <c r="AD79" s="11"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>210</v>
       </c>
@@ -6613,7 +6637,7 @@
       <c r="AC80" s="11"/>
       <c r="AD80" s="11"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>212</v>
       </c>
@@ -6661,7 +6685,7 @@
       <c r="AC81" s="11"/>
       <c r="AD81" s="11"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>214</v>
       </c>
@@ -6709,7 +6733,7 @@
       <c r="AC82" s="11"/>
       <c r="AD82" s="11"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>216</v>
       </c>
@@ -6757,7 +6781,7 @@
       <c r="AC83" s="11"/>
       <c r="AD83" s="11"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>218</v>
       </c>
@@ -6805,7 +6829,7 @@
       <c r="AC84" s="11"/>
       <c r="AD84" s="11"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>220</v>
       </c>
@@ -6853,7 +6877,7 @@
       <c r="AC85" s="11"/>
       <c r="AD85" s="11"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>222</v>
       </c>
@@ -6901,7 +6925,7 @@
       <c r="AC86" s="11"/>
       <c r="AD86" s="11"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>224</v>
       </c>
@@ -6949,7 +6973,7 @@
       <c r="AC87" s="11"/>
       <c r="AD87" s="11"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>226</v>
       </c>
@@ -6997,7 +7021,7 @@
       <c r="AC88" s="11"/>
       <c r="AD88" s="11"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>228</v>
       </c>
@@ -7045,7 +7069,7 @@
       <c r="AC89" s="11"/>
       <c r="AD89" s="11"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>230</v>
       </c>
@@ -7093,7 +7117,7 @@
       <c r="AC90" s="11"/>
       <c r="AD90" s="11"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>232</v>
       </c>
@@ -7141,7 +7165,7 @@
       <c r="AC91" s="11"/>
       <c r="AD91" s="11"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>234</v>
       </c>
@@ -7189,7 +7213,7 @@
       <c r="AC92" s="11"/>
       <c r="AD92" s="11"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>236</v>
       </c>
@@ -7237,7 +7261,7 @@
       <c r="AC93" s="11"/>
       <c r="AD93" s="11"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>238</v>
       </c>
@@ -7285,7 +7309,7 @@
       <c r="AC94" s="11"/>
       <c r="AD94" s="11"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>232</v>
       </c>
@@ -7333,7 +7357,7 @@
       <c r="AC95" s="11"/>
       <c r="AD95" s="11"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>241</v>
       </c>
@@ -7381,7 +7405,7 @@
       <c r="AC96" s="11"/>
       <c r="AD96" s="11"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>243</v>
       </c>
@@ -7429,7 +7453,7 @@
       <c r="AC97" s="11"/>
       <c r="AD97" s="11"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>245</v>
       </c>
@@ -7477,7 +7501,7 @@
       <c r="AC98" s="11"/>
       <c r="AD98" s="11"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>232</v>
       </c>
@@ -7525,7 +7549,7 @@
       <c r="AC99" s="11"/>
       <c r="AD99" s="11"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>248</v>
       </c>
@@ -7573,7 +7597,7 @@
       <c r="AC100" s="11"/>
       <c r="AD100" s="11"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>250</v>
       </c>
@@ -7621,7 +7645,7 @@
       <c r="AC101" s="11"/>
       <c r="AD101" s="11"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>252</v>
       </c>
@@ -7669,7 +7693,7 @@
       <c r="AC102" s="11"/>
       <c r="AD102" s="11"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>254</v>
       </c>
@@ -7717,7 +7741,7 @@
       <c r="AC103" s="11"/>
       <c r="AD103" s="11"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>256</v>
       </c>
@@ -7765,7 +7789,7 @@
       <c r="AC104" s="11"/>
       <c r="AD104" s="11"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>258</v>
       </c>
@@ -7813,7 +7837,7 @@
       <c r="AC105" s="11"/>
       <c r="AD105" s="11"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>260</v>
       </c>
@@ -7861,7 +7885,7 @@
       <c r="AC106" s="11"/>
       <c r="AD106" s="11"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>262</v>
       </c>
@@ -7909,7 +7933,7 @@
       <c r="AC107" s="11"/>
       <c r="AD107" s="11"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>264</v>
       </c>
@@ -7957,7 +7981,7 @@
       <c r="AC108" s="11"/>
       <c r="AD108" s="11"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>266</v>
       </c>
@@ -8005,7 +8029,7 @@
       <c r="AC109" s="11"/>
       <c r="AD109" s="11"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>268</v>
       </c>
@@ -8053,7 +8077,7 @@
       <c r="AC110" s="11"/>
       <c r="AD110" s="11"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>270</v>
       </c>
@@ -8101,7 +8125,7 @@
       <c r="AC111" s="11"/>
       <c r="AD111" s="11"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>272</v>
       </c>
@@ -8149,7 +8173,7 @@
       <c r="AC112" s="11"/>
       <c r="AD112" s="11"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>274</v>
       </c>
@@ -8197,7 +8221,7 @@
       <c r="AC113" s="11"/>
       <c r="AD113" s="11"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>276</v>
       </c>
@@ -8245,7 +8269,7 @@
       <c r="AC114" s="11"/>
       <c r="AD114" s="11"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>278</v>
       </c>
@@ -8293,7 +8317,7 @@
       <c r="AC115" s="11"/>
       <c r="AD115" s="11"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>280</v>
       </c>
@@ -8341,7 +8365,7 @@
       <c r="AC116" s="11"/>
       <c r="AD116" s="11"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>282</v>
       </c>
@@ -8389,7 +8413,7 @@
       <c r="AC117" s="11"/>
       <c r="AD117" s="11"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>284</v>
       </c>
@@ -8437,7 +8461,7 @@
       <c r="AC118" s="11"/>
       <c r="AD118" s="11"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>286</v>
       </c>
@@ -8485,7 +8509,7 @@
       <c r="AC119" s="11"/>
       <c r="AD119" s="11"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>288</v>
       </c>
@@ -8533,7 +8557,7 @@
       <c r="AC120" s="11"/>
       <c r="AD120" s="11"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>278</v>
       </c>
@@ -8581,7 +8605,7 @@
       <c r="AC121" s="11"/>
       <c r="AD121" s="11"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>280</v>
       </c>
@@ -8629,7 +8653,7 @@
       <c r="AC122" s="11"/>
       <c r="AD122" s="11"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>282</v>
       </c>
@@ -8677,7 +8701,7 @@
       <c r="AC123" s="11"/>
       <c r="AD123" s="11"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>293</v>
       </c>
@@ -8725,7 +8749,7 @@
       <c r="AC124" s="11"/>
       <c r="AD124" s="11"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>295</v>
       </c>
@@ -8773,7 +8797,7 @@
       <c r="AC125" s="11"/>
       <c r="AD125" s="11"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>297</v>
       </c>
@@ -8821,7 +8845,7 @@
       <c r="AC126" s="11"/>
       <c r="AD126" s="11"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>299</v>
       </c>
@@ -8869,7 +8893,7 @@
       <c r="AC127" s="11"/>
       <c r="AD127" s="11"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>301</v>
       </c>
@@ -8917,7 +8941,7 @@
       <c r="AC128" s="11"/>
       <c r="AD128" s="11"/>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>303</v>
       </c>
@@ -8965,7 +8989,7 @@
       <c r="AC129" s="11"/>
       <c r="AD129" s="11"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>305</v>
       </c>
@@ -9013,7 +9037,7 @@
       <c r="AC130" s="11"/>
       <c r="AD130" s="11"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>307</v>
       </c>
@@ -9061,7 +9085,7 @@
       <c r="AC131" s="11"/>
       <c r="AD131" s="11"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>309</v>
       </c>
@@ -9109,7 +9133,7 @@
       <c r="AC132" s="11"/>
       <c r="AD132" s="11"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>311</v>
       </c>
@@ -9157,7 +9181,7 @@
       <c r="AC133" s="11"/>
       <c r="AD133" s="11"/>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>313</v>
       </c>
@@ -9205,7 +9229,7 @@
       <c r="AC134" s="11"/>
       <c r="AD134" s="11"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>315</v>
       </c>
@@ -9253,7 +9277,7 @@
       <c r="AC135" s="11"/>
       <c r="AD135" s="11"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>317</v>
       </c>
@@ -9301,7 +9325,7 @@
       <c r="AC136" s="11"/>
       <c r="AD136" s="11"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>319</v>
       </c>
@@ -9349,7 +9373,7 @@
       <c r="AC137" s="11"/>
       <c r="AD137" s="11"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>321</v>
       </c>
@@ -9397,7 +9421,7 @@
       <c r="AC138" s="11"/>
       <c r="AD138" s="11"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>323</v>
       </c>
@@ -9445,7 +9469,7 @@
       <c r="AC139" s="11"/>
       <c r="AD139" s="11"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>325</v>
       </c>
@@ -9493,7 +9517,7 @@
       <c r="AC140" s="11"/>
       <c r="AD140" s="11"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>327</v>
       </c>
@@ -9541,7 +9565,7 @@
       <c r="AC141" s="11"/>
       <c r="AD141" s="11"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>329</v>
       </c>
@@ -9589,7 +9613,7 @@
       <c r="AC142" s="11"/>
       <c r="AD142" s="11"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>331</v>
       </c>
@@ -9637,7 +9661,7 @@
       <c r="AC143" s="11"/>
       <c r="AD143" s="11"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>333</v>
       </c>
@@ -9685,7 +9709,7 @@
       <c r="AC144" s="11"/>
       <c r="AD144" s="11"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>335</v>
       </c>
@@ -9733,7 +9757,7 @@
       <c r="AC145" s="11"/>
       <c r="AD145" s="11"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>337</v>
       </c>
@@ -9781,7 +9805,7 @@
       <c r="AC146" s="11"/>
       <c r="AD146" s="11"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>339</v>
       </c>
@@ -9829,7 +9853,7 @@
       <c r="AC147" s="11"/>
       <c r="AD147" s="11"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>341</v>
       </c>
@@ -9877,7 +9901,7 @@
       <c r="AC148" s="11"/>
       <c r="AD148" s="11"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>343</v>
       </c>
@@ -9925,7 +9949,7 @@
       <c r="AC149" s="11"/>
       <c r="AD149" s="11"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>345</v>
       </c>
@@ -9973,7 +9997,7 @@
       <c r="AC150" s="11"/>
       <c r="AD150" s="11"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>347</v>
       </c>
@@ -10021,7 +10045,7 @@
       <c r="AC151" s="11"/>
       <c r="AD151" s="11"/>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>349</v>
       </c>
@@ -10069,7 +10093,7 @@
       <c r="AC152" s="11"/>
       <c r="AD152" s="11"/>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>351</v>
       </c>
@@ -10117,7 +10141,7 @@
       <c r="AC153" s="11"/>
       <c r="AD153" s="11"/>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>353</v>
       </c>
@@ -10165,7 +10189,7 @@
       <c r="AC154" s="11"/>
       <c r="AD154" s="11"/>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>355</v>
       </c>
@@ -10213,7 +10237,7 @@
       <c r="AC155" s="11"/>
       <c r="AD155" s="11"/>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>357</v>
       </c>
@@ -10261,7 +10285,7 @@
       <c r="AC156" s="11"/>
       <c r="AD156" s="11"/>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>359</v>
       </c>
@@ -10309,7 +10333,7 @@
       <c r="AC157" s="11"/>
       <c r="AD157" s="11"/>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>361</v>
       </c>
@@ -10357,7 +10381,7 @@
       <c r="AC158" s="11"/>
       <c r="AD158" s="11"/>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>363</v>
       </c>
@@ -10405,7 +10429,7 @@
       <c r="AC159" s="11"/>
       <c r="AD159" s="11"/>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>365</v>
       </c>
@@ -10453,7 +10477,7 @@
       <c r="AC160" s="11"/>
       <c r="AD160" s="11"/>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>367</v>
       </c>
@@ -10501,7 +10525,7 @@
       <c r="AC161" s="11"/>
       <c r="AD161" s="11"/>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>369</v>
       </c>
@@ -10549,7 +10573,7 @@
       <c r="AC162" s="11"/>
       <c r="AD162" s="11"/>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>371</v>
       </c>
@@ -10597,7 +10621,7 @@
       <c r="AC163" s="11"/>
       <c r="AD163" s="11"/>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>373</v>
       </c>
@@ -10645,7 +10669,7 @@
       <c r="AC164" s="11"/>
       <c r="AD164" s="11"/>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>375</v>
       </c>
@@ -10693,7 +10717,7 @@
       <c r="AC165" s="11"/>
       <c r="AD165" s="11"/>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>377</v>
       </c>
@@ -10741,7 +10765,7 @@
       <c r="AC166" s="11"/>
       <c r="AD166" s="11"/>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>379</v>
       </c>
@@ -10789,7 +10813,7 @@
       <c r="AC167" s="11"/>
       <c r="AD167" s="11"/>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>381</v>
       </c>
@@ -10837,7 +10861,7 @@
       <c r="AC168" s="11"/>
       <c r="AD168" s="11"/>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>383</v>
       </c>
@@ -10885,7 +10909,7 @@
       <c r="AC169" s="11"/>
       <c r="AD169" s="11"/>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>385</v>
       </c>
@@ -10933,7 +10957,7 @@
       <c r="AC170" s="11"/>
       <c r="AD170" s="11"/>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>387</v>
       </c>
@@ -10981,7 +11005,7 @@
       <c r="AC171" s="11"/>
       <c r="AD171" s="11"/>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>389</v>
       </c>
@@ -11029,7 +11053,7 @@
       <c r="AC172" s="11"/>
       <c r="AD172" s="11"/>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>391</v>
       </c>
@@ -11077,7 +11101,7 @@
       <c r="AC173" s="11"/>
       <c r="AD173" s="11"/>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>393</v>
       </c>
@@ -11125,7 +11149,7 @@
       <c r="AC174" s="11"/>
       <c r="AD174" s="11"/>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>395</v>
       </c>
@@ -11173,7 +11197,7 @@
       <c r="AC175" s="11"/>
       <c r="AD175" s="11"/>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>397</v>
       </c>
@@ -11221,7 +11245,7 @@
       <c r="AC176" s="11"/>
       <c r="AD176" s="11"/>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>399</v>
       </c>
@@ -11269,7 +11293,7 @@
       <c r="AC177" s="11"/>
       <c r="AD177" s="11"/>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>401</v>
       </c>
@@ -11317,7 +11341,7 @@
       <c r="AC178" s="11"/>
       <c r="AD178" s="11"/>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>403</v>
       </c>
@@ -11365,7 +11389,7 @@
       <c r="AC179" s="11"/>
       <c r="AD179" s="11"/>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>405</v>
       </c>
@@ -11413,7 +11437,7 @@
       <c r="AC180" s="11"/>
       <c r="AD180" s="11"/>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>407</v>
       </c>
@@ -11461,7 +11485,7 @@
       <c r="AC181" s="11"/>
       <c r="AD181" s="11"/>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>409</v>
       </c>
@@ -11507,7 +11531,7 @@
       <c r="AC182" s="11"/>
       <c r="AD182" s="11"/>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>411</v>
       </c>
@@ -11553,7 +11577,7 @@
       <c r="AC183" s="11"/>
       <c r="AD183" s="11"/>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>413</v>
       </c>
@@ -11599,7 +11623,7 @@
       <c r="AC184" s="11"/>
       <c r="AD184" s="11"/>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>415</v>
       </c>
@@ -11645,7 +11669,7 @@
       <c r="AC185" s="11"/>
       <c r="AD185" s="11"/>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>53</v>
       </c>
@@ -11691,7 +11715,7 @@
       <c r="AC186" s="11"/>
       <c r="AD186" s="11"/>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>40</v>
       </c>
@@ -11737,7 +11761,7 @@
       <c r="AC187" s="11"/>
       <c r="AD187" s="11"/>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>419</v>
       </c>
@@ -11783,7 +11807,7 @@
       <c r="AC188" s="11"/>
       <c r="AD188" s="11"/>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>421</v>
       </c>
@@ -11829,7 +11853,7 @@
       <c r="AC189" s="11"/>
       <c r="AD189" s="11"/>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>423</v>
       </c>
@@ -11875,7 +11899,7 @@
       <c r="AC190" s="11"/>
       <c r="AD190" s="11"/>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>29</v>
       </c>
@@ -11921,7 +11945,7 @@
       <c r="AC191" s="11"/>
       <c r="AD191" s="11"/>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>426</v>
       </c>
@@ -11967,7 +11991,7 @@
       <c r="AC192" s="11"/>
       <c r="AD192" s="11"/>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>428</v>
       </c>
@@ -12013,7 +12037,7 @@
       <c r="AC193" s="11"/>
       <c r="AD193" s="11"/>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>430</v>
       </c>
@@ -12059,7 +12083,7 @@
       <c r="AC194" s="11"/>
       <c r="AD194" s="11"/>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>432</v>
       </c>
@@ -12105,7 +12129,7 @@
       <c r="AC195" s="11"/>
       <c r="AD195" s="11"/>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
         <v>434</v>
       </c>
@@ -12151,7 +12175,7 @@
       <c r="AC196" s="11"/>
       <c r="AD196" s="11"/>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>36</v>
       </c>
@@ -12197,7 +12221,7 @@
       <c r="AC197" s="11"/>
       <c r="AD197" s="11"/>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>437</v>
       </c>
@@ -12243,7 +12267,7 @@
       <c r="AC198" s="11"/>
       <c r="AD198" s="11"/>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>439</v>
       </c>
@@ -12289,7 +12313,7 @@
       <c r="AC199" s="11"/>
       <c r="AD199" s="11"/>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>441</v>
       </c>
@@ -12335,7 +12359,7 @@
       <c r="AC200" s="11"/>
       <c r="AD200" s="11"/>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>443</v>
       </c>
@@ -12381,7 +12405,7 @@
       <c r="AC201" s="11"/>
       <c r="AD201" s="11"/>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>445</v>
       </c>
@@ -12427,7 +12451,7 @@
       <c r="AC202" s="11"/>
       <c r="AD202" s="11"/>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>447</v>
       </c>
@@ -12473,7 +12497,7 @@
       <c r="AC203" s="11"/>
       <c r="AD203" s="11"/>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>449</v>
       </c>
@@ -12519,7 +12543,7 @@
       <c r="AC204" s="11"/>
       <c r="AD204" s="11"/>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>44</v>
       </c>
@@ -12565,7 +12589,7 @@
       <c r="AC205" s="11"/>
       <c r="AD205" s="11"/>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>23</v>
       </c>
@@ -12611,7 +12635,7 @@
       <c r="AC206" s="11"/>
       <c r="AD206" s="11"/>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>453</v>
       </c>
@@ -12657,7 +12681,7 @@
       <c r="AC207" s="11"/>
       <c r="AD207" s="11"/>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>455</v>
       </c>
@@ -12703,7 +12727,7 @@
       <c r="AC208" s="11"/>
       <c r="AD208" s="11"/>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>37</v>
       </c>
@@ -12749,7 +12773,7 @@
       <c r="AC209" s="11"/>
       <c r="AD209" s="11"/>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
         <v>28</v>
       </c>
@@ -12795,7 +12819,7 @@
       <c r="AC210" s="11"/>
       <c r="AD210" s="11"/>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>459</v>
       </c>
@@ -12841,7 +12865,7 @@
       <c r="AC211" s="11"/>
       <c r="AD211" s="11"/>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>461</v>
       </c>
@@ -12887,7 +12911,7 @@
       <c r="AC212" s="11"/>
       <c r="AD212" s="11"/>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>463</v>
       </c>
@@ -12933,7 +12957,7 @@
       <c r="AC213" s="11"/>
       <c r="AD213" s="11"/>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>465</v>
       </c>
@@ -12979,7 +13003,7 @@
       <c r="AC214" s="11"/>
       <c r="AD214" s="11"/>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>467</v>
       </c>
@@ -13025,7 +13049,7 @@
       <c r="AC215" s="11"/>
       <c r="AD215" s="11"/>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>20</v>
       </c>
@@ -13071,7 +13095,7 @@
       <c r="AC216" s="11"/>
       <c r="AD216" s="11"/>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>470</v>
       </c>
@@ -13117,7 +13141,7 @@
       <c r="AC217" s="11"/>
       <c r="AD217" s="11"/>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>472</v>
       </c>
@@ -13163,7 +13187,7 @@
       <c r="AC218" s="11"/>
       <c r="AD218" s="11"/>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>474</v>
       </c>
@@ -13209,7 +13233,7 @@
       <c r="AC219" s="11"/>
       <c r="AD219" s="11"/>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>476</v>
       </c>
@@ -13255,7 +13279,7 @@
       <c r="AC220" s="11"/>
       <c r="AD220" s="11"/>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>478</v>
       </c>
@@ -13301,7 +13325,7 @@
       <c r="AC221" s="11"/>
       <c r="AD221" s="11"/>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>480</v>
       </c>
@@ -13347,7 +13371,7 @@
       <c r="AC222" s="11"/>
       <c r="AD222" s="11"/>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>18</v>
       </c>
@@ -13393,7 +13417,7 @@
       <c r="AC223" s="11"/>
       <c r="AD223" s="11"/>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>483</v>
       </c>
@@ -13439,7 +13463,7 @@
       <c r="AC224" s="11"/>
       <c r="AD224" s="11"/>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>485</v>
       </c>
@@ -13485,7 +13509,7 @@
       <c r="AC225" s="11"/>
       <c r="AD225" s="11"/>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="14" t="s">
         <v>487</v>
       </c>
@@ -13531,7 +13555,7 @@
       <c r="AC226" s="11"/>
       <c r="AD226" s="11"/>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>489</v>
       </c>
@@ -13577,7 +13601,7 @@
       <c r="AC227" s="11"/>
       <c r="AD227" s="11"/>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>491</v>
       </c>
@@ -13623,7 +13647,7 @@
       <c r="AC228" s="11"/>
       <c r="AD228" s="11"/>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>493</v>
       </c>
@@ -13669,7 +13693,7 @@
       <c r="AC229" s="11"/>
       <c r="AD229" s="11"/>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>495</v>
       </c>
@@ -13715,7 +13739,7 @@
       <c r="AC230" s="11"/>
       <c r="AD230" s="11"/>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>497</v>
       </c>
@@ -13761,7 +13785,7 @@
       <c r="AC231" s="11"/>
       <c r="AD231" s="11"/>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>499</v>
       </c>
@@ -13807,7 +13831,7 @@
       <c r="AC232" s="11"/>
       <c r="AD232" s="11"/>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>501</v>
       </c>
@@ -13853,7 +13877,7 @@
       <c r="AC233" s="11"/>
       <c r="AD233" s="11"/>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>503</v>
       </c>
@@ -13899,7 +13923,7 @@
       <c r="AC234" s="11"/>
       <c r="AD234" s="11"/>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
         <v>26</v>
       </c>
@@ -13945,7 +13969,7 @@
       <c r="AC235" s="11"/>
       <c r="AD235" s="11"/>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>48</v>
       </c>
@@ -13991,7 +14015,7 @@
       <c r="AC236" s="11"/>
       <c r="AD236" s="11"/>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>507</v>
       </c>
@@ -14037,7 +14061,7 @@
       <c r="AC237" s="11"/>
       <c r="AD237" s="11"/>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>509</v>
       </c>
@@ -14083,7 +14107,7 @@
       <c r="AC238" s="11"/>
       <c r="AD238" s="11"/>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>511</v>
       </c>
@@ -14129,7 +14153,7 @@
       <c r="AC239" s="11"/>
       <c r="AD239" s="11"/>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>39</v>
       </c>
@@ -14175,7 +14199,7 @@
       <c r="AC240" s="11"/>
       <c r="AD240" s="11"/>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>514</v>
       </c>
@@ -14221,7 +14245,7 @@
       <c r="AC241" s="11"/>
       <c r="AD241" s="11"/>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>516</v>
       </c>
@@ -14267,7 +14291,7 @@
       <c r="AC242" s="11"/>
       <c r="AD242" s="11"/>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>518</v>
       </c>
@@ -14313,7 +14337,7 @@
       <c r="AC243" s="11"/>
       <c r="AD243" s="11"/>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>52</v>
       </c>
@@ -14359,7 +14383,7 @@
       <c r="AC244" s="11"/>
       <c r="AD244" s="11"/>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="14" t="s">
         <v>30</v>
       </c>
@@ -14405,7 +14429,7 @@
       <c r="AC245" s="11"/>
       <c r="AD245" s="11"/>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>522</v>
       </c>
@@ -14451,7 +14475,7 @@
       <c r="AC246" s="11"/>
       <c r="AD246" s="11"/>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>524</v>
       </c>
@@ -14497,7 +14521,7 @@
       <c r="AC247" s="11"/>
       <c r="AD247" s="11"/>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>526</v>
       </c>
@@ -14543,7 +14567,7 @@
       <c r="AC248" s="11"/>
       <c r="AD248" s="11"/>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>528</v>
       </c>
@@ -14589,7 +14613,7 @@
       <c r="AC249" s="11"/>
       <c r="AD249" s="11"/>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>530</v>
       </c>
@@ -14635,7 +14659,7 @@
       <c r="AC250" s="11"/>
       <c r="AD250" s="11"/>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>532</v>
       </c>
@@ -14681,7 +14705,7 @@
       <c r="AC251" s="11"/>
       <c r="AD251" s="11"/>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>534</v>
       </c>
@@ -14727,7 +14751,7 @@
       <c r="AC252" s="11"/>
       <c r="AD252" s="11"/>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>536</v>
       </c>
@@ -14773,7 +14797,7 @@
       <c r="AC253" s="11"/>
       <c r="AD253" s="11"/>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>27</v>
       </c>
@@ -14819,7 +14843,7 @@
       <c r="AC254" s="11"/>
       <c r="AD254" s="11"/>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>15</v>
       </c>
@@ -14865,7 +14889,7 @@
       <c r="AC255" s="11"/>
       <c r="AD255" s="11"/>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>540</v>
       </c>
@@ -14911,7 +14935,7 @@
       <c r="AC256" s="11"/>
       <c r="AD256" s="11"/>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>22</v>
       </c>
@@ -14957,7 +14981,7 @@
       <c r="AC257" s="11"/>
       <c r="AD257" s="11"/>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>543</v>
       </c>
@@ -15003,7 +15027,7 @@
       <c r="AC258" s="11"/>
       <c r="AD258" s="11"/>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>545</v>
       </c>
@@ -15049,7 +15073,7 @@
       <c r="AC259" s="11"/>
       <c r="AD259" s="11"/>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>547</v>
       </c>
@@ -15095,7 +15119,7 @@
       <c r="AC260" s="11"/>
       <c r="AD260" s="11"/>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>549</v>
       </c>
@@ -15141,7 +15165,7 @@
       <c r="AC261" s="11"/>
       <c r="AD261" s="11"/>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>551</v>
       </c>
@@ -15187,7 +15211,7 @@
       <c r="AC262" s="11"/>
       <c r="AD262" s="11"/>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>553</v>
       </c>
@@ -15233,7 +15257,7 @@
       <c r="AC263" s="11"/>
       <c r="AD263" s="11"/>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>555</v>
       </c>
@@ -15279,7 +15303,7 @@
       <c r="AC264" s="11"/>
       <c r="AD264" s="11"/>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>557</v>
       </c>
@@ -15325,7 +15349,7 @@
       <c r="AC265" s="11"/>
       <c r="AD265" s="11"/>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>559</v>
       </c>
@@ -15371,7 +15395,7 @@
       <c r="AC266" s="11"/>
       <c r="AD266" s="11"/>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>561</v>
       </c>
@@ -15417,7 +15441,7 @@
       <c r="AC267" s="11"/>
       <c r="AD267" s="11"/>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>563</v>
       </c>
@@ -15463,7 +15487,7 @@
       <c r="AC268" s="11"/>
       <c r="AD268" s="11"/>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>565</v>
       </c>
@@ -15509,7 +15533,7 @@
       <c r="AC269" s="11"/>
       <c r="AD269" s="11"/>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>567</v>
       </c>
@@ -15555,7 +15579,7 @@
       <c r="AC270" s="11"/>
       <c r="AD270" s="11"/>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>569</v>
       </c>
@@ -15601,7 +15625,7 @@
       <c r="AC271" s="11"/>
       <c r="AD271" s="11"/>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>571</v>
       </c>
@@ -15647,7 +15671,7 @@
       <c r="AC272" s="11"/>
       <c r="AD272" s="11"/>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>573</v>
       </c>
@@ -15693,7 +15717,7 @@
       <c r="AC273" s="11"/>
       <c r="AD273" s="11"/>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>575</v>
       </c>
@@ -15739,7 +15763,7 @@
       <c r="AC274" s="11"/>
       <c r="AD274" s="11"/>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>577</v>
       </c>
@@ -15785,7 +15809,7 @@
       <c r="AC275" s="11"/>
       <c r="AD275" s="11"/>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>579</v>
       </c>
@@ -15831,7 +15855,7 @@
       <c r="AC276" s="11"/>
       <c r="AD276" s="11"/>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>581</v>
       </c>
@@ -15877,7 +15901,7 @@
       <c r="AC277" s="11"/>
       <c r="AD277" s="11"/>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>583</v>
       </c>
@@ -15923,7 +15947,7 @@
       <c r="AC278" s="11"/>
       <c r="AD278" s="11"/>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>585</v>
       </c>
@@ -15969,7 +15993,7 @@
       <c r="AC279" s="11"/>
       <c r="AD279" s="11"/>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>587</v>
       </c>
@@ -16015,7 +16039,7 @@
       <c r="AC280" s="11"/>
       <c r="AD280" s="11"/>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>589</v>
       </c>
@@ -16061,7 +16085,7 @@
       <c r="AC281" s="11"/>
       <c r="AD281" s="11"/>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>591</v>
       </c>
@@ -16107,7 +16131,7 @@
       <c r="AC282" s="11"/>
       <c r="AD282" s="11"/>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>10</v>
       </c>
@@ -16153,7 +16177,7 @@
       <c r="AC283" s="11"/>
       <c r="AD283" s="11"/>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>46</v>
       </c>
@@ -16199,7 +16223,7 @@
       <c r="AC284" s="11"/>
       <c r="AD284" s="11"/>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>595</v>
       </c>
@@ -16245,7 +16269,7 @@
       <c r="AC285" s="11"/>
       <c r="AD285" s="11"/>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>597</v>
       </c>
@@ -16291,7 +16315,7 @@
       <c r="AC286" s="11"/>
       <c r="AD286" s="11"/>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>599</v>
       </c>
@@ -16337,7 +16361,7 @@
       <c r="AC287" s="11"/>
       <c r="AD287" s="11"/>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>54</v>
       </c>
@@ -16383,7 +16407,7 @@
       <c r="AC288" s="11"/>
       <c r="AD288" s="11"/>
     </row>
-    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>602</v>
       </c>
@@ -16429,7 +16453,7 @@
       <c r="AC289" s="11"/>
       <c r="AD289" s="11"/>
     </row>
-    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>604</v>
       </c>
@@ -16475,7 +16499,7 @@
       <c r="AC290" s="11"/>
       <c r="AD290" s="11"/>
     </row>
-    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>32</v>
       </c>
@@ -16521,7 +16545,7 @@
       <c r="AC291" s="11"/>
       <c r="AD291" s="11"/>
     </row>
-    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>607</v>
       </c>
@@ -16567,7 +16591,7 @@
       <c r="AC292" s="11"/>
       <c r="AD292" s="11"/>
     </row>
-    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>50</v>
       </c>
@@ -16613,7 +16637,7 @@
       <c r="AC293" s="11"/>
       <c r="AD293" s="11"/>
     </row>
-    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>610</v>
       </c>
@@ -16659,7 +16683,7 @@
       <c r="AC294" s="11"/>
       <c r="AD294" s="11"/>
     </row>
-    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>612</v>
       </c>
@@ -16705,7 +16729,7 @@
       <c r="AC295" s="11"/>
       <c r="AD295" s="11"/>
     </row>
-    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>45</v>
       </c>
@@ -16751,7 +16775,7 @@
       <c r="AC296" s="11"/>
       <c r="AD296" s="11"/>
     </row>
-    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>615</v>
       </c>
@@ -16797,7 +16821,7 @@
       <c r="AC297" s="11"/>
       <c r="AD297" s="11"/>
     </row>
-    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>43</v>
       </c>
@@ -16843,7 +16867,7 @@
       <c r="AC298" s="11"/>
       <c r="AD298" s="11"/>
     </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>618</v>
       </c>
@@ -16889,7 +16913,7 @@
       <c r="AC299" s="11"/>
       <c r="AD299" s="11"/>
     </row>
-    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>620</v>
       </c>
@@ -16935,7 +16959,7 @@
       <c r="AC300" s="11"/>
       <c r="AD300" s="11"/>
     </row>
-    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>622</v>
       </c>
@@ -16981,7 +17005,7 @@
       <c r="AC301" s="11"/>
       <c r="AD301" s="11"/>
     </row>
-    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A302" s="14" t="s">
         <v>624</v>
       </c>
@@ -17027,7 +17051,7 @@
       <c r="AC302" s="11"/>
       <c r="AD302" s="11"/>
     </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>626</v>
       </c>
@@ -17073,7 +17097,7 @@
       <c r="AC303" s="11"/>
       <c r="AD303" s="11"/>
     </row>
-    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>628</v>
       </c>
@@ -17119,7 +17143,7 @@
       <c r="AC304" s="11"/>
       <c r="AD304" s="11"/>
     </row>
-    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>21</v>
       </c>
@@ -17165,7 +17189,7 @@
       <c r="AC305" s="11"/>
       <c r="AD305" s="11"/>
     </row>
-    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>47</v>
       </c>
@@ -17211,7 +17235,7 @@
       <c r="AC306" s="11"/>
       <c r="AD306" s="11"/>
     </row>
-    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>55</v>
       </c>
@@ -17257,7 +17281,7 @@
       <c r="AC307" s="11"/>
       <c r="AD307" s="11"/>
     </row>
-    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>633</v>
       </c>
@@ -17303,7 +17327,7 @@
       <c r="AC308" s="11"/>
       <c r="AD308" s="11"/>
     </row>
-    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>635</v>
       </c>
@@ -17349,7 +17373,7 @@
       <c r="AC309" s="11"/>
       <c r="AD309" s="11"/>
     </row>
-    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>51</v>
       </c>
@@ -17395,7 +17419,7 @@
       <c r="AC310" s="11"/>
       <c r="AD310" s="11"/>
     </row>
-    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>38</v>
       </c>
@@ -17441,7 +17465,7 @@
       <c r="AC311" s="11"/>
       <c r="AD311" s="11"/>
     </row>
-    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>639</v>
       </c>
@@ -17487,7 +17511,7 @@
       <c r="AC312" s="11"/>
       <c r="AD312" s="11"/>
     </row>
-    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>49</v>
       </c>
@@ -17533,7 +17557,7 @@
       <c r="AC313" s="11"/>
       <c r="AD313" s="11"/>
     </row>
-    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>642</v>
       </c>
@@ -17579,7 +17603,7 @@
       <c r="AC314" s="11"/>
       <c r="AD314" s="11"/>
     </row>
-    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>19</v>
       </c>
@@ -17625,7 +17649,7 @@
       <c r="AC315" s="11"/>
       <c r="AD315" s="11"/>
     </row>
-    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>645</v>
       </c>
@@ -17671,7 +17695,7 @@
       <c r="AC316" s="11"/>
       <c r="AD316" s="11"/>
     </row>
-    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A317" s="14" t="s">
         <v>25</v>
       </c>
@@ -17717,7 +17741,7 @@
       <c r="AC317" s="11"/>
       <c r="AD317" s="11"/>
     </row>
-    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>648</v>
       </c>
@@ -17763,7 +17787,7 @@
       <c r="AC318" s="11"/>
       <c r="AD318" s="11"/>
     </row>
-    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>650</v>
       </c>
@@ -17809,7 +17833,7 @@
       <c r="AC319" s="11"/>
       <c r="AD319" s="11"/>
     </row>
-    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>652</v>
       </c>
@@ -17855,7 +17879,7 @@
       <c r="AC320" s="11"/>
       <c r="AD320" s="11"/>
     </row>
-    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>31</v>
       </c>
@@ -17901,7 +17925,7 @@
       <c r="AC321" s="11"/>
       <c r="AD321" s="11"/>
     </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>655</v>
       </c>
@@ -17947,7 +17971,7 @@
       <c r="AC322" s="11"/>
       <c r="AD322" s="11"/>
     </row>
-    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>657</v>
       </c>
@@ -17993,7 +18017,7 @@
       <c r="AC323" s="11"/>
       <c r="AD323" s="11"/>
     </row>
-    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>659</v>
       </c>
@@ -18039,7 +18063,7 @@
       <c r="AC324" s="11"/>
       <c r="AD324" s="11"/>
     </row>
-    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>661</v>
       </c>
@@ -18085,7 +18109,7 @@
       <c r="AC325" s="11"/>
       <c r="AD325" s="11"/>
     </row>
-    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>663</v>
       </c>
@@ -18131,7 +18155,7 @@
       <c r="AC326" s="11"/>
       <c r="AD326" s="11"/>
     </row>
-    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A327" s="14" t="s">
         <v>665</v>
       </c>
@@ -18177,7 +18201,7 @@
       <c r="AC327" s="11"/>
       <c r="AD327" s="11"/>
     </row>
-    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>667</v>
       </c>
@@ -18223,7 +18247,7 @@
       <c r="AC328" s="11"/>
       <c r="AD328" s="11"/>
     </row>
-    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>669</v>
       </c>
@@ -18269,7 +18293,7 @@
       <c r="AC329" s="11"/>
       <c r="AD329" s="11"/>
     </row>
-    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>671</v>
       </c>
@@ -18315,7 +18339,7 @@
       <c r="AC330" s="11"/>
       <c r="AD330" s="11"/>
     </row>
-    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>673</v>
       </c>
@@ -18361,7 +18385,7 @@
       <c r="AC331" s="11"/>
       <c r="AD331" s="11"/>
     </row>
-    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>675</v>
       </c>
@@ -18407,7 +18431,7 @@
       <c r="AC332" s="11"/>
       <c r="AD332" s="11"/>
     </row>
-    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A333" s="14" t="s">
         <v>677</v>
       </c>
@@ -18453,7 +18477,7 @@
       <c r="AC333" s="11"/>
       <c r="AD333" s="11"/>
     </row>
-    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
         <v>679</v>
       </c>
@@ -18499,7 +18523,7 @@
       <c r="AC334" s="11"/>
       <c r="AD334" s="11"/>
     </row>
-    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
         <v>681</v>
       </c>
@@ -18545,7 +18569,7 @@
       <c r="AC335" s="11"/>
       <c r="AD335" s="11"/>
     </row>
-    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>683</v>
       </c>
@@ -18591,7 +18615,7 @@
       <c r="AC336" s="11"/>
       <c r="AD336" s="11"/>
     </row>
-    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
         <v>685</v>
       </c>
@@ -18637,7 +18661,7 @@
       <c r="AC337" s="11"/>
       <c r="AD337" s="11"/>
     </row>
-    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
         <v>687</v>
       </c>
@@ -18683,7 +18707,7 @@
       <c r="AC338" s="11"/>
       <c r="AD338" s="11"/>
     </row>
-    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
         <v>689</v>
       </c>
@@ -18729,7 +18753,7 @@
       <c r="AC339" s="11"/>
       <c r="AD339" s="11"/>
     </row>
-    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
         <v>691</v>
       </c>
@@ -18775,7 +18799,7 @@
       <c r="AC340" s="11"/>
       <c r="AD340" s="11"/>
     </row>
-    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
         <v>693</v>
       </c>
@@ -18821,7 +18845,7 @@
       <c r="AC341" s="11"/>
       <c r="AD341" s="11"/>
     </row>
-    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
         <v>695</v>
       </c>
@@ -18867,7 +18891,7 @@
       <c r="AC342" s="11"/>
       <c r="AD342" s="11"/>
     </row>
-    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
         <v>697</v>
       </c>
@@ -18913,7 +18937,7 @@
       <c r="AC343" s="11"/>
       <c r="AD343" s="11"/>
     </row>
-    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
         <v>699</v>
       </c>
@@ -18959,7 +18983,7 @@
       <c r="AC344" s="11"/>
       <c r="AD344" s="11"/>
     </row>
-    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
         <v>701</v>
       </c>
@@ -19005,7 +19029,7 @@
       <c r="AC345" s="5"/>
       <c r="AD345" s="5"/>
     </row>
-    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A346" s="16" t="s">
         <v>703</v>
       </c>
@@ -19051,7 +19075,7 @@
       <c r="AC346" s="11"/>
       <c r="AD346" s="11"/>
     </row>
-    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A347" s="16" t="s">
         <v>705</v>
       </c>
@@ -19097,7 +19121,7 @@
       <c r="AC347" s="11"/>
       <c r="AD347" s="11"/>
     </row>
-    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A348" s="16" t="s">
         <v>707</v>
       </c>
@@ -19143,7 +19167,7 @@
       <c r="AC348" s="11"/>
       <c r="AD348" s="11"/>
     </row>
-    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A349" s="16" t="s">
         <v>709</v>
       </c>
@@ -19189,7 +19213,7 @@
       <c r="AC349" s="11"/>
       <c r="AD349" s="11"/>
     </row>
-    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A350" s="16" t="s">
         <v>711</v>
       </c>
@@ -19235,7 +19259,7 @@
       <c r="AC350" s="11"/>
       <c r="AD350" s="11"/>
     </row>
-    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A351" s="16" t="s">
         <v>713</v>
       </c>
@@ -19281,7 +19305,7 @@
       <c r="AC351" s="11"/>
       <c r="AD351" s="11"/>
     </row>
-    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A352" s="16" t="s">
         <v>715</v>
       </c>
@@ -19327,7 +19351,7 @@
       <c r="AC352" s="11"/>
       <c r="AD352" s="11"/>
     </row>
-    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A353" s="16" t="s">
         <v>717</v>
       </c>
@@ -19373,7 +19397,7 @@
       <c r="AC353" s="11"/>
       <c r="AD353" s="11"/>
     </row>
-    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
         <v>719</v>
       </c>
@@ -19421,7 +19445,7 @@
       <c r="AC354" s="11"/>
       <c r="AD354" s="11"/>
     </row>
-    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
         <v>721</v>
       </c>
@@ -19467,7 +19491,7 @@
       <c r="AC355" s="11"/>
       <c r="AD355" s="11"/>
     </row>
-    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
         <v>723</v>
       </c>
@@ -19515,7 +19539,7 @@
       <c r="AC356" s="11"/>
       <c r="AD356" s="11"/>
     </row>
-    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
         <v>725</v>
       </c>
@@ -19563,7 +19587,7 @@
       <c r="AC357" s="11"/>
       <c r="AD357" s="11"/>
     </row>
-    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
         <v>727</v>
       </c>
@@ -19609,7 +19633,7 @@
       <c r="AC358" s="11"/>
       <c r="AD358" s="11"/>
     </row>
-    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
         <v>729</v>
       </c>
@@ -19655,7 +19679,7 @@
       <c r="AC359" s="11"/>
       <c r="AD359" s="11"/>
     </row>
-    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
         <v>731</v>
       </c>
@@ -19701,7 +19725,7 @@
       <c r="AC360" s="11"/>
       <c r="AD360" s="11"/>
     </row>
-    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
         <v>41</v>
       </c>
@@ -19747,7 +19771,7 @@
       <c r="AC361" s="11"/>
       <c r="AD361" s="11"/>
     </row>
-    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
         <v>734</v>
       </c>
@@ -19793,7 +19817,7 @@
       <c r="AC362" s="11"/>
       <c r="AD362" s="11"/>
     </row>
-    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
         <v>736</v>
       </c>
@@ -19839,7 +19863,7 @@
       <c r="AC363" s="11"/>
       <c r="AD363" s="11"/>
     </row>
-    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
         <v>42</v>
       </c>
@@ -19885,7 +19909,7 @@
       <c r="AC364" s="11"/>
       <c r="AD364" s="11"/>
     </row>
-    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
         <v>739</v>
       </c>
@@ -19931,7 +19955,7 @@
       <c r="AC365" s="11"/>
       <c r="AD365" s="11"/>
     </row>
-    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
         <v>110</v>
       </c>
@@ -19977,7 +20001,7 @@
       <c r="AC366" s="11"/>
       <c r="AD366" s="11"/>
     </row>
-    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A367" s="11"/>
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
@@ -20009,7 +20033,7 @@
       <c r="AC367" s="11"/>
       <c r="AD367" s="11"/>
     </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A368" s="11"/>
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
@@ -20041,7 +20065,7 @@
       <c r="AC368" s="11"/>
       <c r="AD368" s="11"/>
     </row>
-    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A369" s="11"/>
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
@@ -20073,7 +20097,7 @@
       <c r="AC369" s="11"/>
       <c r="AD369" s="11"/>
     </row>
-    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A370" s="11"/>
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
@@ -20105,7 +20129,7 @@
       <c r="AC370" s="11"/>
       <c r="AD370" s="11"/>
     </row>
-    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A371" s="11"/>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
@@ -20137,7 +20161,7 @@
       <c r="AC371" s="11"/>
       <c r="AD371" s="11"/>
     </row>
-    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A372" s="11"/>
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
@@ -20169,7 +20193,7 @@
       <c r="AC372" s="11"/>
       <c r="AD372" s="11"/>
     </row>
-    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A373" s="11"/>
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
@@ -20201,7 +20225,7 @@
       <c r="AC373" s="11"/>
       <c r="AD373" s="11"/>
     </row>
-    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A374" s="11"/>
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
@@ -20233,7 +20257,7 @@
       <c r="AC374" s="11"/>
       <c r="AD374" s="11"/>
     </row>
-    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A375" s="11"/>
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
@@ -20265,7 +20289,7 @@
       <c r="AC375" s="11"/>
       <c r="AD375" s="11"/>
     </row>
-    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A376" s="11"/>
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
@@ -20297,7 +20321,7 @@
       <c r="AC376" s="11"/>
       <c r="AD376" s="11"/>
     </row>
-    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A377" s="11"/>
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
@@ -20329,7 +20353,7 @@
       <c r="AC377" s="11"/>
       <c r="AD377" s="11"/>
     </row>
-    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A378" s="11"/>
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
@@ -20361,7 +20385,7 @@
       <c r="AC378" s="11"/>
       <c r="AD378" s="11"/>
     </row>
-    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A379" s="11"/>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
@@ -20393,7 +20417,7 @@
       <c r="AC379" s="11"/>
       <c r="AD379" s="11"/>
     </row>
-    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A380" s="11"/>
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
@@ -20425,7 +20449,7 @@
       <c r="AC380" s="11"/>
       <c r="AD380" s="11"/>
     </row>
-    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A381" s="11"/>
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
@@ -20457,7 +20481,7 @@
       <c r="AC381" s="11"/>
       <c r="AD381" s="11"/>
     </row>
-    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A382" s="11"/>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
@@ -20489,7 +20513,7 @@
       <c r="AC382" s="11"/>
       <c r="AD382" s="11"/>
     </row>
-    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A383" s="11"/>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
@@ -20521,7 +20545,7 @@
       <c r="AC383" s="11"/>
       <c r="AD383" s="11"/>
     </row>
-    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A384" s="11"/>
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
@@ -20553,7 +20577,7 @@
       <c r="AC384" s="11"/>
       <c r="AD384" s="11"/>
     </row>
-    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A385" s="11"/>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
@@ -20585,7 +20609,7 @@
       <c r="AC385" s="11"/>
       <c r="AD385" s="11"/>
     </row>
-    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A386" s="11"/>
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
@@ -20617,7 +20641,7 @@
       <c r="AC386" s="11"/>
       <c r="AD386" s="11"/>
     </row>
-    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A387" s="11"/>
       <c r="B387" s="11"/>
       <c r="C387" s="11"/>
@@ -20649,7 +20673,7 @@
       <c r="AC387" s="11"/>
       <c r="AD387" s="11"/>
     </row>
-    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A388" s="11"/>
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
@@ -20681,7 +20705,7 @@
       <c r="AC388" s="11"/>
       <c r="AD388" s="11"/>
     </row>
-    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A389" s="11"/>
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
@@ -20713,7 +20737,7 @@
       <c r="AC389" s="11"/>
       <c r="AD389" s="11"/>
     </row>
-    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A390" s="11"/>
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
@@ -20745,7 +20769,7 @@
       <c r="AC390" s="11"/>
       <c r="AD390" s="11"/>
     </row>
-    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A391" s="11"/>
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
@@ -20777,7 +20801,7 @@
       <c r="AC391" s="11"/>
       <c r="AD391" s="11"/>
     </row>
-    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A392" s="11"/>
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
@@ -20809,7 +20833,7 @@
       <c r="AC392" s="11"/>
       <c r="AD392" s="11"/>
     </row>
-    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A393" s="11"/>
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
@@ -20841,7 +20865,7 @@
       <c r="AC393" s="11"/>
       <c r="AD393" s="11"/>
     </row>
-    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A394" s="11"/>
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
@@ -20873,7 +20897,7 @@
       <c r="AC394" s="11"/>
       <c r="AD394" s="11"/>
     </row>
-    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A395" s="11"/>
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
@@ -20905,7 +20929,7 @@
       <c r="AC395" s="11"/>
       <c r="AD395" s="11"/>
     </row>
-    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A396" s="11"/>
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
@@ -20937,7 +20961,7 @@
       <c r="AC396" s="11"/>
       <c r="AD396" s="11"/>
     </row>
-    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A397" s="11"/>
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
@@ -20969,7 +20993,7 @@
       <c r="AC397" s="11"/>
       <c r="AD397" s="11"/>
     </row>
-    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A398" s="11"/>
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
@@ -21001,7 +21025,7 @@
       <c r="AC398" s="11"/>
       <c r="AD398" s="11"/>
     </row>
-    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A399" s="11"/>
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
@@ -21033,7 +21057,7 @@
       <c r="AC399" s="11"/>
       <c r="AD399" s="11"/>
     </row>
-    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A400" s="11"/>
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
@@ -21065,7 +21089,7 @@
       <c r="AC400" s="11"/>
       <c r="AD400" s="11"/>
     </row>
-    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A401" s="11"/>
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
@@ -21097,7 +21121,7 @@
       <c r="AC401" s="11"/>
       <c r="AD401" s="11"/>
     </row>
-    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A402" s="11"/>
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
@@ -21129,7 +21153,7 @@
       <c r="AC402" s="11"/>
       <c r="AD402" s="11"/>
     </row>
-    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A403" s="11"/>
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
@@ -21161,7 +21185,7 @@
       <c r="AC403" s="11"/>
       <c r="AD403" s="11"/>
     </row>
-    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A404" s="11"/>
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
@@ -21193,7 +21217,7 @@
       <c r="AC404" s="11"/>
       <c r="AD404" s="11"/>
     </row>
-    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A405" s="11"/>
       <c r="B405" s="11"/>
       <c r="C405" s="11"/>
@@ -21225,7 +21249,7 @@
       <c r="AC405" s="11"/>
       <c r="AD405" s="11"/>
     </row>
-    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A406" s="11"/>
       <c r="B406" s="11"/>
       <c r="C406" s="11"/>
@@ -21257,7 +21281,7 @@
       <c r="AC406" s="11"/>
       <c r="AD406" s="11"/>
     </row>
-    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A407" s="11"/>
       <c r="B407" s="11"/>
       <c r="C407" s="11"/>
@@ -21289,7 +21313,7 @@
       <c r="AC407" s="11"/>
       <c r="AD407" s="11"/>
     </row>
-    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A408" s="11"/>
       <c r="B408" s="11"/>
       <c r="C408" s="11"/>
@@ -21321,7 +21345,7 @@
       <c r="AC408" s="11"/>
       <c r="AD408" s="11"/>
     </row>
-    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A409" s="11"/>
       <c r="B409" s="11"/>
       <c r="C409" s="11"/>
@@ -21353,7 +21377,7 @@
       <c r="AC409" s="11"/>
       <c r="AD409" s="11"/>
     </row>
-    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A410" s="11"/>
       <c r="B410" s="11"/>
       <c r="C410" s="11"/>
@@ -21385,7 +21409,7 @@
       <c r="AC410" s="11"/>
       <c r="AD410" s="11"/>
     </row>
-    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A411" s="11"/>
       <c r="B411" s="11"/>
       <c r="C411" s="11"/>
@@ -21417,7 +21441,7 @@
       <c r="AC411" s="11"/>
       <c r="AD411" s="11"/>
     </row>
-    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A412" s="11"/>
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
@@ -21449,7 +21473,7 @@
       <c r="AC412" s="11"/>
       <c r="AD412" s="11"/>
     </row>
-    <row r="413" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A413" s="11"/>
       <c r="B413" s="11"/>
       <c r="C413" s="11"/>
@@ -21481,7 +21505,7 @@
       <c r="AC413" s="11"/>
       <c r="AD413" s="11"/>
     </row>
-    <row r="414" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A414" s="11"/>
       <c r="B414" s="11"/>
       <c r="C414" s="11"/>
@@ -21513,7 +21537,7 @@
       <c r="AC414" s="11"/>
       <c r="AD414" s="11"/>
     </row>
-    <row r="415" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A415" s="11"/>
       <c r="B415" s="11"/>
       <c r="C415" s="11"/>
@@ -21545,7 +21569,7 @@
       <c r="AC415" s="11"/>
       <c r="AD415" s="11"/>
     </row>
-    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A416" s="11"/>
       <c r="B416" s="11"/>
       <c r="C416" s="11"/>
@@ -21577,7 +21601,7 @@
       <c r="AC416" s="11"/>
       <c r="AD416" s="11"/>
     </row>
-    <row r="417" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A417" s="11"/>
       <c r="B417" s="11"/>
       <c r="C417" s="11"/>
@@ -21609,7 +21633,7 @@
       <c r="AC417" s="11"/>
       <c r="AD417" s="11"/>
     </row>
-    <row r="418" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A418" s="11"/>
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
@@ -21641,7 +21665,7 @@
       <c r="AC418" s="11"/>
       <c r="AD418" s="11"/>
     </row>
-    <row r="419" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A419" s="11"/>
       <c r="B419" s="11"/>
       <c r="C419" s="11"/>
@@ -21673,7 +21697,7 @@
       <c r="AC419" s="11"/>
       <c r="AD419" s="11"/>
     </row>
-    <row r="420" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A420" s="11"/>
       <c r="B420" s="11"/>
       <c r="C420" s="11"/>
@@ -21705,7 +21729,7 @@
       <c r="AC420" s="11"/>
       <c r="AD420" s="11"/>
     </row>
-    <row r="421" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A421" s="11"/>
       <c r="B421" s="11"/>
       <c r="C421" s="11"/>
@@ -21737,7 +21761,7 @@
       <c r="AC421" s="11"/>
       <c r="AD421" s="11"/>
     </row>
-    <row r="422" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A422" s="11"/>
       <c r="B422" s="11"/>
       <c r="C422" s="11"/>
@@ -21769,7 +21793,7 @@
       <c r="AC422" s="11"/>
       <c r="AD422" s="11"/>
     </row>
-    <row r="423" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A423" s="11"/>
       <c r="B423" s="11"/>
       <c r="C423" s="11"/>
@@ -21801,7 +21825,7 @@
       <c r="AC423" s="11"/>
       <c r="AD423" s="11"/>
     </row>
-    <row r="424" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A424" s="11"/>
       <c r="B424" s="11"/>
       <c r="C424" s="11"/>
@@ -21833,7 +21857,7 @@
       <c r="AC424" s="11"/>
       <c r="AD424" s="11"/>
     </row>
-    <row r="425" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A425" s="11"/>
       <c r="B425" s="11"/>
       <c r="C425" s="11"/>
@@ -21865,7 +21889,7 @@
       <c r="AC425" s="11"/>
       <c r="AD425" s="11"/>
     </row>
-    <row r="426" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A426" s="11"/>
       <c r="B426" s="11"/>
       <c r="C426" s="11"/>
@@ -21897,7 +21921,7 @@
       <c r="AC426" s="11"/>
       <c r="AD426" s="11"/>
     </row>
-    <row r="427" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A427" s="11"/>
       <c r="B427" s="11"/>
       <c r="C427" s="11"/>
@@ -21929,7 +21953,7 @@
       <c r="AC427" s="11"/>
       <c r="AD427" s="11"/>
     </row>
-    <row r="428" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A428" s="11"/>
       <c r="B428" s="11"/>
       <c r="C428" s="11"/>
@@ -21961,7 +21985,7 @@
       <c r="AC428" s="11"/>
       <c r="AD428" s="11"/>
     </row>
-    <row r="429" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A429" s="11"/>
       <c r="B429" s="11"/>
       <c r="C429" s="11"/>
@@ -21993,7 +22017,7 @@
       <c r="AC429" s="11"/>
       <c r="AD429" s="11"/>
     </row>
-    <row r="430" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A430" s="11"/>
       <c r="B430" s="11"/>
       <c r="C430" s="11"/>
@@ -22025,7 +22049,7 @@
       <c r="AC430" s="11"/>
       <c r="AD430" s="11"/>
     </row>
-    <row r="431" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A431" s="11"/>
       <c r="B431" s="11"/>
       <c r="C431" s="11"/>
@@ -22057,7 +22081,7 @@
       <c r="AC431" s="11"/>
       <c r="AD431" s="11"/>
     </row>
-    <row r="432" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A432" s="11"/>
       <c r="B432" s="11"/>
       <c r="C432" s="11"/>
@@ -22089,7 +22113,7 @@
       <c r="AC432" s="11"/>
       <c r="AD432" s="11"/>
     </row>
-    <row r="433" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A433" s="11"/>
       <c r="B433" s="11"/>
       <c r="C433" s="11"/>
@@ -22121,7 +22145,7 @@
       <c r="AC433" s="11"/>
       <c r="AD433" s="11"/>
     </row>
-    <row r="434" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A434" s="11"/>
       <c r="B434" s="11"/>
       <c r="C434" s="11"/>
@@ -22153,7 +22177,7 @@
       <c r="AC434" s="11"/>
       <c r="AD434" s="11"/>
     </row>
-    <row r="435" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A435" s="11"/>
       <c r="B435" s="11"/>
       <c r="C435" s="11"/>
@@ -22185,7 +22209,7 @@
       <c r="AC435" s="11"/>
       <c r="AD435" s="11"/>
     </row>
-    <row r="436" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A436" s="11"/>
       <c r="B436" s="11"/>
       <c r="C436" s="11"/>
@@ -22217,7 +22241,7 @@
       <c r="AC436" s="11"/>
       <c r="AD436" s="11"/>
     </row>
-    <row r="437" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A437" s="11"/>
       <c r="B437" s="11"/>
       <c r="C437" s="11"/>
@@ -22249,7 +22273,7 @@
       <c r="AC437" s="11"/>
       <c r="AD437" s="11"/>
     </row>
-    <row r="438" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A438" s="11"/>
       <c r="B438" s="11"/>
       <c r="C438" s="11"/>
@@ -22281,7 +22305,7 @@
       <c r="AC438" s="11"/>
       <c r="AD438" s="11"/>
     </row>
-    <row r="439" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A439" s="11"/>
       <c r="B439" s="11"/>
       <c r="C439" s="11"/>
@@ -22313,7 +22337,7 @@
       <c r="AC439" s="11"/>
       <c r="AD439" s="11"/>
     </row>
-    <row r="440" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A440" s="11"/>
       <c r="B440" s="11"/>
       <c r="C440" s="11"/>
@@ -22345,7 +22369,7 @@
       <c r="AC440" s="11"/>
       <c r="AD440" s="11"/>
     </row>
-    <row r="441" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A441" s="11"/>
       <c r="B441" s="11"/>
       <c r="C441" s="11"/>
@@ -22377,7 +22401,7 @@
       <c r="AC441" s="11"/>
       <c r="AD441" s="11"/>
     </row>
-    <row r="442" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A442" s="11"/>
       <c r="B442" s="11"/>
       <c r="C442" s="11"/>
@@ -22409,7 +22433,7 @@
       <c r="AC442" s="11"/>
       <c r="AD442" s="11"/>
     </row>
-    <row r="443" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A443" s="11"/>
       <c r="B443" s="11"/>
       <c r="C443" s="11"/>
@@ -22441,7 +22465,7 @@
       <c r="AC443" s="11"/>
       <c r="AD443" s="11"/>
     </row>
-    <row r="444" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A444" s="11"/>
       <c r="B444" s="11"/>
       <c r="C444" s="11"/>
@@ -22473,7 +22497,7 @@
       <c r="AC444" s="11"/>
       <c r="AD444" s="11"/>
     </row>
-    <row r="445" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A445" s="11"/>
       <c r="B445" s="11"/>
       <c r="C445" s="11"/>
@@ -22505,7 +22529,7 @@
       <c r="AC445" s="11"/>
       <c r="AD445" s="11"/>
     </row>
-    <row r="446" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A446" s="11"/>
       <c r="B446" s="11"/>
       <c r="C446" s="11"/>
@@ -22537,7 +22561,7 @@
       <c r="AC446" s="11"/>
       <c r="AD446" s="11"/>
     </row>
-    <row r="447" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A447" s="11"/>
       <c r="B447" s="11"/>
       <c r="C447" s="11"/>
@@ -22569,7 +22593,7 @@
       <c r="AC447" s="11"/>
       <c r="AD447" s="11"/>
     </row>
-    <row r="448" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A448" s="11"/>
       <c r="B448" s="11"/>
       <c r="C448" s="11"/>
@@ -22601,7 +22625,7 @@
       <c r="AC448" s="11"/>
       <c r="AD448" s="11"/>
     </row>
-    <row r="449" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A449" s="11"/>
       <c r="B449" s="11"/>
       <c r="C449" s="11"/>
@@ -22633,7 +22657,7 @@
       <c r="AC449" s="11"/>
       <c r="AD449" s="11"/>
     </row>
-    <row r="450" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A450" s="11"/>
       <c r="B450" s="11"/>
       <c r="C450" s="11"/>
@@ -22665,7 +22689,7 @@
       <c r="AC450" s="11"/>
       <c r="AD450" s="11"/>
     </row>
-    <row r="451" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A451" s="11"/>
       <c r="B451" s="11"/>
       <c r="C451" s="11"/>
@@ -22697,7 +22721,7 @@
       <c r="AC451" s="11"/>
       <c r="AD451" s="11"/>
     </row>
-    <row r="452" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A452" s="11"/>
       <c r="B452" s="11"/>
       <c r="C452" s="11"/>
@@ -22729,7 +22753,7 @@
       <c r="AC452" s="11"/>
       <c r="AD452" s="11"/>
     </row>
-    <row r="453" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A453" s="11"/>
       <c r="B453" s="11"/>
       <c r="C453" s="11"/>
@@ -22761,7 +22785,7 @@
       <c r="AC453" s="11"/>
       <c r="AD453" s="11"/>
     </row>
-    <row r="454" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A454" s="11"/>
       <c r="B454" s="11"/>
       <c r="C454" s="11"/>
@@ -22793,7 +22817,7 @@
       <c r="AC454" s="11"/>
       <c r="AD454" s="11"/>
     </row>
-    <row r="455" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A455" s="11"/>
       <c r="B455" s="11"/>
       <c r="C455" s="11"/>
@@ -22825,7 +22849,7 @@
       <c r="AC455" s="11"/>
       <c r="AD455" s="11"/>
     </row>
-    <row r="456" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A456" s="11"/>
       <c r="B456" s="11"/>
       <c r="C456" s="11"/>
@@ -22857,7 +22881,7 @@
       <c r="AC456" s="11"/>
       <c r="AD456" s="11"/>
     </row>
-    <row r="457" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A457" s="11"/>
       <c r="B457" s="11"/>
       <c r="C457" s="11"/>
@@ -22889,7 +22913,7 @@
       <c r="AC457" s="11"/>
       <c r="AD457" s="11"/>
     </row>
-    <row r="458" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A458" s="11"/>
       <c r="B458" s="11"/>
       <c r="C458" s="11"/>
@@ -22921,7 +22945,7 @@
       <c r="AC458" s="11"/>
       <c r="AD458" s="11"/>
     </row>
-    <row r="459" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A459" s="11"/>
       <c r="B459" s="11"/>
       <c r="C459" s="11"/>
@@ -22953,7 +22977,7 @@
       <c r="AC459" s="11"/>
       <c r="AD459" s="11"/>
     </row>
-    <row r="460" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A460" s="11"/>
       <c r="B460" s="11"/>
       <c r="C460" s="11"/>
@@ -22985,7 +23009,7 @@
       <c r="AC460" s="11"/>
       <c r="AD460" s="11"/>
     </row>
-    <row r="461" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A461" s="11"/>
       <c r="B461" s="11"/>
       <c r="C461" s="11"/>
@@ -23017,7 +23041,7 @@
       <c r="AC461" s="11"/>
       <c r="AD461" s="11"/>
     </row>
-    <row r="462" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A462" s="11"/>
       <c r="B462" s="11"/>
       <c r="C462" s="11"/>
@@ -23049,7 +23073,7 @@
       <c r="AC462" s="11"/>
       <c r="AD462" s="11"/>
     </row>
-    <row r="463" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A463" s="11"/>
       <c r="B463" s="11"/>
       <c r="C463" s="11"/>
@@ -23081,7 +23105,7 @@
       <c r="AC463" s="11"/>
       <c r="AD463" s="11"/>
     </row>
-    <row r="464" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A464" s="11"/>
       <c r="B464" s="11"/>
       <c r="C464" s="11"/>
@@ -23113,7 +23137,7 @@
       <c r="AC464" s="11"/>
       <c r="AD464" s="11"/>
     </row>
-    <row r="465" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A465" s="11"/>
       <c r="B465" s="11"/>
       <c r="C465" s="11"/>
@@ -23145,7 +23169,7 @@
       <c r="AC465" s="11"/>
       <c r="AD465" s="11"/>
     </row>
-    <row r="466" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A466" s="11"/>
       <c r="B466" s="11"/>
       <c r="C466" s="11"/>
@@ -23177,7 +23201,7 @@
       <c r="AC466" s="11"/>
       <c r="AD466" s="11"/>
     </row>
-    <row r="467" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A467" s="11"/>
       <c r="B467" s="11"/>
       <c r="C467" s="11"/>
@@ -23209,7 +23233,7 @@
       <c r="AC467" s="11"/>
       <c r="AD467" s="11"/>
     </row>
-    <row r="468" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A468" s="11"/>
       <c r="B468" s="11"/>
       <c r="C468" s="11"/>
@@ -23241,7 +23265,7 @@
       <c r="AC468" s="11"/>
       <c r="AD468" s="11"/>
     </row>
-    <row r="469" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A469" s="11"/>
       <c r="B469" s="11"/>
       <c r="C469" s="11"/>
@@ -23273,7 +23297,7 @@
       <c r="AC469" s="11"/>
       <c r="AD469" s="11"/>
     </row>
-    <row r="470" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A470" s="11"/>
       <c r="B470" s="11"/>
       <c r="C470" s="11"/>
@@ -23305,7 +23329,7 @@
       <c r="AC470" s="11"/>
       <c r="AD470" s="11"/>
     </row>
-    <row r="471" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A471" s="11"/>
       <c r="B471" s="11"/>
       <c r="C471" s="11"/>
@@ -23337,7 +23361,7 @@
       <c r="AC471" s="11"/>
       <c r="AD471" s="11"/>
     </row>
-    <row r="472" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A472" s="11"/>
       <c r="B472" s="11"/>
       <c r="C472" s="11"/>
@@ -23369,7 +23393,7 @@
       <c r="AC472" s="11"/>
       <c r="AD472" s="11"/>
     </row>
-    <row r="473" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A473" s="11"/>
       <c r="B473" s="11"/>
       <c r="C473" s="11"/>
@@ -23401,7 +23425,7 @@
       <c r="AC473" s="11"/>
       <c r="AD473" s="11"/>
     </row>
-    <row r="474" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A474" s="11"/>
       <c r="B474" s="11"/>
       <c r="C474" s="11"/>
@@ -23433,7 +23457,7 @@
       <c r="AC474" s="11"/>
       <c r="AD474" s="11"/>
     </row>
-    <row r="475" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A475" s="11"/>
       <c r="B475" s="11"/>
       <c r="C475" s="11"/>
@@ -23465,7 +23489,7 @@
       <c r="AC475" s="11"/>
       <c r="AD475" s="11"/>
     </row>
-    <row r="476" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A476" s="11"/>
       <c r="B476" s="11"/>
       <c r="C476" s="11"/>
@@ -23497,7 +23521,7 @@
       <c r="AC476" s="11"/>
       <c r="AD476" s="11"/>
     </row>
-    <row r="477" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A477" s="11"/>
       <c r="B477" s="11"/>
       <c r="C477" s="11"/>
@@ -23529,7 +23553,7 @@
       <c r="AC477" s="11"/>
       <c r="AD477" s="11"/>
     </row>
-    <row r="478" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A478" s="11"/>
       <c r="B478" s="11"/>
       <c r="C478" s="11"/>
@@ -23561,7 +23585,7 @@
       <c r="AC478" s="11"/>
       <c r="AD478" s="11"/>
     </row>
-    <row r="479" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A479" s="11"/>
       <c r="B479" s="11"/>
       <c r="C479" s="11"/>
@@ -23593,7 +23617,7 @@
       <c r="AC479" s="11"/>
       <c r="AD479" s="11"/>
     </row>
-    <row r="480" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A480" s="11"/>
       <c r="B480" s="11"/>
       <c r="C480" s="11"/>
@@ -23625,7 +23649,7 @@
       <c r="AC480" s="11"/>
       <c r="AD480" s="11"/>
     </row>
-    <row r="481" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A481" s="11"/>
       <c r="B481" s="11"/>
       <c r="C481" s="11"/>
@@ -23657,7 +23681,7 @@
       <c r="AC481" s="11"/>
       <c r="AD481" s="11"/>
     </row>
-    <row r="482" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A482" s="11"/>
       <c r="B482" s="11"/>
       <c r="C482" s="11"/>
@@ -23689,7 +23713,7 @@
       <c r="AC482" s="11"/>
       <c r="AD482" s="11"/>
     </row>
-    <row r="483" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A483" s="11"/>
       <c r="B483" s="11"/>
       <c r="C483" s="11"/>
@@ -23721,7 +23745,7 @@
       <c r="AC483" s="11"/>
       <c r="AD483" s="11"/>
     </row>
-    <row r="484" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A484" s="11"/>
       <c r="B484" s="11"/>
       <c r="C484" s="11"/>
@@ -23753,7 +23777,7 @@
       <c r="AC484" s="11"/>
       <c r="AD484" s="11"/>
     </row>
-    <row r="485" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A485" s="11"/>
       <c r="B485" s="11"/>
       <c r="C485" s="11"/>
@@ -23785,7 +23809,7 @@
       <c r="AC485" s="11"/>
       <c r="AD485" s="11"/>
     </row>
-    <row r="486" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A486" s="11"/>
       <c r="B486" s="11"/>
       <c r="C486" s="11"/>
@@ -23817,7 +23841,7 @@
       <c r="AC486" s="11"/>
       <c r="AD486" s="11"/>
     </row>
-    <row r="487" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A487" s="11"/>
       <c r="B487" s="11"/>
       <c r="C487" s="11"/>
@@ -23849,7 +23873,7 @@
       <c r="AC487" s="11"/>
       <c r="AD487" s="11"/>
     </row>
-    <row r="488" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A488" s="11"/>
       <c r="B488" s="11"/>
       <c r="C488" s="11"/>
@@ -23881,7 +23905,7 @@
       <c r="AC488" s="11"/>
       <c r="AD488" s="11"/>
     </row>
-    <row r="489" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A489" s="11"/>
       <c r="B489" s="11"/>
       <c r="C489" s="11"/>
@@ -23913,7 +23937,7 @@
       <c r="AC489" s="11"/>
       <c r="AD489" s="11"/>
     </row>
-    <row r="490" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A490" s="11"/>
       <c r="B490" s="11"/>
       <c r="C490" s="11"/>
@@ -23945,7 +23969,7 @@
       <c r="AC490" s="11"/>
       <c r="AD490" s="11"/>
     </row>
-    <row r="491" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A491" s="11"/>
       <c r="B491" s="11"/>
       <c r="C491" s="11"/>
@@ -23977,7 +24001,7 @@
       <c r="AC491" s="11"/>
       <c r="AD491" s="11"/>
     </row>
-    <row r="492" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A492" s="11"/>
       <c r="B492" s="11"/>
       <c r="C492" s="11"/>
@@ -24009,7 +24033,7 @@
       <c r="AC492" s="11"/>
       <c r="AD492" s="11"/>
     </row>
-    <row r="493" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A493" s="11"/>
       <c r="B493" s="11"/>
       <c r="C493" s="11"/>
@@ -24041,7 +24065,7 @@
       <c r="AC493" s="11"/>
       <c r="AD493" s="11"/>
     </row>
-    <row r="494" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A494" s="11"/>
       <c r="B494" s="11"/>
       <c r="C494" s="11"/>
@@ -24073,7 +24097,7 @@
       <c r="AC494" s="11"/>
       <c r="AD494" s="11"/>
     </row>
-    <row r="495" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A495" s="11"/>
       <c r="B495" s="11"/>
       <c r="C495" s="11"/>
@@ -24105,7 +24129,7 @@
       <c r="AC495" s="11"/>
       <c r="AD495" s="11"/>
     </row>
-    <row r="496" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A496" s="11"/>
       <c r="B496" s="11"/>
       <c r="C496" s="11"/>
@@ -24137,7 +24161,7 @@
       <c r="AC496" s="11"/>
       <c r="AD496" s="11"/>
     </row>
-    <row r="497" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A497" s="11"/>
       <c r="B497" s="11"/>
       <c r="C497" s="11"/>
@@ -24169,7 +24193,7 @@
       <c r="AC497" s="11"/>
       <c r="AD497" s="11"/>
     </row>
-    <row r="498" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A498" s="11"/>
       <c r="B498" s="11"/>
       <c r="C498" s="11"/>
@@ -24201,7 +24225,7 @@
       <c r="AC498" s="11"/>
       <c r="AD498" s="11"/>
     </row>
-    <row r="499" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A499" s="11"/>
       <c r="B499" s="11"/>
       <c r="C499" s="11"/>
@@ -24233,7 +24257,7 @@
       <c r="AC499" s="11"/>
       <c r="AD499" s="11"/>
     </row>
-    <row r="500" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A500" s="11"/>
       <c r="B500" s="11"/>
       <c r="C500" s="11"/>
@@ -24265,7 +24289,7 @@
       <c r="AC500" s="11"/>
       <c r="AD500" s="11"/>
     </row>
-    <row r="501" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A501" s="11"/>
       <c r="B501" s="11"/>
       <c r="C501" s="11"/>
@@ -24297,7 +24321,7 @@
       <c r="AC501" s="11"/>
       <c r="AD501" s="11"/>
     </row>
-    <row r="502" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A502" s="11"/>
       <c r="B502" s="11"/>
       <c r="C502" s="11"/>
@@ -24329,7 +24353,7 @@
       <c r="AC502" s="11"/>
       <c r="AD502" s="11"/>
     </row>
-    <row r="503" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A503" s="11"/>
       <c r="B503" s="11"/>
       <c r="C503" s="11"/>
@@ -24361,7 +24385,7 @@
       <c r="AC503" s="11"/>
       <c r="AD503" s="11"/>
     </row>
-    <row r="504" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A504" s="11"/>
       <c r="B504" s="11"/>
       <c r="C504" s="11"/>
@@ -24393,7 +24417,7 @@
       <c r="AC504" s="11"/>
       <c r="AD504" s="11"/>
     </row>
-    <row r="505" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A505" s="11"/>
       <c r="B505" s="11"/>
       <c r="C505" s="11"/>
@@ -24425,7 +24449,7 @@
       <c r="AC505" s="11"/>
       <c r="AD505" s="11"/>
     </row>
-    <row r="506" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A506" s="11"/>
       <c r="B506" s="11"/>
       <c r="C506" s="11"/>
@@ -24457,7 +24481,7 @@
       <c r="AC506" s="11"/>
       <c r="AD506" s="11"/>
     </row>
-    <row r="507" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A507" s="11"/>
       <c r="B507" s="11"/>
       <c r="C507" s="11"/>
@@ -24489,7 +24513,7 @@
       <c r="AC507" s="11"/>
       <c r="AD507" s="11"/>
     </row>
-    <row r="508" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A508" s="11"/>
       <c r="B508" s="11"/>
       <c r="C508" s="11"/>
@@ -24521,7 +24545,7 @@
       <c r="AC508" s="11"/>
       <c r="AD508" s="11"/>
     </row>
-    <row r="509" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A509" s="11"/>
       <c r="B509" s="11"/>
       <c r="C509" s="11"/>
@@ -24553,7 +24577,7 @@
       <c r="AC509" s="11"/>
       <c r="AD509" s="11"/>
     </row>
-    <row r="510" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A510" s="11"/>
       <c r="B510" s="11"/>
       <c r="C510" s="11"/>
@@ -24585,7 +24609,7 @@
       <c r="AC510" s="11"/>
       <c r="AD510" s="11"/>
     </row>
-    <row r="511" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A511" s="11"/>
       <c r="B511" s="11"/>
       <c r="C511" s="11"/>
@@ -24617,7 +24641,7 @@
       <c r="AC511" s="11"/>
       <c r="AD511" s="11"/>
     </row>
-    <row r="512" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A512" s="11"/>
       <c r="B512" s="11"/>
       <c r="C512" s="11"/>
@@ -24649,7 +24673,7 @@
       <c r="AC512" s="11"/>
       <c r="AD512" s="11"/>
     </row>
-    <row r="513" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A513" s="11"/>
       <c r="B513" s="11"/>
       <c r="C513" s="11"/>
@@ -24681,7 +24705,7 @@
       <c r="AC513" s="11"/>
       <c r="AD513" s="11"/>
     </row>
-    <row r="514" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A514" s="11"/>
       <c r="B514" s="11"/>
       <c r="C514" s="11"/>
@@ -24713,7 +24737,7 @@
       <c r="AC514" s="11"/>
       <c r="AD514" s="11"/>
     </row>
-    <row r="515" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A515" s="11"/>
       <c r="B515" s="11"/>
       <c r="C515" s="11"/>
@@ -24745,7 +24769,7 @@
       <c r="AC515" s="11"/>
       <c r="AD515" s="11"/>
     </row>
-    <row r="516" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A516" s="11"/>
       <c r="B516" s="11"/>
       <c r="C516" s="11"/>
@@ -24777,7 +24801,7 @@
       <c r="AC516" s="11"/>
       <c r="AD516" s="11"/>
     </row>
-    <row r="517" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A517" s="11"/>
       <c r="B517" s="11"/>
       <c r="C517" s="11"/>
@@ -24809,7 +24833,7 @@
       <c r="AC517" s="11"/>
       <c r="AD517" s="11"/>
     </row>
-    <row r="518" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A518" s="11"/>
       <c r="B518" s="11"/>
       <c r="C518" s="11"/>
@@ -24841,7 +24865,7 @@
       <c r="AC518" s="11"/>
       <c r="AD518" s="11"/>
     </row>
-    <row r="519" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A519" s="11"/>
       <c r="B519" s="11"/>
       <c r="C519" s="11"/>
@@ -24873,7 +24897,7 @@
       <c r="AC519" s="11"/>
       <c r="AD519" s="11"/>
     </row>
-    <row r="520" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A520" s="11"/>
       <c r="B520" s="11"/>
       <c r="C520" s="11"/>
@@ -24905,7 +24929,7 @@
       <c r="AC520" s="11"/>
       <c r="AD520" s="11"/>
     </row>
-    <row r="521" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A521" s="11"/>
       <c r="B521" s="11"/>
       <c r="C521" s="11"/>
@@ -24937,7 +24961,7 @@
       <c r="AC521" s="11"/>
       <c r="AD521" s="11"/>
     </row>
-    <row r="522" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A522" s="11"/>
       <c r="B522" s="11"/>
       <c r="C522" s="11"/>
@@ -24969,7 +24993,7 @@
       <c r="AC522" s="11"/>
       <c r="AD522" s="11"/>
     </row>
-    <row r="523" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A523" s="11"/>
       <c r="B523" s="11"/>
       <c r="C523" s="11"/>
@@ -25001,7 +25025,7 @@
       <c r="AC523" s="11"/>
       <c r="AD523" s="11"/>
     </row>
-    <row r="524" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A524" s="11"/>
       <c r="B524" s="11"/>
       <c r="C524" s="11"/>
@@ -25033,7 +25057,7 @@
       <c r="AC524" s="11"/>
       <c r="AD524" s="11"/>
     </row>
-    <row r="525" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A525" s="11"/>
       <c r="B525" s="11"/>
       <c r="C525" s="11"/>
@@ -25065,7 +25089,7 @@
       <c r="AC525" s="11"/>
       <c r="AD525" s="11"/>
     </row>
-    <row r="526" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A526" s="11"/>
       <c r="B526" s="11"/>
       <c r="C526" s="11"/>
@@ -25097,7 +25121,7 @@
       <c r="AC526" s="11"/>
       <c r="AD526" s="11"/>
     </row>
-    <row r="527" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A527" s="11"/>
       <c r="B527" s="11"/>
       <c r="C527" s="11"/>
@@ -25129,7 +25153,7 @@
       <c r="AC527" s="11"/>
       <c r="AD527" s="11"/>
     </row>
-    <row r="528" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A528" s="11"/>
       <c r="B528" s="11"/>
       <c r="C528" s="11"/>
@@ -25161,7 +25185,7 @@
       <c r="AC528" s="11"/>
       <c r="AD528" s="11"/>
     </row>
-    <row r="529" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A529" s="11"/>
       <c r="B529" s="11"/>
       <c r="C529" s="11"/>
@@ -25193,7 +25217,7 @@
       <c r="AC529" s="11"/>
       <c r="AD529" s="11"/>
     </row>
-    <row r="530" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A530" s="11"/>
       <c r="B530" s="11"/>
       <c r="C530" s="11"/>
@@ -25225,7 +25249,7 @@
       <c r="AC530" s="11"/>
       <c r="AD530" s="11"/>
     </row>
-    <row r="531" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A531" s="11"/>
       <c r="B531" s="11"/>
       <c r="C531" s="11"/>
@@ -25257,7 +25281,7 @@
       <c r="AC531" s="11"/>
       <c r="AD531" s="11"/>
     </row>
-    <row r="532" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A532" s="11"/>
       <c r="B532" s="11"/>
       <c r="C532" s="11"/>
@@ -25289,7 +25313,7 @@
       <c r="AC532" s="11"/>
       <c r="AD532" s="11"/>
     </row>
-    <row r="533" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A533" s="11"/>
       <c r="B533" s="11"/>
       <c r="C533" s="11"/>
@@ -25321,7 +25345,7 @@
       <c r="AC533" s="11"/>
       <c r="AD533" s="11"/>
     </row>
-    <row r="534" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A534" s="11"/>
       <c r="B534" s="11"/>
       <c r="C534" s="11"/>
@@ -25353,7 +25377,7 @@
       <c r="AC534" s="11"/>
       <c r="AD534" s="11"/>
     </row>
-    <row r="535" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A535" s="11"/>
       <c r="B535" s="11"/>
       <c r="C535" s="11"/>
@@ -25385,7 +25409,7 @@
       <c r="AC535" s="11"/>
       <c r="AD535" s="11"/>
     </row>
-    <row r="536" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A536" s="11"/>
       <c r="B536" s="11"/>
       <c r="C536" s="11"/>
@@ -25417,7 +25441,7 @@
       <c r="AC536" s="11"/>
       <c r="AD536" s="11"/>
     </row>
-    <row r="537" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A537" s="11"/>
       <c r="B537" s="11"/>
       <c r="C537" s="11"/>
@@ -25449,7 +25473,7 @@
       <c r="AC537" s="11"/>
       <c r="AD537" s="11"/>
     </row>
-    <row r="538" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A538" s="11"/>
       <c r="B538" s="11"/>
       <c r="C538" s="11"/>
@@ -25481,7 +25505,7 @@
       <c r="AC538" s="11"/>
       <c r="AD538" s="11"/>
     </row>
-    <row r="539" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A539" s="11"/>
       <c r="B539" s="11"/>
       <c r="C539" s="11"/>
@@ -25513,7 +25537,7 @@
       <c r="AC539" s="11"/>
       <c r="AD539" s="11"/>
     </row>
-    <row r="540" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A540" s="11"/>
       <c r="B540" s="11"/>
       <c r="C540" s="11"/>
@@ -25545,7 +25569,7 @@
       <c r="AC540" s="11"/>
       <c r="AD540" s="11"/>
     </row>
-    <row r="541" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A541" s="11"/>
       <c r="B541" s="11"/>
       <c r="C541" s="11"/>
@@ -25577,7 +25601,7 @@
       <c r="AC541" s="11"/>
       <c r="AD541" s="11"/>
     </row>
-    <row r="542" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A542" s="11"/>
       <c r="B542" s="11"/>
       <c r="C542" s="11"/>
@@ -25609,7 +25633,7 @@
       <c r="AC542" s="11"/>
       <c r="AD542" s="11"/>
     </row>
-    <row r="543" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A543" s="11"/>
       <c r="B543" s="11"/>
       <c r="C543" s="11"/>
@@ -25641,7 +25665,7 @@
       <c r="AC543" s="11"/>
       <c r="AD543" s="11"/>
     </row>
-    <row r="544" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A544" s="11"/>
       <c r="B544" s="11"/>
       <c r="C544" s="11"/>
@@ -25673,7 +25697,7 @@
       <c r="AC544" s="11"/>
       <c r="AD544" s="11"/>
     </row>
-    <row r="545" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A545" s="11"/>
       <c r="B545" s="11"/>
       <c r="C545" s="11"/>
@@ -25705,7 +25729,7 @@
       <c r="AC545" s="11"/>
       <c r="AD545" s="11"/>
     </row>
-    <row r="546" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A546" s="11"/>
       <c r="B546" s="11"/>
       <c r="C546" s="11"/>
@@ -25737,7 +25761,7 @@
       <c r="AC546" s="11"/>
       <c r="AD546" s="11"/>
     </row>
-    <row r="547" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A547" s="11"/>
       <c r="B547" s="11"/>
       <c r="C547" s="11"/>
@@ -25769,7 +25793,7 @@
       <c r="AC547" s="11"/>
       <c r="AD547" s="11"/>
     </row>
-    <row r="548" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A548" s="11"/>
       <c r="B548" s="11"/>
       <c r="C548" s="11"/>
@@ -25801,7 +25825,7 @@
       <c r="AC548" s="11"/>
       <c r="AD548" s="11"/>
     </row>
-    <row r="549" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A549" s="11"/>
       <c r="B549" s="11"/>
       <c r="C549" s="11"/>
@@ -25833,7 +25857,7 @@
       <c r="AC549" s="11"/>
       <c r="AD549" s="11"/>
     </row>
-    <row r="550" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A550" s="11"/>
       <c r="B550" s="11"/>
       <c r="C550" s="11"/>
@@ -25865,7 +25889,7 @@
       <c r="AC550" s="11"/>
       <c r="AD550" s="11"/>
     </row>
-    <row r="551" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A551" s="11"/>
       <c r="B551" s="11"/>
       <c r="C551" s="11"/>
@@ -25897,7 +25921,7 @@
       <c r="AC551" s="11"/>
       <c r="AD551" s="11"/>
     </row>
-    <row r="552" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A552" s="11"/>
       <c r="B552" s="11"/>
       <c r="C552" s="11"/>
@@ -25929,7 +25953,7 @@
       <c r="AC552" s="11"/>
       <c r="AD552" s="11"/>
     </row>
-    <row r="553" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A553" s="11"/>
       <c r="B553" s="11"/>
       <c r="C553" s="11"/>
@@ -25961,7 +25985,7 @@
       <c r="AC553" s="11"/>
       <c r="AD553" s="11"/>
     </row>
-    <row r="554" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A554" s="11"/>
       <c r="B554" s="11"/>
       <c r="C554" s="11"/>
@@ -25993,7 +26017,7 @@
       <c r="AC554" s="11"/>
       <c r="AD554" s="11"/>
     </row>
-    <row r="555" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A555" s="11"/>
       <c r="B555" s="11"/>
       <c r="C555" s="11"/>
@@ -26025,7 +26049,7 @@
       <c r="AC555" s="11"/>
       <c r="AD555" s="11"/>
     </row>
-    <row r="556" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A556" s="11"/>
       <c r="B556" s="11"/>
       <c r="C556" s="11"/>
@@ -26057,7 +26081,7 @@
       <c r="AC556" s="11"/>
       <c r="AD556" s="11"/>
     </row>
-    <row r="557" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A557" s="11"/>
       <c r="B557" s="11"/>
       <c r="C557" s="11"/>
@@ -26089,7 +26113,7 @@
       <c r="AC557" s="11"/>
       <c r="AD557" s="11"/>
     </row>
-    <row r="558" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A558" s="11"/>
       <c r="B558" s="11"/>
       <c r="C558" s="11"/>
@@ -26121,7 +26145,7 @@
       <c r="AC558" s="11"/>
       <c r="AD558" s="11"/>
     </row>
-    <row r="559" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A559" s="11"/>
       <c r="B559" s="11"/>
       <c r="C559" s="11"/>
@@ -26153,7 +26177,7 @@
       <c r="AC559" s="11"/>
       <c r="AD559" s="11"/>
     </row>
-    <row r="560" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A560" s="11"/>
       <c r="B560" s="11"/>
       <c r="C560" s="11"/>
@@ -26185,7 +26209,7 @@
       <c r="AC560" s="11"/>
       <c r="AD560" s="11"/>
     </row>
-    <row r="561" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A561" s="11"/>
       <c r="B561" s="11"/>
       <c r="C561" s="11"/>
@@ -26217,7 +26241,7 @@
       <c r="AC561" s="11"/>
       <c r="AD561" s="11"/>
     </row>
-    <row r="562" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A562" s="11"/>
       <c r="B562" s="11"/>
       <c r="C562" s="11"/>
@@ -26249,7 +26273,7 @@
       <c r="AC562" s="11"/>
       <c r="AD562" s="11"/>
     </row>
-    <row r="563" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A563" s="11"/>
       <c r="B563" s="11"/>
       <c r="C563" s="11"/>
@@ -26281,7 +26305,7 @@
       <c r="AC563" s="11"/>
       <c r="AD563" s="11"/>
     </row>
-    <row r="564" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A564" s="11"/>
       <c r="B564" s="11"/>
       <c r="C564" s="11"/>
@@ -26313,7 +26337,7 @@
       <c r="AC564" s="11"/>
       <c r="AD564" s="11"/>
     </row>
-    <row r="565" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A565" s="11"/>
       <c r="B565" s="11"/>
       <c r="C565" s="11"/>
@@ -26345,7 +26369,7 @@
       <c r="AC565" s="11"/>
       <c r="AD565" s="11"/>
     </row>
-    <row r="566" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A566" s="11"/>
       <c r="B566" s="11"/>
       <c r="C566" s="11"/>
@@ -26377,7 +26401,7 @@
       <c r="AC566" s="11"/>
       <c r="AD566" s="11"/>
     </row>
-    <row r="567" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A567" s="11"/>
       <c r="B567" s="11"/>
       <c r="C567" s="11"/>
@@ -26409,7 +26433,7 @@
       <c r="AC567" s="11"/>
       <c r="AD567" s="11"/>
     </row>
-    <row r="568" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A568" s="11"/>
       <c r="B568" s="11"/>
       <c r="C568" s="11"/>
@@ -26441,7 +26465,7 @@
       <c r="AC568" s="11"/>
       <c r="AD568" s="11"/>
     </row>
-    <row r="569" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A569" s="11"/>
       <c r="B569" s="11"/>
       <c r="C569" s="11"/>
@@ -26473,7 +26497,7 @@
       <c r="AC569" s="11"/>
       <c r="AD569" s="11"/>
     </row>
-    <row r="570" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A570" s="11"/>
       <c r="B570" s="11"/>
       <c r="C570" s="11"/>
@@ -26505,7 +26529,7 @@
       <c r="AC570" s="11"/>
       <c r="AD570" s="11"/>
     </row>
-    <row r="571" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A571" s="11"/>
       <c r="B571" s="11"/>
       <c r="C571" s="11"/>
@@ -26537,7 +26561,7 @@
       <c r="AC571" s="11"/>
       <c r="AD571" s="11"/>
     </row>
-    <row r="572" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A572" s="11"/>
       <c r="B572" s="11"/>
       <c r="C572" s="11"/>
@@ -26569,7 +26593,7 @@
       <c r="AC572" s="11"/>
       <c r="AD572" s="11"/>
     </row>
-    <row r="573" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A573" s="11"/>
       <c r="B573" s="11"/>
       <c r="C573" s="11"/>
@@ -26601,7 +26625,7 @@
       <c r="AC573" s="11"/>
       <c r="AD573" s="11"/>
     </row>
-    <row r="574" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A574" s="11"/>
       <c r="B574" s="11"/>
       <c r="C574" s="11"/>
@@ -26633,7 +26657,7 @@
       <c r="AC574" s="11"/>
       <c r="AD574" s="11"/>
     </row>
-    <row r="575" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A575" s="11"/>
       <c r="B575" s="11"/>
       <c r="C575" s="11"/>
@@ -26665,7 +26689,7 @@
       <c r="AC575" s="11"/>
       <c r="AD575" s="11"/>
     </row>
-    <row r="576" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A576" s="11"/>
       <c r="B576" s="11"/>
       <c r="C576" s="11"/>
@@ -26697,7 +26721,7 @@
       <c r="AC576" s="11"/>
       <c r="AD576" s="11"/>
     </row>
-    <row r="577" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A577" s="11"/>
       <c r="B577" s="11"/>
       <c r="C577" s="11"/>
@@ -26729,7 +26753,7 @@
       <c r="AC577" s="11"/>
       <c r="AD577" s="11"/>
     </row>
-    <row r="578" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A578" s="11"/>
       <c r="B578" s="11"/>
       <c r="C578" s="11"/>
@@ -26761,7 +26785,7 @@
       <c r="AC578" s="11"/>
       <c r="AD578" s="11"/>
     </row>
-    <row r="579" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A579" s="11"/>
       <c r="B579" s="11"/>
       <c r="C579" s="11"/>
@@ -26793,7 +26817,7 @@
       <c r="AC579" s="11"/>
       <c r="AD579" s="11"/>
     </row>
-    <row r="580" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A580" s="11"/>
       <c r="B580" s="11"/>
       <c r="C580" s="11"/>
@@ -26825,7 +26849,7 @@
       <c r="AC580" s="11"/>
       <c r="AD580" s="11"/>
     </row>
-    <row r="581" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A581" s="11"/>
       <c r="B581" s="11"/>
       <c r="C581" s="11"/>
@@ -26857,7 +26881,7 @@
       <c r="AC581" s="11"/>
       <c r="AD581" s="11"/>
     </row>
-    <row r="582" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A582" s="11"/>
       <c r="B582" s="11"/>
       <c r="C582" s="11"/>
@@ -26889,7 +26913,7 @@
       <c r="AC582" s="11"/>
       <c r="AD582" s="11"/>
     </row>
-    <row r="583" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A583" s="11"/>
       <c r="B583" s="11"/>
       <c r="C583" s="11"/>
@@ -26921,7 +26945,7 @@
       <c r="AC583" s="11"/>
       <c r="AD583" s="11"/>
     </row>
-    <row r="584" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A584" s="11"/>
       <c r="B584" s="11"/>
       <c r="C584" s="11"/>
@@ -26953,7 +26977,7 @@
       <c r="AC584" s="11"/>
       <c r="AD584" s="11"/>
     </row>
-    <row r="585" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A585" s="11"/>
       <c r="B585" s="11"/>
       <c r="C585" s="11"/>
@@ -26985,7 +27009,7 @@
       <c r="AC585" s="11"/>
       <c r="AD585" s="11"/>
     </row>
-    <row r="586" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A586" s="11"/>
       <c r="B586" s="11"/>
       <c r="C586" s="11"/>
@@ -27017,7 +27041,7 @@
       <c r="AC586" s="11"/>
       <c r="AD586" s="11"/>
     </row>
-    <row r="587" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A587" s="11"/>
       <c r="B587" s="11"/>
       <c r="C587" s="11"/>
@@ -27049,7 +27073,7 @@
       <c r="AC587" s="11"/>
       <c r="AD587" s="11"/>
     </row>
-    <row r="588" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A588" s="11"/>
       <c r="B588" s="11"/>
       <c r="C588" s="11"/>
@@ -27081,7 +27105,7 @@
       <c r="AC588" s="11"/>
       <c r="AD588" s="11"/>
     </row>
-    <row r="589" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A589" s="11"/>
       <c r="B589" s="11"/>
       <c r="C589" s="11"/>
@@ -27113,7 +27137,7 @@
       <c r="AC589" s="11"/>
       <c r="AD589" s="11"/>
     </row>
-    <row r="590" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A590" s="11"/>
       <c r="B590" s="11"/>
       <c r="C590" s="11"/>
@@ -27145,7 +27169,7 @@
       <c r="AC590" s="11"/>
       <c r="AD590" s="11"/>
     </row>
-    <row r="591" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A591" s="11"/>
       <c r="B591" s="11"/>
       <c r="C591" s="11"/>
@@ -27177,7 +27201,7 @@
       <c r="AC591" s="11"/>
       <c r="AD591" s="11"/>
     </row>
-    <row r="592" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A592" s="11"/>
       <c r="B592" s="11"/>
       <c r="C592" s="11"/>
@@ -27209,7 +27233,7 @@
       <c r="AC592" s="11"/>
       <c r="AD592" s="11"/>
     </row>
-    <row r="593" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A593" s="11"/>
       <c r="B593" s="11"/>
       <c r="C593" s="11"/>
@@ -27241,7 +27265,7 @@
       <c r="AC593" s="11"/>
       <c r="AD593" s="11"/>
     </row>
-    <row r="594" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A594" s="11"/>
       <c r="B594" s="11"/>
       <c r="C594" s="11"/>
@@ -27273,7 +27297,7 @@
       <c r="AC594" s="11"/>
       <c r="AD594" s="11"/>
     </row>
-    <row r="595" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A595" s="11"/>
       <c r="B595" s="11"/>
       <c r="C595" s="11"/>
@@ -27305,7 +27329,7 @@
       <c r="AC595" s="11"/>
       <c r="AD595" s="11"/>
     </row>
-    <row r="596" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A596" s="11"/>
       <c r="B596" s="11"/>
       <c r="C596" s="11"/>
@@ -27337,7 +27361,7 @@
       <c r="AC596" s="11"/>
       <c r="AD596" s="11"/>
     </row>
-    <row r="597" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A597" s="11"/>
       <c r="B597" s="11"/>
       <c r="C597" s="11"/>
@@ -27369,7 +27393,7 @@
       <c r="AC597" s="11"/>
       <c r="AD597" s="11"/>
     </row>
-    <row r="598" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A598" s="11"/>
       <c r="B598" s="11"/>
       <c r="C598" s="11"/>
@@ -27401,7 +27425,7 @@
       <c r="AC598" s="11"/>
       <c r="AD598" s="11"/>
     </row>
-    <row r="599" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A599" s="11"/>
       <c r="B599" s="11"/>
       <c r="C599" s="11"/>
@@ -27433,7 +27457,7 @@
       <c r="AC599" s="11"/>
       <c r="AD599" s="11"/>
     </row>
-    <row r="600" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A600" s="11"/>
       <c r="B600" s="11"/>
       <c r="C600" s="11"/>
@@ -27465,7 +27489,7 @@
       <c r="AC600" s="11"/>
       <c r="AD600" s="11"/>
     </row>
-    <row r="601" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A601" s="11"/>
       <c r="B601" s="11"/>
       <c r="C601" s="11"/>
@@ -27497,7 +27521,7 @@
       <c r="AC601" s="11"/>
       <c r="AD601" s="11"/>
     </row>
-    <row r="602" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A602" s="11"/>
       <c r="B602" s="11"/>
       <c r="C602" s="11"/>
@@ -27529,7 +27553,7 @@
       <c r="AC602" s="11"/>
       <c r="AD602" s="11"/>
     </row>
-    <row r="603" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A603" s="11"/>
       <c r="B603" s="11"/>
       <c r="C603" s="11"/>
@@ -27561,7 +27585,7 @@
       <c r="AC603" s="11"/>
       <c r="AD603" s="11"/>
     </row>
-    <row r="604" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A604" s="11"/>
       <c r="B604" s="11"/>
       <c r="C604" s="11"/>
@@ -27593,7 +27617,7 @@
       <c r="AC604" s="11"/>
       <c r="AD604" s="11"/>
     </row>
-    <row r="605" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A605" s="11"/>
       <c r="B605" s="11"/>
       <c r="C605" s="11"/>
@@ -27625,7 +27649,7 @@
       <c r="AC605" s="11"/>
       <c r="AD605" s="11"/>
     </row>
-    <row r="606" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A606" s="11"/>
       <c r="B606" s="11"/>
       <c r="C606" s="11"/>
@@ -27657,7 +27681,7 @@
       <c r="AC606" s="11"/>
       <c r="AD606" s="11"/>
     </row>
-    <row r="607" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A607" s="11"/>
       <c r="B607" s="11"/>
       <c r="C607" s="11"/>
@@ -27689,7 +27713,7 @@
       <c r="AC607" s="11"/>
       <c r="AD607" s="11"/>
     </row>
-    <row r="608" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A608" s="11"/>
       <c r="B608" s="11"/>
       <c r="C608" s="11"/>
@@ -27721,7 +27745,7 @@
       <c r="AC608" s="11"/>
       <c r="AD608" s="11"/>
     </row>
-    <row r="609" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A609" s="11"/>
       <c r="B609" s="11"/>
       <c r="C609" s="11"/>
@@ -27753,7 +27777,7 @@
       <c r="AC609" s="11"/>
       <c r="AD609" s="11"/>
     </row>
-    <row r="610" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A610" s="11"/>
       <c r="B610" s="11"/>
       <c r="C610" s="11"/>
@@ -27785,7 +27809,7 @@
       <c r="AC610" s="11"/>
       <c r="AD610" s="11"/>
     </row>
-    <row r="611" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A611" s="11"/>
       <c r="B611" s="11"/>
       <c r="C611" s="11"/>
@@ -27817,7 +27841,7 @@
       <c r="AC611" s="11"/>
       <c r="AD611" s="11"/>
     </row>
-    <row r="612" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A612" s="11"/>
       <c r="B612" s="11"/>
       <c r="C612" s="11"/>
@@ -27849,7 +27873,7 @@
       <c r="AC612" s="11"/>
       <c r="AD612" s="11"/>
     </row>
-    <row r="613" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A613" s="11"/>
       <c r="B613" s="11"/>
       <c r="C613" s="11"/>
@@ -27881,7 +27905,7 @@
       <c r="AC613" s="11"/>
       <c r="AD613" s="11"/>
     </row>
-    <row r="614" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A614" s="11"/>
       <c r="B614" s="11"/>
       <c r="C614" s="11"/>
@@ -27913,7 +27937,7 @@
       <c r="AC614" s="11"/>
       <c r="AD614" s="11"/>
     </row>
-    <row r="615" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A615" s="11"/>
       <c r="B615" s="11"/>
       <c r="C615" s="11"/>
@@ -27945,7 +27969,7 @@
       <c r="AC615" s="11"/>
       <c r="AD615" s="11"/>
     </row>
-    <row r="616" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A616" s="11"/>
       <c r="B616" s="11"/>
       <c r="C616" s="11"/>
@@ -27977,7 +28001,7 @@
       <c r="AC616" s="11"/>
       <c r="AD616" s="11"/>
     </row>
-    <row r="617" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A617" s="11"/>
       <c r="B617" s="11"/>
       <c r="C617" s="11"/>
@@ -28009,7 +28033,7 @@
       <c r="AC617" s="11"/>
       <c r="AD617" s="11"/>
     </row>
-    <row r="618" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A618" s="11"/>
       <c r="B618" s="11"/>
       <c r="C618" s="11"/>
@@ -28041,7 +28065,7 @@
       <c r="AC618" s="11"/>
       <c r="AD618" s="11"/>
     </row>
-    <row r="619" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A619" s="11"/>
       <c r="B619" s="11"/>
       <c r="C619" s="11"/>
@@ -28073,7 +28097,7 @@
       <c r="AC619" s="11"/>
       <c r="AD619" s="11"/>
     </row>
-    <row r="620" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A620" s="11"/>
       <c r="B620" s="11"/>
       <c r="C620" s="11"/>
@@ -28105,7 +28129,7 @@
       <c r="AC620" s="11"/>
       <c r="AD620" s="11"/>
     </row>
-    <row r="621" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A621" s="11"/>
       <c r="B621" s="11"/>
       <c r="C621" s="11"/>
@@ -28137,7 +28161,7 @@
       <c r="AC621" s="11"/>
       <c r="AD621" s="11"/>
     </row>
-    <row r="622" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A622" s="11"/>
       <c r="B622" s="11"/>
       <c r="C622" s="11"/>
@@ -28169,7 +28193,7 @@
       <c r="AC622" s="11"/>
       <c r="AD622" s="11"/>
     </row>
-    <row r="623" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A623" s="11"/>
       <c r="B623" s="11"/>
       <c r="C623" s="11"/>
@@ -28201,7 +28225,7 @@
       <c r="AC623" s="11"/>
       <c r="AD623" s="11"/>
     </row>
-    <row r="624" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A624" s="11"/>
       <c r="B624" s="11"/>
       <c r="C624" s="11"/>
@@ -28233,7 +28257,7 @@
       <c r="AC624" s="11"/>
       <c r="AD624" s="11"/>
     </row>
-    <row r="625" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A625" s="11"/>
       <c r="B625" s="11"/>
       <c r="C625" s="11"/>
@@ -28265,7 +28289,7 @@
       <c r="AC625" s="11"/>
       <c r="AD625" s="11"/>
     </row>
-    <row r="626" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A626" s="11"/>
       <c r="B626" s="11"/>
       <c r="C626" s="11"/>
@@ -28297,7 +28321,7 @@
       <c r="AC626" s="11"/>
       <c r="AD626" s="11"/>
     </row>
-    <row r="627" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A627" s="11"/>
       <c r="B627" s="11"/>
       <c r="C627" s="11"/>
@@ -28329,7 +28353,7 @@
       <c r="AC627" s="11"/>
       <c r="AD627" s="11"/>
     </row>
-    <row r="628" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A628" s="11"/>
       <c r="B628" s="11"/>
       <c r="C628" s="11"/>
@@ -28361,7 +28385,7 @@
       <c r="AC628" s="11"/>
       <c r="AD628" s="11"/>
     </row>
-    <row r="629" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A629" s="11"/>
       <c r="B629" s="11"/>
       <c r="C629" s="11"/>
@@ -28393,7 +28417,7 @@
       <c r="AC629" s="11"/>
       <c r="AD629" s="11"/>
     </row>
-    <row r="630" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A630" s="11"/>
       <c r="B630" s="11"/>
       <c r="C630" s="11"/>
@@ -28425,7 +28449,7 @@
       <c r="AC630" s="11"/>
       <c r="AD630" s="11"/>
     </row>
-    <row r="631" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A631" s="11"/>
       <c r="B631" s="11"/>
       <c r="C631" s="11"/>
@@ -28457,7 +28481,7 @@
       <c r="AC631" s="11"/>
       <c r="AD631" s="11"/>
     </row>
-    <row r="632" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A632" s="11"/>
       <c r="B632" s="11"/>
       <c r="C632" s="11"/>
@@ -28489,7 +28513,7 @@
       <c r="AC632" s="11"/>
       <c r="AD632" s="11"/>
     </row>
-    <row r="633" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A633" s="11"/>
       <c r="B633" s="11"/>
       <c r="C633" s="11"/>
@@ -28521,7 +28545,7 @@
       <c r="AC633" s="11"/>
       <c r="AD633" s="11"/>
     </row>
-    <row r="634" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A634" s="11"/>
       <c r="B634" s="11"/>
       <c r="C634" s="11"/>
@@ -28553,7 +28577,7 @@
       <c r="AC634" s="11"/>
       <c r="AD634" s="11"/>
     </row>
-    <row r="635" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A635" s="11"/>
       <c r="B635" s="11"/>
       <c r="C635" s="11"/>
@@ -28585,7 +28609,7 @@
       <c r="AC635" s="11"/>
       <c r="AD635" s="11"/>
     </row>
-    <row r="636" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A636" s="11"/>
       <c r="B636" s="11"/>
       <c r="C636" s="11"/>
@@ -28617,7 +28641,7 @@
       <c r="AC636" s="11"/>
       <c r="AD636" s="11"/>
     </row>
-    <row r="637" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A637" s="11"/>
       <c r="B637" s="11"/>
       <c r="C637" s="11"/>
@@ -28649,7 +28673,7 @@
       <c r="AC637" s="11"/>
       <c r="AD637" s="11"/>
     </row>
-    <row r="638" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A638" s="11"/>
       <c r="B638" s="11"/>
       <c r="C638" s="11"/>
@@ -28681,7 +28705,7 @@
       <c r="AC638" s="11"/>
       <c r="AD638" s="11"/>
     </row>
-    <row r="639" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A639" s="11"/>
       <c r="B639" s="11"/>
       <c r="C639" s="11"/>
@@ -28713,7 +28737,7 @@
       <c r="AC639" s="11"/>
       <c r="AD639" s="11"/>
     </row>
-    <row r="640" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A640" s="11"/>
       <c r="B640" s="11"/>
       <c r="C640" s="11"/>
@@ -28745,7 +28769,7 @@
       <c r="AC640" s="11"/>
       <c r="AD640" s="11"/>
     </row>
-    <row r="641" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A641" s="11"/>
       <c r="B641" s="11"/>
       <c r="C641" s="11"/>
@@ -28777,7 +28801,7 @@
       <c r="AC641" s="11"/>
       <c r="AD641" s="11"/>
     </row>
-    <row r="642" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A642" s="11"/>
       <c r="B642" s="11"/>
       <c r="C642" s="11"/>
@@ -28809,7 +28833,7 @@
       <c r="AC642" s="11"/>
       <c r="AD642" s="11"/>
     </row>
-    <row r="643" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A643" s="11"/>
       <c r="B643" s="11"/>
       <c r="C643" s="11"/>
@@ -28841,7 +28865,7 @@
       <c r="AC643" s="11"/>
       <c r="AD643" s="11"/>
     </row>
-    <row r="644" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A644" s="11"/>
       <c r="B644" s="11"/>
       <c r="C644" s="11"/>
@@ -28873,7 +28897,7 @@
       <c r="AC644" s="11"/>
       <c r="AD644" s="11"/>
     </row>
-    <row r="645" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A645" s="11"/>
       <c r="B645" s="11"/>
       <c r="C645" s="11"/>
@@ -28905,7 +28929,7 @@
       <c r="AC645" s="11"/>
       <c r="AD645" s="11"/>
     </row>
-    <row r="646" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A646" s="11"/>
       <c r="B646" s="11"/>
       <c r="C646" s="11"/>
@@ -28937,7 +28961,7 @@
       <c r="AC646" s="11"/>
       <c r="AD646" s="11"/>
     </row>
-    <row r="647" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A647" s="11"/>
       <c r="B647" s="11"/>
       <c r="C647" s="11"/>
@@ -28969,7 +28993,7 @@
       <c r="AC647" s="11"/>
       <c r="AD647" s="11"/>
     </row>
-    <row r="648" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A648" s="11"/>
       <c r="B648" s="11"/>
       <c r="C648" s="11"/>
@@ -29001,7 +29025,7 @@
       <c r="AC648" s="11"/>
       <c r="AD648" s="11"/>
     </row>
-    <row r="649" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A649" s="11"/>
       <c r="B649" s="11"/>
       <c r="C649" s="11"/>
@@ -29033,7 +29057,7 @@
       <c r="AC649" s="11"/>
       <c r="AD649" s="11"/>
     </row>
-    <row r="650" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A650" s="11"/>
       <c r="B650" s="11"/>
       <c r="C650" s="11"/>
@@ -29065,7 +29089,7 @@
       <c r="AC650" s="11"/>
       <c r="AD650" s="11"/>
     </row>
-    <row r="651" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A651" s="11"/>
       <c r="B651" s="11"/>
       <c r="C651" s="11"/>
@@ -29097,7 +29121,7 @@
       <c r="AC651" s="11"/>
       <c r="AD651" s="11"/>
     </row>
-    <row r="652" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A652" s="11"/>
       <c r="B652" s="11"/>
       <c r="C652" s="11"/>
@@ -29129,7 +29153,7 @@
       <c r="AC652" s="11"/>
       <c r="AD652" s="11"/>
     </row>
-    <row r="653" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A653" s="11"/>
       <c r="B653" s="11"/>
       <c r="C653" s="11"/>
@@ -29161,7 +29185,7 @@
       <c r="AC653" s="11"/>
       <c r="AD653" s="11"/>
     </row>
-    <row r="654" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A654" s="11"/>
       <c r="B654" s="11"/>
       <c r="C654" s="11"/>
@@ -29193,7 +29217,7 @@
       <c r="AC654" s="11"/>
       <c r="AD654" s="11"/>
     </row>
-    <row r="655" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A655" s="11"/>
       <c r="B655" s="11"/>
       <c r="C655" s="11"/>
@@ -29225,7 +29249,7 @@
       <c r="AC655" s="11"/>
       <c r="AD655" s="11"/>
     </row>
-    <row r="656" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A656" s="11"/>
       <c r="B656" s="11"/>
       <c r="C656" s="11"/>
@@ -29257,7 +29281,7 @@
       <c r="AC656" s="11"/>
       <c r="AD656" s="11"/>
     </row>
-    <row r="657" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A657" s="11"/>
       <c r="B657" s="11"/>
       <c r="C657" s="11"/>
@@ -29289,7 +29313,7 @@
       <c r="AC657" s="11"/>
       <c r="AD657" s="11"/>
     </row>
-    <row r="658" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A658" s="11"/>
       <c r="B658" s="11"/>
       <c r="C658" s="11"/>
@@ -29321,7 +29345,7 @@
       <c r="AC658" s="11"/>
       <c r="AD658" s="11"/>
     </row>
-    <row r="659" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A659" s="11"/>
       <c r="B659" s="11"/>
       <c r="C659" s="11"/>
@@ -29353,7 +29377,7 @@
       <c r="AC659" s="11"/>
       <c r="AD659" s="11"/>
     </row>
-    <row r="660" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A660" s="11"/>
       <c r="B660" s="11"/>
       <c r="C660" s="11"/>
@@ -29385,7 +29409,7 @@
       <c r="AC660" s="11"/>
       <c r="AD660" s="11"/>
     </row>
-    <row r="661" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A661" s="11"/>
       <c r="B661" s="11"/>
       <c r="C661" s="11"/>
@@ -29417,7 +29441,7 @@
       <c r="AC661" s="11"/>
       <c r="AD661" s="11"/>
     </row>
-    <row r="662" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A662" s="11"/>
       <c r="B662" s="11"/>
       <c r="C662" s="11"/>
@@ -29449,7 +29473,7 @@
       <c r="AC662" s="11"/>
       <c r="AD662" s="11"/>
     </row>
-    <row r="663" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A663" s="11"/>
       <c r="B663" s="11"/>
       <c r="C663" s="11"/>
@@ -29481,7 +29505,7 @@
       <c r="AC663" s="11"/>
       <c r="AD663" s="11"/>
     </row>
-    <row r="664" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A664" s="11"/>
       <c r="B664" s="11"/>
       <c r="C664" s="11"/>
@@ -29513,7 +29537,7 @@
       <c r="AC664" s="11"/>
       <c r="AD664" s="11"/>
     </row>
-    <row r="665" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A665" s="11"/>
       <c r="B665" s="11"/>
       <c r="C665" s="11"/>
@@ -29545,7 +29569,7 @@
       <c r="AC665" s="11"/>
       <c r="AD665" s="11"/>
     </row>
-    <row r="666" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A666" s="11"/>
       <c r="B666" s="11"/>
       <c r="C666" s="11"/>
@@ -29577,7 +29601,7 @@
       <c r="AC666" s="11"/>
       <c r="AD666" s="11"/>
     </row>
-    <row r="667" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A667" s="11"/>
       <c r="B667" s="11"/>
       <c r="C667" s="11"/>
@@ -29609,7 +29633,7 @@
       <c r="AC667" s="11"/>
       <c r="AD667" s="11"/>
     </row>
-    <row r="668" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A668" s="11"/>
       <c r="B668" s="11"/>
       <c r="C668" s="11"/>
@@ -29641,7 +29665,7 @@
       <c r="AC668" s="11"/>
       <c r="AD668" s="11"/>
     </row>
-    <row r="669" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A669" s="11"/>
       <c r="B669" s="11"/>
       <c r="C669" s="11"/>
@@ -29673,7 +29697,7 @@
       <c r="AC669" s="11"/>
       <c r="AD669" s="11"/>
     </row>
-    <row r="670" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A670" s="11"/>
       <c r="B670" s="11"/>
       <c r="C670" s="11"/>
@@ -29705,7 +29729,7 @@
       <c r="AC670" s="11"/>
       <c r="AD670" s="11"/>
     </row>
-    <row r="671" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A671" s="11"/>
       <c r="B671" s="11"/>
       <c r="C671" s="11"/>
@@ -29737,7 +29761,7 @@
       <c r="AC671" s="11"/>
       <c r="AD671" s="11"/>
     </row>
-    <row r="672" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A672" s="11"/>
       <c r="B672" s="11"/>
       <c r="C672" s="11"/>
@@ -29769,7 +29793,7 @@
       <c r="AC672" s="11"/>
       <c r="AD672" s="11"/>
     </row>
-    <row r="673" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A673" s="11"/>
       <c r="B673" s="11"/>
       <c r="C673" s="11"/>
@@ -29801,7 +29825,7 @@
       <c r="AC673" s="11"/>
       <c r="AD673" s="11"/>
     </row>
-    <row r="674" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A674" s="11"/>
       <c r="B674" s="11"/>
       <c r="C674" s="11"/>
@@ -29833,7 +29857,7 @@
       <c r="AC674" s="11"/>
       <c r="AD674" s="11"/>
     </row>
-    <row r="675" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A675" s="11"/>
       <c r="B675" s="11"/>
       <c r="C675" s="11"/>
@@ -29865,7 +29889,7 @@
       <c r="AC675" s="11"/>
       <c r="AD675" s="11"/>
     </row>
-    <row r="676" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A676" s="11"/>
       <c r="B676" s="11"/>
       <c r="C676" s="11"/>
@@ -29897,7 +29921,7 @@
       <c r="AC676" s="11"/>
       <c r="AD676" s="11"/>
     </row>
-    <row r="677" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A677" s="11"/>
       <c r="B677" s="11"/>
       <c r="C677" s="11"/>
@@ -29929,7 +29953,7 @@
       <c r="AC677" s="11"/>
       <c r="AD677" s="11"/>
     </row>
-    <row r="678" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A678" s="11"/>
       <c r="B678" s="11"/>
       <c r="C678" s="11"/>
@@ -29961,7 +29985,7 @@
       <c r="AC678" s="11"/>
       <c r="AD678" s="11"/>
     </row>
-    <row r="679" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A679" s="11"/>
       <c r="B679" s="11"/>
       <c r="C679" s="11"/>
@@ -29993,7 +30017,7 @@
       <c r="AC679" s="11"/>
       <c r="AD679" s="11"/>
     </row>
-    <row r="680" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A680" s="11"/>
       <c r="B680" s="11"/>
       <c r="C680" s="11"/>
@@ -30025,7 +30049,7 @@
       <c r="AC680" s="11"/>
       <c r="AD680" s="11"/>
     </row>
-    <row r="681" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A681" s="11"/>
       <c r="B681" s="11"/>
       <c r="C681" s="11"/>
@@ -30057,7 +30081,7 @@
       <c r="AC681" s="11"/>
       <c r="AD681" s="11"/>
     </row>
-    <row r="682" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A682" s="11"/>
       <c r="B682" s="11"/>
       <c r="C682" s="11"/>
@@ -30089,7 +30113,7 @@
       <c r="AC682" s="11"/>
       <c r="AD682" s="11"/>
     </row>
-    <row r="683" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A683" s="11"/>
       <c r="B683" s="11"/>
       <c r="C683" s="11"/>
@@ -30121,7 +30145,7 @@
       <c r="AC683" s="11"/>
       <c r="AD683" s="11"/>
     </row>
-    <row r="684" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A684" s="11"/>
       <c r="B684" s="11"/>
       <c r="C684" s="11"/>
@@ -30153,7 +30177,7 @@
       <c r="AC684" s="11"/>
       <c r="AD684" s="11"/>
     </row>
-    <row r="685" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A685" s="11"/>
       <c r="B685" s="11"/>
       <c r="C685" s="11"/>
@@ -30185,7 +30209,7 @@
       <c r="AC685" s="11"/>
       <c r="AD685" s="11"/>
     </row>
-    <row r="686" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A686" s="11"/>
       <c r="B686" s="11"/>
       <c r="C686" s="11"/>
@@ -30217,7 +30241,7 @@
       <c r="AC686" s="11"/>
       <c r="AD686" s="11"/>
     </row>
-    <row r="687" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A687" s="11"/>
       <c r="B687" s="11"/>
       <c r="C687" s="11"/>
@@ -30249,7 +30273,7 @@
       <c r="AC687" s="11"/>
       <c r="AD687" s="11"/>
     </row>
-    <row r="688" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A688" s="11"/>
       <c r="B688" s="11"/>
       <c r="C688" s="11"/>
@@ -30281,7 +30305,7 @@
       <c r="AC688" s="11"/>
       <c r="AD688" s="11"/>
     </row>
-    <row r="689" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A689" s="11"/>
       <c r="B689" s="11"/>
       <c r="C689" s="11"/>
@@ -30313,7 +30337,7 @@
       <c r="AC689" s="11"/>
       <c r="AD689" s="11"/>
     </row>
-    <row r="690" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A690" s="11"/>
       <c r="B690" s="11"/>
       <c r="C690" s="11"/>
@@ -30345,7 +30369,7 @@
       <c r="AC690" s="11"/>
       <c r="AD690" s="11"/>
     </row>
-    <row r="691" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A691" s="11"/>
       <c r="B691" s="11"/>
       <c r="C691" s="11"/>
@@ -30377,7 +30401,7 @@
       <c r="AC691" s="11"/>
       <c r="AD691" s="11"/>
     </row>
-    <row r="692" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A692" s="11"/>
       <c r="B692" s="11"/>
       <c r="C692" s="11"/>
@@ -30409,7 +30433,7 @@
       <c r="AC692" s="11"/>
       <c r="AD692" s="11"/>
     </row>
-    <row r="693" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A693" s="11"/>
       <c r="B693" s="11"/>
       <c r="C693" s="11"/>
@@ -30441,7 +30465,7 @@
       <c r="AC693" s="11"/>
       <c r="AD693" s="11"/>
     </row>
-    <row r="694" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A694" s="11"/>
       <c r="B694" s="11"/>
       <c r="C694" s="11"/>
@@ -30473,7 +30497,7 @@
       <c r="AC694" s="11"/>
       <c r="AD694" s="11"/>
     </row>
-    <row r="695" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A695" s="11"/>
       <c r="B695" s="11"/>
       <c r="C695" s="11"/>
@@ -30505,7 +30529,7 @@
       <c r="AC695" s="11"/>
       <c r="AD695" s="11"/>
     </row>
-    <row r="696" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A696" s="11"/>
       <c r="B696" s="11"/>
       <c r="C696" s="11"/>
@@ -30537,7 +30561,7 @@
       <c r="AC696" s="11"/>
       <c r="AD696" s="11"/>
     </row>
-    <row r="697" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A697" s="11"/>
       <c r="B697" s="11"/>
       <c r="C697" s="11"/>
@@ -30569,7 +30593,7 @@
       <c r="AC697" s="11"/>
       <c r="AD697" s="11"/>
     </row>
-    <row r="698" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A698" s="11"/>
       <c r="B698" s="11"/>
       <c r="C698" s="11"/>
@@ -30601,7 +30625,7 @@
       <c r="AC698" s="11"/>
       <c r="AD698" s="11"/>
     </row>
-    <row r="699" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A699" s="11"/>
       <c r="B699" s="11"/>
       <c r="C699" s="11"/>
@@ -30633,7 +30657,7 @@
       <c r="AC699" s="11"/>
       <c r="AD699" s="11"/>
     </row>
-    <row r="700" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A700" s="11"/>
       <c r="B700" s="11"/>
       <c r="C700" s="11"/>
@@ -30665,7 +30689,7 @@
       <c r="AC700" s="11"/>
       <c r="AD700" s="11"/>
     </row>
-    <row r="701" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A701" s="11"/>
       <c r="B701" s="11"/>
       <c r="C701" s="11"/>
@@ -30697,7 +30721,7 @@
       <c r="AC701" s="11"/>
       <c r="AD701" s="11"/>
     </row>
-    <row r="702" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A702" s="11"/>
       <c r="B702" s="11"/>
       <c r="C702" s="11"/>
@@ -30729,7 +30753,7 @@
       <c r="AC702" s="11"/>
       <c r="AD702" s="11"/>
     </row>
-    <row r="703" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A703" s="11"/>
       <c r="B703" s="11"/>
       <c r="C703" s="11"/>
@@ -30761,7 +30785,7 @@
       <c r="AC703" s="11"/>
       <c r="AD703" s="11"/>
     </row>
-    <row r="704" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A704" s="11"/>
       <c r="B704" s="11"/>
       <c r="C704" s="11"/>
@@ -30793,7 +30817,7 @@
       <c r="AC704" s="11"/>
       <c r="AD704" s="11"/>
     </row>
-    <row r="705" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A705" s="11"/>
       <c r="B705" s="11"/>
       <c r="C705" s="11"/>
@@ -30825,7 +30849,7 @@
       <c r="AC705" s="11"/>
       <c r="AD705" s="11"/>
     </row>
-    <row r="706" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A706" s="11"/>
       <c r="B706" s="11"/>
       <c r="C706" s="11"/>
@@ -30857,7 +30881,7 @@
       <c r="AC706" s="11"/>
       <c r="AD706" s="11"/>
     </row>
-    <row r="707" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A707" s="11"/>
       <c r="B707" s="11"/>
       <c r="C707" s="11"/>
@@ -30889,7 +30913,7 @@
       <c r="AC707" s="11"/>
       <c r="AD707" s="11"/>
     </row>
-    <row r="708" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A708" s="11"/>
       <c r="B708" s="11"/>
       <c r="C708" s="11"/>
@@ -30921,7 +30945,7 @@
       <c r="AC708" s="11"/>
       <c r="AD708" s="11"/>
     </row>
-    <row r="709" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A709" s="11"/>
       <c r="B709" s="11"/>
       <c r="C709" s="11"/>
@@ -30953,7 +30977,7 @@
       <c r="AC709" s="11"/>
       <c r="AD709" s="11"/>
     </row>
-    <row r="710" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A710" s="11"/>
       <c r="B710" s="11"/>
       <c r="C710" s="11"/>
@@ -30985,7 +31009,7 @@
       <c r="AC710" s="11"/>
       <c r="AD710" s="11"/>
     </row>
-    <row r="711" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A711" s="11"/>
       <c r="B711" s="11"/>
       <c r="C711" s="11"/>
@@ -31017,7 +31041,7 @@
       <c r="AC711" s="11"/>
       <c r="AD711" s="11"/>
     </row>
-    <row r="712" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A712" s="11"/>
       <c r="B712" s="11"/>
       <c r="C712" s="11"/>
@@ -31049,7 +31073,7 @@
       <c r="AC712" s="11"/>
       <c r="AD712" s="11"/>
     </row>
-    <row r="713" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A713" s="11"/>
       <c r="B713" s="11"/>
       <c r="C713" s="11"/>
@@ -31081,7 +31105,7 @@
       <c r="AC713" s="11"/>
       <c r="AD713" s="11"/>
     </row>
-    <row r="714" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A714" s="11"/>
       <c r="B714" s="11"/>
       <c r="C714" s="11"/>
@@ -31113,7 +31137,7 @@
       <c r="AC714" s="11"/>
       <c r="AD714" s="11"/>
     </row>
-    <row r="715" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A715" s="11"/>
       <c r="B715" s="11"/>
       <c r="C715" s="11"/>
@@ -31145,7 +31169,7 @@
       <c r="AC715" s="11"/>
       <c r="AD715" s="11"/>
     </row>
-    <row r="716" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A716" s="11"/>
       <c r="B716" s="11"/>
       <c r="C716" s="11"/>
@@ -31177,7 +31201,7 @@
       <c r="AC716" s="11"/>
       <c r="AD716" s="11"/>
     </row>
-    <row r="717" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A717" s="11"/>
       <c r="B717" s="11"/>
       <c r="C717" s="11"/>
@@ -31209,7 +31233,7 @@
       <c r="AC717" s="11"/>
       <c r="AD717" s="11"/>
     </row>
-    <row r="718" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A718" s="11"/>
       <c r="B718" s="11"/>
       <c r="C718" s="11"/>
@@ -31241,7 +31265,7 @@
       <c r="AC718" s="11"/>
       <c r="AD718" s="11"/>
     </row>
-    <row r="719" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A719" s="11"/>
       <c r="B719" s="11"/>
       <c r="C719" s="11"/>
@@ -31273,7 +31297,7 @@
       <c r="AC719" s="11"/>
       <c r="AD719" s="11"/>
     </row>
-    <row r="720" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A720" s="11"/>
       <c r="B720" s="11"/>
       <c r="C720" s="11"/>
@@ -31305,7 +31329,7 @@
       <c r="AC720" s="11"/>
       <c r="AD720" s="11"/>
     </row>
-    <row r="721" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A721" s="11"/>
       <c r="B721" s="11"/>
       <c r="C721" s="11"/>
@@ -31337,7 +31361,7 @@
       <c r="AC721" s="11"/>
       <c r="AD721" s="11"/>
     </row>
-    <row r="722" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A722" s="11"/>
       <c r="B722" s="11"/>
       <c r="C722" s="11"/>
@@ -31369,7 +31393,7 @@
       <c r="AC722" s="11"/>
       <c r="AD722" s="11"/>
     </row>
-    <row r="723" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A723" s="11"/>
       <c r="B723" s="11"/>
       <c r="C723" s="11"/>
@@ -31401,7 +31425,7 @@
       <c r="AC723" s="11"/>
       <c r="AD723" s="11"/>
     </row>
-    <row r="724" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A724" s="11"/>
       <c r="B724" s="11"/>
       <c r="C724" s="11"/>
@@ -31433,7 +31457,7 @@
       <c r="AC724" s="11"/>
       <c r="AD724" s="11"/>
     </row>
-    <row r="725" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A725" s="11"/>
       <c r="B725" s="11"/>
       <c r="C725" s="11"/>
@@ -31465,7 +31489,7 @@
       <c r="AC725" s="11"/>
       <c r="AD725" s="11"/>
     </row>
-    <row r="726" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A726" s="11"/>
       <c r="B726" s="11"/>
       <c r="C726" s="11"/>
@@ -31497,7 +31521,7 @@
       <c r="AC726" s="11"/>
       <c r="AD726" s="11"/>
     </row>
-    <row r="727" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A727" s="11"/>
       <c r="B727" s="11"/>
       <c r="C727" s="11"/>
@@ -31529,7 +31553,7 @@
       <c r="AC727" s="11"/>
       <c r="AD727" s="11"/>
     </row>
-    <row r="728" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A728" s="11"/>
       <c r="B728" s="11"/>
       <c r="C728" s="11"/>
@@ -31561,7 +31585,7 @@
       <c r="AC728" s="11"/>
       <c r="AD728" s="11"/>
     </row>
-    <row r="729" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A729" s="11"/>
       <c r="B729" s="11"/>
       <c r="C729" s="11"/>
@@ -31593,7 +31617,7 @@
       <c r="AC729" s="11"/>
       <c r="AD729" s="11"/>
     </row>
-    <row r="730" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A730" s="11"/>
       <c r="B730" s="11"/>
       <c r="C730" s="11"/>
@@ -31625,7 +31649,7 @@
       <c r="AC730" s="11"/>
       <c r="AD730" s="11"/>
     </row>
-    <row r="731" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A731" s="11"/>
       <c r="B731" s="11"/>
       <c r="C731" s="11"/>
@@ -31657,7 +31681,7 @@
       <c r="AC731" s="11"/>
       <c r="AD731" s="11"/>
     </row>
-    <row r="732" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A732" s="11"/>
       <c r="B732" s="11"/>
       <c r="C732" s="11"/>
@@ -31689,7 +31713,7 @@
       <c r="AC732" s="11"/>
       <c r="AD732" s="11"/>
     </row>
-    <row r="733" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A733" s="11"/>
       <c r="B733" s="11"/>
       <c r="C733" s="11"/>
@@ -31721,7 +31745,7 @@
       <c r="AC733" s="11"/>
       <c r="AD733" s="11"/>
     </row>
-    <row r="734" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A734" s="11"/>
       <c r="B734" s="11"/>
       <c r="C734" s="11"/>
@@ -31753,7 +31777,7 @@
       <c r="AC734" s="11"/>
       <c r="AD734" s="11"/>
     </row>
-    <row r="735" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A735" s="11"/>
       <c r="B735" s="11"/>
       <c r="C735" s="11"/>
@@ -31785,7 +31809,7 @@
       <c r="AC735" s="11"/>
       <c r="AD735" s="11"/>
     </row>
-    <row r="736" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A736" s="11"/>
       <c r="B736" s="11"/>
       <c r="C736" s="11"/>
@@ -31817,7 +31841,7 @@
       <c r="AC736" s="11"/>
       <c r="AD736" s="11"/>
     </row>
-    <row r="737" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A737" s="11"/>
       <c r="B737" s="11"/>
       <c r="C737" s="11"/>
@@ -31849,7 +31873,7 @@
       <c r="AC737" s="11"/>
       <c r="AD737" s="11"/>
     </row>
-    <row r="738" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A738" s="11"/>
       <c r="B738" s="11"/>
       <c r="C738" s="11"/>
@@ -31881,7 +31905,7 @@
       <c r="AC738" s="11"/>
       <c r="AD738" s="11"/>
     </row>
-    <row r="739" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A739" s="11"/>
       <c r="B739" s="11"/>
       <c r="C739" s="11"/>
@@ -31913,7 +31937,7 @@
       <c r="AC739" s="11"/>
       <c r="AD739" s="11"/>
     </row>
-    <row r="740" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A740" s="11"/>
       <c r="B740" s="11"/>
       <c r="C740" s="11"/>
@@ -31945,7 +31969,7 @@
       <c r="AC740" s="11"/>
       <c r="AD740" s="11"/>
     </row>
-    <row r="741" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A741" s="11"/>
       <c r="B741" s="11"/>
       <c r="C741" s="11"/>
@@ -31977,7 +32001,7 @@
       <c r="AC741" s="11"/>
       <c r="AD741" s="11"/>
     </row>
-    <row r="742" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A742" s="11"/>
       <c r="B742" s="11"/>
       <c r="C742" s="11"/>
@@ -32009,7 +32033,7 @@
       <c r="AC742" s="11"/>
       <c r="AD742" s="11"/>
     </row>
-    <row r="743" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A743" s="11"/>
       <c r="B743" s="11"/>
       <c r="C743" s="11"/>
@@ -32041,7 +32065,7 @@
       <c r="AC743" s="11"/>
       <c r="AD743" s="11"/>
     </row>
-    <row r="744" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A744" s="11"/>
       <c r="B744" s="11"/>
       <c r="C744" s="11"/>
@@ -32073,7 +32097,7 @@
       <c r="AC744" s="11"/>
       <c r="AD744" s="11"/>
     </row>
-    <row r="745" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A745" s="11"/>
       <c r="B745" s="11"/>
       <c r="C745" s="11"/>
@@ -32105,7 +32129,7 @@
       <c r="AC745" s="11"/>
       <c r="AD745" s="11"/>
     </row>
-    <row r="746" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A746" s="11"/>
       <c r="B746" s="11"/>
       <c r="C746" s="11"/>
@@ -32137,7 +32161,7 @@
       <c r="AC746" s="11"/>
       <c r="AD746" s="11"/>
     </row>
-    <row r="747" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A747" s="11"/>
       <c r="B747" s="11"/>
       <c r="C747" s="11"/>
@@ -32169,7 +32193,7 @@
       <c r="AC747" s="11"/>
       <c r="AD747" s="11"/>
     </row>
-    <row r="748" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A748" s="11"/>
       <c r="B748" s="11"/>
       <c r="C748" s="11"/>
@@ -32201,7 +32225,7 @@
       <c r="AC748" s="11"/>
       <c r="AD748" s="11"/>
     </row>
-    <row r="749" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A749" s="11"/>
       <c r="B749" s="11"/>
       <c r="C749" s="11"/>
@@ -32233,7 +32257,7 @@
       <c r="AC749" s="11"/>
       <c r="AD749" s="11"/>
     </row>
-    <row r="750" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A750" s="11"/>
       <c r="B750" s="11"/>
       <c r="C750" s="11"/>
@@ -32265,7 +32289,7 @@
       <c r="AC750" s="11"/>
       <c r="AD750" s="11"/>
     </row>
-    <row r="751" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A751" s="11"/>
       <c r="B751" s="11"/>
       <c r="C751" s="11"/>
@@ -32297,7 +32321,7 @@
       <c r="AC751" s="11"/>
       <c r="AD751" s="11"/>
     </row>
-    <row r="752" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A752" s="11"/>
       <c r="B752" s="11"/>
       <c r="C752" s="11"/>
@@ -32329,7 +32353,7 @@
       <c r="AC752" s="11"/>
       <c r="AD752" s="11"/>
     </row>
-    <row r="753" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A753" s="11"/>
       <c r="B753" s="11"/>
       <c r="C753" s="11"/>
@@ -32361,7 +32385,7 @@
       <c r="AC753" s="11"/>
       <c r="AD753" s="11"/>
     </row>
-    <row r="754" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A754" s="11"/>
       <c r="B754" s="11"/>
       <c r="C754" s="11"/>
@@ -32393,7 +32417,7 @@
       <c r="AC754" s="11"/>
       <c r="AD754" s="11"/>
     </row>
-    <row r="755" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A755" s="11"/>
       <c r="B755" s="11"/>
       <c r="C755" s="11"/>
@@ -32425,7 +32449,7 @@
       <c r="AC755" s="11"/>
       <c r="AD755" s="11"/>
     </row>
-    <row r="756" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A756" s="11"/>
       <c r="B756" s="11"/>
       <c r="C756" s="11"/>
@@ -32457,7 +32481,7 @@
       <c r="AC756" s="11"/>
       <c r="AD756" s="11"/>
     </row>
-    <row r="757" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A757" s="11"/>
       <c r="B757" s="11"/>
       <c r="C757" s="11"/>
@@ -32489,7 +32513,7 @@
       <c r="AC757" s="11"/>
       <c r="AD757" s="11"/>
     </row>
-    <row r="758" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A758" s="11"/>
       <c r="B758" s="11"/>
       <c r="C758" s="11"/>
@@ -32521,7 +32545,7 @@
       <c r="AC758" s="11"/>
       <c r="AD758" s="11"/>
     </row>
-    <row r="759" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A759" s="11"/>
       <c r="B759" s="11"/>
       <c r="C759" s="11"/>
@@ -32553,7 +32577,7 @@
       <c r="AC759" s="11"/>
       <c r="AD759" s="11"/>
     </row>
-    <row r="760" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A760" s="11"/>
       <c r="B760" s="11"/>
       <c r="C760" s="11"/>
@@ -32585,7 +32609,7 @@
       <c r="AC760" s="11"/>
       <c r="AD760" s="11"/>
     </row>
-    <row r="761" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A761" s="11"/>
       <c r="B761" s="11"/>
       <c r="C761" s="11"/>
@@ -32617,7 +32641,7 @@
       <c r="AC761" s="11"/>
       <c r="AD761" s="11"/>
     </row>
-    <row r="762" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A762" s="11"/>
       <c r="B762" s="11"/>
       <c r="C762" s="11"/>
@@ -32649,7 +32673,7 @@
       <c r="AC762" s="11"/>
       <c r="AD762" s="11"/>
     </row>
-    <row r="763" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A763" s="11"/>
       <c r="B763" s="11"/>
       <c r="C763" s="11"/>
@@ -32681,7 +32705,7 @@
       <c r="AC763" s="11"/>
       <c r="AD763" s="11"/>
     </row>
-    <row r="764" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A764" s="11"/>
       <c r="B764" s="11"/>
       <c r="C764" s="11"/>
@@ -32713,7 +32737,7 @@
       <c r="AC764" s="11"/>
       <c r="AD764" s="11"/>
     </row>
-    <row r="765" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A765" s="11"/>
       <c r="B765" s="11"/>
       <c r="C765" s="11"/>
@@ -32745,7 +32769,7 @@
       <c r="AC765" s="11"/>
       <c r="AD765" s="11"/>
     </row>
-    <row r="766" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A766" s="11"/>
       <c r="B766" s="11"/>
       <c r="C766" s="11"/>
@@ -32777,7 +32801,7 @@
       <c r="AC766" s="11"/>
       <c r="AD766" s="11"/>
     </row>
-    <row r="767" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A767" s="11"/>
       <c r="B767" s="11"/>
       <c r="C767" s="11"/>
@@ -32809,7 +32833,7 @@
       <c r="AC767" s="11"/>
       <c r="AD767" s="11"/>
     </row>
-    <row r="768" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A768" s="11"/>
       <c r="B768" s="11"/>
       <c r="C768" s="11"/>
@@ -32841,7 +32865,7 @@
       <c r="AC768" s="11"/>
       <c r="AD768" s="11"/>
     </row>
-    <row r="769" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A769" s="11"/>
       <c r="B769" s="11"/>
       <c r="C769" s="11"/>
@@ -32873,7 +32897,7 @@
       <c r="AC769" s="11"/>
       <c r="AD769" s="11"/>
     </row>
-    <row r="770" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A770" s="11"/>
       <c r="B770" s="11"/>
       <c r="C770" s="11"/>
@@ -32905,7 +32929,7 @@
       <c r="AC770" s="11"/>
       <c r="AD770" s="11"/>
     </row>
-    <row r="771" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A771" s="11"/>
       <c r="B771" s="11"/>
       <c r="C771" s="11"/>
@@ -32937,7 +32961,7 @@
       <c r="AC771" s="11"/>
       <c r="AD771" s="11"/>
     </row>
-    <row r="772" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A772" s="11"/>
       <c r="B772" s="11"/>
       <c r="C772" s="11"/>
@@ -32969,7 +32993,7 @@
       <c r="AC772" s="11"/>
       <c r="AD772" s="11"/>
     </row>
-    <row r="773" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A773" s="11"/>
       <c r="B773" s="11"/>
       <c r="C773" s="11"/>
@@ -33001,7 +33025,7 @@
       <c r="AC773" s="11"/>
       <c r="AD773" s="11"/>
     </row>
-    <row r="774" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A774" s="11"/>
       <c r="B774" s="11"/>
       <c r="C774" s="11"/>
@@ -33033,7 +33057,7 @@
       <c r="AC774" s="11"/>
       <c r="AD774" s="11"/>
     </row>
-    <row r="775" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A775" s="11"/>
       <c r="B775" s="11"/>
       <c r="C775" s="11"/>
@@ -33065,7 +33089,7 @@
       <c r="AC775" s="11"/>
       <c r="AD775" s="11"/>
     </row>
-    <row r="776" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A776" s="11"/>
       <c r="B776" s="11"/>
       <c r="C776" s="11"/>
@@ -33097,7 +33121,7 @@
       <c r="AC776" s="11"/>
       <c r="AD776" s="11"/>
     </row>
-    <row r="777" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A777" s="11"/>
       <c r="B777" s="11"/>
       <c r="C777" s="11"/>
@@ -33129,7 +33153,7 @@
       <c r="AC777" s="11"/>
       <c r="AD777" s="11"/>
     </row>
-    <row r="778" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A778" s="11"/>
       <c r="B778" s="11"/>
       <c r="C778" s="11"/>
@@ -33161,7 +33185,7 @@
       <c r="AC778" s="11"/>
       <c r="AD778" s="11"/>
     </row>
-    <row r="779" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A779" s="11"/>
       <c r="B779" s="11"/>
       <c r="C779" s="11"/>
@@ -33193,7 +33217,7 @@
       <c r="AC779" s="11"/>
       <c r="AD779" s="11"/>
     </row>
-    <row r="780" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A780" s="11"/>
       <c r="B780" s="11"/>
       <c r="C780" s="11"/>
@@ -33225,7 +33249,7 @@
       <c r="AC780" s="11"/>
       <c r="AD780" s="11"/>
     </row>
-    <row r="781" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A781" s="11"/>
       <c r="B781" s="11"/>
       <c r="C781" s="11"/>
@@ -33257,7 +33281,7 @@
       <c r="AC781" s="11"/>
       <c r="AD781" s="11"/>
     </row>
-    <row r="782" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A782" s="11"/>
       <c r="B782" s="11"/>
       <c r="C782" s="11"/>
@@ -33289,7 +33313,7 @@
       <c r="AC782" s="11"/>
       <c r="AD782" s="11"/>
     </row>
-    <row r="783" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A783" s="11"/>
       <c r="B783" s="11"/>
       <c r="C783" s="11"/>
@@ -33321,7 +33345,7 @@
       <c r="AC783" s="11"/>
       <c r="AD783" s="11"/>
     </row>
-    <row r="784" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A784" s="11"/>
       <c r="B784" s="11"/>
       <c r="C784" s="11"/>
@@ -33353,7 +33377,7 @@
       <c r="AC784" s="11"/>
       <c r="AD784" s="11"/>
     </row>
-    <row r="785" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A785" s="11"/>
       <c r="B785" s="11"/>
       <c r="C785" s="11"/>
@@ -33385,7 +33409,7 @@
       <c r="AC785" s="11"/>
       <c r="AD785" s="11"/>
     </row>
-    <row r="786" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A786" s="11"/>
       <c r="B786" s="11"/>
       <c r="C786" s="11"/>
@@ -33417,7 +33441,7 @@
       <c r="AC786" s="11"/>
       <c r="AD786" s="11"/>
     </row>
-    <row r="787" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A787" s="11"/>
       <c r="B787" s="11"/>
       <c r="C787" s="11"/>
@@ -33449,7 +33473,7 @@
       <c r="AC787" s="11"/>
       <c r="AD787" s="11"/>
     </row>
-    <row r="788" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A788" s="11"/>
       <c r="B788" s="11"/>
       <c r="C788" s="11"/>
@@ -33481,7 +33505,7 @@
       <c r="AC788" s="11"/>
       <c r="AD788" s="11"/>
     </row>
-    <row r="789" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A789" s="11"/>
       <c r="B789" s="11"/>
       <c r="C789" s="11"/>
@@ -33513,7 +33537,7 @@
       <c r="AC789" s="11"/>
       <c r="AD789" s="11"/>
     </row>
-    <row r="790" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A790" s="11"/>
       <c r="B790" s="11"/>
       <c r="C790" s="11"/>
@@ -33545,7 +33569,7 @@
       <c r="AC790" s="11"/>
       <c r="AD790" s="11"/>
     </row>
-    <row r="791" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A791" s="11"/>
       <c r="B791" s="11"/>
       <c r="C791" s="11"/>
@@ -33577,7 +33601,7 @@
       <c r="AC791" s="11"/>
       <c r="AD791" s="11"/>
     </row>
-    <row r="792" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A792" s="11"/>
       <c r="B792" s="11"/>
       <c r="C792" s="11"/>
@@ -33609,7 +33633,7 @@
       <c r="AC792" s="11"/>
       <c r="AD792" s="11"/>
     </row>
-    <row r="793" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A793" s="11"/>
       <c r="B793" s="11"/>
       <c r="C793" s="11"/>
@@ -33641,7 +33665,7 @@
       <c r="AC793" s="11"/>
       <c r="AD793" s="11"/>
     </row>
-    <row r="794" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A794" s="11"/>
       <c r="B794" s="11"/>
       <c r="C794" s="11"/>
@@ -33673,7 +33697,7 @@
       <c r="AC794" s="11"/>
       <c r="AD794" s="11"/>
     </row>
-    <row r="795" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A795" s="11"/>
       <c r="B795" s="11"/>
       <c r="C795" s="11"/>
@@ -33705,7 +33729,7 @@
       <c r="AC795" s="11"/>
       <c r="AD795" s="11"/>
     </row>
-    <row r="796" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A796" s="11"/>
       <c r="B796" s="11"/>
       <c r="C796" s="11"/>
@@ -33737,7 +33761,7 @@
       <c r="AC796" s="11"/>
       <c r="AD796" s="11"/>
     </row>
-    <row r="797" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A797" s="11"/>
       <c r="B797" s="11"/>
       <c r="C797" s="11"/>
@@ -33769,7 +33793,7 @@
       <c r="AC797" s="11"/>
       <c r="AD797" s="11"/>
     </row>
-    <row r="798" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A798" s="11"/>
       <c r="B798" s="11"/>
       <c r="C798" s="11"/>
@@ -33801,7 +33825,7 @@
       <c r="AC798" s="11"/>
       <c r="AD798" s="11"/>
     </row>
-    <row r="799" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A799" s="11"/>
       <c r="B799" s="11"/>
       <c r="C799" s="11"/>
@@ -33833,7 +33857,7 @@
       <c r="AC799" s="11"/>
       <c r="AD799" s="11"/>
     </row>
-    <row r="800" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A800" s="11"/>
       <c r="B800" s="11"/>
       <c r="C800" s="11"/>
@@ -33865,7 +33889,7 @@
       <c r="AC800" s="11"/>
       <c r="AD800" s="11"/>
     </row>
-    <row r="801" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A801" s="11"/>
       <c r="B801" s="11"/>
       <c r="C801" s="11"/>
@@ -33897,7 +33921,7 @@
       <c r="AC801" s="11"/>
       <c r="AD801" s="11"/>
     </row>
-    <row r="802" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A802" s="11"/>
       <c r="B802" s="11"/>
       <c r="C802" s="11"/>
@@ -33929,7 +33953,7 @@
       <c r="AC802" s="11"/>
       <c r="AD802" s="11"/>
     </row>
-    <row r="803" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A803" s="11"/>
       <c r="B803" s="11"/>
       <c r="C803" s="11"/>
@@ -33961,7 +33985,7 @@
       <c r="AC803" s="11"/>
       <c r="AD803" s="11"/>
     </row>
-    <row r="804" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A804" s="11"/>
       <c r="B804" s="11"/>
       <c r="C804" s="11"/>
@@ -33993,7 +34017,7 @@
       <c r="AC804" s="11"/>
       <c r="AD804" s="11"/>
     </row>
-    <row r="805" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A805" s="11"/>
       <c r="B805" s="11"/>
       <c r="C805" s="11"/>
@@ -34025,7 +34049,7 @@
       <c r="AC805" s="11"/>
       <c r="AD805" s="11"/>
     </row>
-    <row r="806" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A806" s="11"/>
       <c r="B806" s="11"/>
       <c r="C806" s="11"/>
@@ -34057,7 +34081,7 @@
       <c r="AC806" s="11"/>
       <c r="AD806" s="11"/>
     </row>
-    <row r="807" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A807" s="11"/>
       <c r="B807" s="11"/>
       <c r="C807" s="11"/>
@@ -34089,7 +34113,7 @@
       <c r="AC807" s="11"/>
       <c r="AD807" s="11"/>
     </row>
-    <row r="808" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A808" s="11"/>
       <c r="B808" s="11"/>
       <c r="C808" s="11"/>
@@ -34121,7 +34145,7 @@
       <c r="AC808" s="11"/>
       <c r="AD808" s="11"/>
     </row>
-    <row r="809" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A809" s="11"/>
       <c r="B809" s="11"/>
       <c r="C809" s="11"/>
@@ -34153,7 +34177,7 @@
       <c r="AC809" s="11"/>
       <c r="AD809" s="11"/>
     </row>
-    <row r="810" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A810" s="11"/>
       <c r="B810" s="11"/>
       <c r="C810" s="11"/>
@@ -34185,7 +34209,7 @@
       <c r="AC810" s="11"/>
       <c r="AD810" s="11"/>
     </row>
-    <row r="811" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A811" s="11"/>
       <c r="B811" s="11"/>
       <c r="C811" s="11"/>
@@ -34217,7 +34241,7 @@
       <c r="AC811" s="11"/>
       <c r="AD811" s="11"/>
     </row>
-    <row r="812" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A812" s="11"/>
       <c r="B812" s="11"/>
       <c r="C812" s="11"/>
@@ -34249,7 +34273,7 @@
       <c r="AC812" s="11"/>
       <c r="AD812" s="11"/>
     </row>
-    <row r="813" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A813" s="11"/>
       <c r="B813" s="11"/>
       <c r="C813" s="11"/>
@@ -34281,7 +34305,7 @@
       <c r="AC813" s="11"/>
       <c r="AD813" s="11"/>
     </row>
-    <row r="814" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A814" s="11"/>
       <c r="B814" s="11"/>
       <c r="C814" s="11"/>
@@ -34313,7 +34337,7 @@
       <c r="AC814" s="11"/>
       <c r="AD814" s="11"/>
     </row>
-    <row r="815" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A815" s="11"/>
       <c r="B815" s="11"/>
       <c r="C815" s="11"/>
@@ -34345,7 +34369,7 @@
       <c r="AC815" s="11"/>
       <c r="AD815" s="11"/>
     </row>
-    <row r="816" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A816" s="11"/>
       <c r="B816" s="11"/>
       <c r="C816" s="11"/>
@@ -34377,7 +34401,7 @@
       <c r="AC816" s="11"/>
       <c r="AD816" s="11"/>
     </row>
-    <row r="817" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A817" s="11"/>
       <c r="B817" s="11"/>
       <c r="C817" s="11"/>
@@ -34409,7 +34433,7 @@
       <c r="AC817" s="11"/>
       <c r="AD817" s="11"/>
     </row>
-    <row r="818" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A818" s="11"/>
       <c r="B818" s="11"/>
       <c r="C818" s="11"/>
@@ -34441,7 +34465,7 @@
       <c r="AC818" s="11"/>
       <c r="AD818" s="11"/>
     </row>
-    <row r="819" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A819" s="11"/>
       <c r="B819" s="11"/>
       <c r="C819" s="11"/>
@@ -34473,7 +34497,7 @@
       <c r="AC819" s="11"/>
       <c r="AD819" s="11"/>
     </row>
-    <row r="820" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A820" s="11"/>
       <c r="B820" s="11"/>
       <c r="C820" s="11"/>
@@ -34505,7 +34529,7 @@
       <c r="AC820" s="11"/>
       <c r="AD820" s="11"/>
     </row>
-    <row r="821" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A821" s="11"/>
       <c r="B821" s="11"/>
       <c r="C821" s="11"/>
@@ -34537,7 +34561,7 @@
       <c r="AC821" s="11"/>
       <c r="AD821" s="11"/>
     </row>
-    <row r="822" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A822" s="11"/>
       <c r="B822" s="11"/>
       <c r="C822" s="11"/>
@@ -34569,7 +34593,7 @@
       <c r="AC822" s="11"/>
       <c r="AD822" s="11"/>
     </row>
-    <row r="823" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A823" s="11"/>
       <c r="B823" s="11"/>
       <c r="C823" s="11"/>
@@ -34601,7 +34625,7 @@
       <c r="AC823" s="11"/>
       <c r="AD823" s="11"/>
     </row>
-    <row r="824" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A824" s="11"/>
       <c r="B824" s="11"/>
       <c r="C824" s="11"/>
@@ -34633,7 +34657,7 @@
       <c r="AC824" s="11"/>
       <c r="AD824" s="11"/>
     </row>
-    <row r="825" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A825" s="11"/>
       <c r="B825" s="11"/>
       <c r="C825" s="11"/>
@@ -34665,7 +34689,7 @@
       <c r="AC825" s="11"/>
       <c r="AD825" s="11"/>
     </row>
-    <row r="826" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A826" s="11"/>
       <c r="B826" s="11"/>
       <c r="C826" s="11"/>
@@ -34697,7 +34721,7 @@
       <c r="AC826" s="11"/>
       <c r="AD826" s="11"/>
     </row>
-    <row r="827" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A827" s="11"/>
       <c r="B827" s="11"/>
       <c r="C827" s="11"/>
@@ -34729,7 +34753,7 @@
       <c r="AC827" s="11"/>
       <c r="AD827" s="11"/>
     </row>
-    <row r="828" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A828" s="11"/>
       <c r="B828" s="11"/>
       <c r="C828" s="11"/>
@@ -34761,7 +34785,7 @@
       <c r="AC828" s="11"/>
       <c r="AD828" s="11"/>
     </row>
-    <row r="829" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A829" s="11"/>
       <c r="B829" s="11"/>
       <c r="C829" s="11"/>
@@ -34793,7 +34817,7 @@
       <c r="AC829" s="11"/>
       <c r="AD829" s="11"/>
     </row>
-    <row r="830" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A830" s="11"/>
       <c r="B830" s="11"/>
       <c r="C830" s="11"/>
@@ -34825,7 +34849,7 @@
       <c r="AC830" s="11"/>
       <c r="AD830" s="11"/>
     </row>
-    <row r="831" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A831" s="11"/>
       <c r="B831" s="11"/>
       <c r="C831" s="11"/>
@@ -34857,7 +34881,7 @@
       <c r="AC831" s="11"/>
       <c r="AD831" s="11"/>
     </row>
-    <row r="832" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A832" s="11"/>
       <c r="B832" s="11"/>
       <c r="C832" s="11"/>
@@ -34889,7 +34913,7 @@
       <c r="AC832" s="11"/>
       <c r="AD832" s="11"/>
     </row>
-    <row r="833" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A833" s="11"/>
       <c r="B833" s="11"/>
       <c r="C833" s="11"/>
@@ -34921,7 +34945,7 @@
       <c r="AC833" s="11"/>
       <c r="AD833" s="11"/>
     </row>
-    <row r="834" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A834" s="11"/>
       <c r="B834" s="11"/>
       <c r="C834" s="11"/>
@@ -34953,7 +34977,7 @@
       <c r="AC834" s="11"/>
       <c r="AD834" s="11"/>
     </row>
-    <row r="835" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A835" s="11"/>
       <c r="B835" s="11"/>
       <c r="C835" s="11"/>
@@ -34985,7 +35009,7 @@
       <c r="AC835" s="11"/>
       <c r="AD835" s="11"/>
     </row>
-    <row r="836" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A836" s="11"/>
       <c r="B836" s="11"/>
       <c r="C836" s="11"/>
@@ -35017,7 +35041,7 @@
       <c r="AC836" s="11"/>
       <c r="AD836" s="11"/>
     </row>
-    <row r="837" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A837" s="11"/>
       <c r="B837" s="11"/>
       <c r="C837" s="11"/>
@@ -35049,7 +35073,7 @@
       <c r="AC837" s="11"/>
       <c r="AD837" s="11"/>
     </row>
-    <row r="838" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A838" s="11"/>
       <c r="B838" s="11"/>
       <c r="C838" s="11"/>
@@ -35081,7 +35105,7 @@
       <c r="AC838" s="11"/>
       <c r="AD838" s="11"/>
     </row>
-    <row r="839" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A839" s="11"/>
       <c r="B839" s="11"/>
       <c r="C839" s="11"/>
@@ -35113,7 +35137,7 @@
       <c r="AC839" s="11"/>
       <c r="AD839" s="11"/>
     </row>
-    <row r="840" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A840" s="11"/>
       <c r="B840" s="11"/>
       <c r="C840" s="11"/>
@@ -35145,7 +35169,7 @@
       <c r="AC840" s="11"/>
       <c r="AD840" s="11"/>
     </row>
-    <row r="841" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A841" s="11"/>
       <c r="B841" s="11"/>
       <c r="C841" s="11"/>
@@ -35177,7 +35201,7 @@
       <c r="AC841" s="11"/>
       <c r="AD841" s="11"/>
     </row>
-    <row r="842" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A842" s="11"/>
       <c r="B842" s="11"/>
       <c r="C842" s="11"/>
@@ -35209,7 +35233,7 @@
       <c r="AC842" s="11"/>
       <c r="AD842" s="11"/>
     </row>
-    <row r="843" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A843" s="11"/>
       <c r="B843" s="11"/>
       <c r="C843" s="11"/>
@@ -35241,7 +35265,7 @@
       <c r="AC843" s="11"/>
       <c r="AD843" s="11"/>
     </row>
-    <row r="844" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A844" s="11"/>
       <c r="B844" s="11"/>
       <c r="C844" s="11"/>
@@ -35273,7 +35297,7 @@
       <c r="AC844" s="11"/>
       <c r="AD844" s="11"/>
     </row>
-    <row r="845" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A845" s="11"/>
       <c r="B845" s="11"/>
       <c r="C845" s="11"/>
@@ -35305,7 +35329,7 @@
       <c r="AC845" s="11"/>
       <c r="AD845" s="11"/>
     </row>
-    <row r="846" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A846" s="11"/>
       <c r="B846" s="11"/>
       <c r="C846" s="11"/>
@@ -35337,7 +35361,7 @@
       <c r="AC846" s="11"/>
       <c r="AD846" s="11"/>
     </row>
-    <row r="847" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A847" s="11"/>
       <c r="B847" s="11"/>
       <c r="C847" s="11"/>
@@ -35369,7 +35393,7 @@
       <c r="AC847" s="11"/>
       <c r="AD847" s="11"/>
     </row>
-    <row r="848" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A848" s="11"/>
       <c r="B848" s="11"/>
       <c r="C848" s="11"/>
@@ -35401,7 +35425,7 @@
       <c r="AC848" s="11"/>
       <c r="AD848" s="11"/>
     </row>
-    <row r="849" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A849" s="11"/>
       <c r="B849" s="11"/>
       <c r="C849" s="11"/>
@@ -35433,7 +35457,7 @@
       <c r="AC849" s="11"/>
       <c r="AD849" s="11"/>
     </row>
-    <row r="850" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A850" s="11"/>
       <c r="B850" s="11"/>
       <c r="C850" s="11"/>
@@ -35465,7 +35489,7 @@
       <c r="AC850" s="11"/>
       <c r="AD850" s="11"/>
     </row>
-    <row r="851" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A851" s="11"/>
       <c r="B851" s="11"/>
       <c r="C851" s="11"/>
@@ -35497,7 +35521,7 @@
       <c r="AC851" s="11"/>
       <c r="AD851" s="11"/>
     </row>
-    <row r="852" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A852" s="11"/>
       <c r="B852" s="11"/>
       <c r="C852" s="11"/>
@@ -35529,7 +35553,7 @@
       <c r="AC852" s="11"/>
       <c r="AD852" s="11"/>
     </row>
-    <row r="853" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A853" s="11"/>
       <c r="B853" s="11"/>
       <c r="C853" s="11"/>
@@ -35561,7 +35585,7 @@
       <c r="AC853" s="11"/>
       <c r="AD853" s="11"/>
     </row>
-    <row r="854" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A854" s="11"/>
       <c r="B854" s="11"/>
       <c r="C854" s="11"/>
@@ -35593,7 +35617,7 @@
       <c r="AC854" s="11"/>
       <c r="AD854" s="11"/>
     </row>
-    <row r="855" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A855" s="11"/>
       <c r="B855" s="11"/>
       <c r="C855" s="11"/>
@@ -35625,7 +35649,7 @@
       <c r="AC855" s="11"/>
       <c r="AD855" s="11"/>
     </row>
-    <row r="856" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A856" s="11"/>
       <c r="B856" s="11"/>
       <c r="C856" s="11"/>
@@ -35657,7 +35681,7 @@
       <c r="AC856" s="11"/>
       <c r="AD856" s="11"/>
     </row>
-    <row r="857" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A857" s="11"/>
       <c r="B857" s="11"/>
       <c r="C857" s="11"/>
@@ -35689,7 +35713,7 @@
       <c r="AC857" s="11"/>
       <c r="AD857" s="11"/>
     </row>
-    <row r="858" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A858" s="11"/>
       <c r="B858" s="11"/>
       <c r="C858" s="11"/>
@@ -35721,7 +35745,7 @@
       <c r="AC858" s="11"/>
       <c r="AD858" s="11"/>
     </row>
-    <row r="859" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A859" s="11"/>
       <c r="B859" s="11"/>
       <c r="C859" s="11"/>
@@ -35753,7 +35777,7 @@
       <c r="AC859" s="11"/>
       <c r="AD859" s="11"/>
     </row>
-    <row r="860" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A860" s="11"/>
       <c r="B860" s="11"/>
       <c r="C860" s="11"/>
@@ -35785,7 +35809,7 @@
       <c r="AC860" s="11"/>
       <c r="AD860" s="11"/>
     </row>
-    <row r="861" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A861" s="11"/>
       <c r="B861" s="11"/>
       <c r="C861" s="11"/>
@@ -35817,7 +35841,7 @@
       <c r="AC861" s="11"/>
       <c r="AD861" s="11"/>
     </row>
-    <row r="862" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A862" s="11"/>
       <c r="B862" s="11"/>
       <c r="C862" s="11"/>
@@ -35849,7 +35873,7 @@
       <c r="AC862" s="11"/>
       <c r="AD862" s="11"/>
     </row>
-    <row r="863" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A863" s="11"/>
       <c r="B863" s="11"/>
       <c r="C863" s="11"/>
@@ -35881,7 +35905,7 @@
       <c r="AC863" s="11"/>
       <c r="AD863" s="11"/>
     </row>
-    <row r="864" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A864" s="11"/>
       <c r="B864" s="11"/>
       <c r="C864" s="11"/>
@@ -35913,7 +35937,7 @@
       <c r="AC864" s="11"/>
       <c r="AD864" s="11"/>
     </row>
-    <row r="865" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A865" s="11"/>
       <c r="B865" s="11"/>
       <c r="C865" s="11"/>
@@ -35945,7 +35969,7 @@
       <c r="AC865" s="11"/>
       <c r="AD865" s="11"/>
     </row>
-    <row r="866" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A866" s="11"/>
       <c r="B866" s="11"/>
       <c r="C866" s="11"/>
@@ -35977,7 +36001,7 @@
       <c r="AC866" s="11"/>
       <c r="AD866" s="11"/>
     </row>
-    <row r="867" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A867" s="11"/>
       <c r="B867" s="11"/>
       <c r="C867" s="11"/>
@@ -36009,7 +36033,7 @@
       <c r="AC867" s="11"/>
       <c r="AD867" s="11"/>
     </row>
-    <row r="868" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A868" s="11"/>
       <c r="B868" s="11"/>
       <c r="C868" s="11"/>
@@ -36041,7 +36065,7 @@
       <c r="AC868" s="11"/>
       <c r="AD868" s="11"/>
     </row>
-    <row r="869" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A869" s="11"/>
       <c r="B869" s="11"/>
       <c r="C869" s="11"/>
@@ -36073,7 +36097,7 @@
       <c r="AC869" s="11"/>
       <c r="AD869" s="11"/>
     </row>
-    <row r="870" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A870" s="11"/>
       <c r="B870" s="11"/>
       <c r="C870" s="11"/>
@@ -36105,7 +36129,7 @@
       <c r="AC870" s="11"/>
       <c r="AD870" s="11"/>
     </row>
-    <row r="871" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A871" s="11"/>
       <c r="B871" s="11"/>
       <c r="C871" s="11"/>
@@ -36137,7 +36161,7 @@
       <c r="AC871" s="11"/>
       <c r="AD871" s="11"/>
     </row>
-    <row r="872" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A872" s="11"/>
       <c r="B872" s="11"/>
       <c r="C872" s="11"/>
@@ -36169,7 +36193,7 @@
       <c r="AC872" s="11"/>
       <c r="AD872" s="11"/>
     </row>
-    <row r="873" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A873" s="11"/>
       <c r="B873" s="11"/>
       <c r="C873" s="11"/>
@@ -36201,7 +36225,7 @@
       <c r="AC873" s="11"/>
       <c r="AD873" s="11"/>
     </row>
-    <row r="874" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A874" s="11"/>
       <c r="B874" s="11"/>
       <c r="C874" s="11"/>
@@ -36233,7 +36257,7 @@
       <c r="AC874" s="11"/>
       <c r="AD874" s="11"/>
     </row>
-    <row r="875" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A875" s="11"/>
       <c r="B875" s="11"/>
       <c r="C875" s="11"/>
@@ -36265,7 +36289,7 @@
       <c r="AC875" s="11"/>
       <c r="AD875" s="11"/>
     </row>
-    <row r="876" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A876" s="11"/>
       <c r="B876" s="11"/>
       <c r="C876" s="11"/>
@@ -36297,7 +36321,7 @@
       <c r="AC876" s="11"/>
       <c r="AD876" s="11"/>
     </row>
-    <row r="877" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A877" s="11"/>
       <c r="B877" s="11"/>
       <c r="C877" s="11"/>
@@ -36329,7 +36353,7 @@
       <c r="AC877" s="11"/>
       <c r="AD877" s="11"/>
     </row>
-    <row r="878" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A878" s="11"/>
       <c r="B878" s="11"/>
       <c r="C878" s="11"/>
@@ -36361,7 +36385,7 @@
       <c r="AC878" s="11"/>
       <c r="AD878" s="11"/>
     </row>
-    <row r="879" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A879" s="11"/>
       <c r="B879" s="11"/>
       <c r="C879" s="11"/>
@@ -36393,7 +36417,7 @@
       <c r="AC879" s="11"/>
       <c r="AD879" s="11"/>
     </row>
-    <row r="880" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A880" s="11"/>
       <c r="B880" s="11"/>
       <c r="C880" s="11"/>
@@ -36425,7 +36449,7 @@
       <c r="AC880" s="11"/>
       <c r="AD880" s="11"/>
     </row>
-    <row r="881" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A881" s="11"/>
       <c r="B881" s="11"/>
       <c r="C881" s="11"/>
@@ -36457,7 +36481,7 @@
       <c r="AC881" s="11"/>
       <c r="AD881" s="11"/>
     </row>
-    <row r="882" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A882" s="11"/>
       <c r="B882" s="11"/>
       <c r="C882" s="11"/>
@@ -36489,7 +36513,7 @@
       <c r="AC882" s="11"/>
       <c r="AD882" s="11"/>
     </row>
-    <row r="883" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A883" s="11"/>
       <c r="B883" s="11"/>
       <c r="C883" s="11"/>
@@ -36521,7 +36545,7 @@
       <c r="AC883" s="11"/>
       <c r="AD883" s="11"/>
     </row>
-    <row r="884" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A884" s="11"/>
       <c r="B884" s="11"/>
       <c r="C884" s="11"/>
@@ -36553,7 +36577,7 @@
       <c r="AC884" s="11"/>
       <c r="AD884" s="11"/>
     </row>
-    <row r="885" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A885" s="11"/>
       <c r="B885" s="11"/>
       <c r="C885" s="11"/>
@@ -36585,7 +36609,7 @@
       <c r="AC885" s="11"/>
       <c r="AD885" s="11"/>
     </row>
-    <row r="886" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A886" s="11"/>
       <c r="B886" s="11"/>
       <c r="C886" s="11"/>
@@ -36617,7 +36641,7 @@
       <c r="AC886" s="11"/>
       <c r="AD886" s="11"/>
     </row>
-    <row r="887" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A887" s="11"/>
       <c r="B887" s="11"/>
       <c r="C887" s="11"/>
@@ -36649,7 +36673,7 @@
       <c r="AC887" s="11"/>
       <c r="AD887" s="11"/>
     </row>
-    <row r="888" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A888" s="11"/>
       <c r="B888" s="11"/>
       <c r="C888" s="11"/>
@@ -36681,7 +36705,7 @@
       <c r="AC888" s="11"/>
       <c r="AD888" s="11"/>
     </row>
-    <row r="889" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A889" s="11"/>
       <c r="B889" s="11"/>
       <c r="C889" s="11"/>
@@ -36713,7 +36737,7 @@
       <c r="AC889" s="11"/>
       <c r="AD889" s="11"/>
     </row>
-    <row r="890" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A890" s="11"/>
       <c r="B890" s="11"/>
       <c r="C890" s="11"/>
@@ -36745,7 +36769,7 @@
       <c r="AC890" s="11"/>
       <c r="AD890" s="11"/>
     </row>
-    <row r="891" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A891" s="11"/>
       <c r="B891" s="11"/>
       <c r="C891" s="11"/>
@@ -36777,7 +36801,7 @@
       <c r="AC891" s="11"/>
       <c r="AD891" s="11"/>
     </row>
-    <row r="892" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A892" s="11"/>
       <c r="B892" s="11"/>
       <c r="C892" s="11"/>
@@ -36809,7 +36833,7 @@
       <c r="AC892" s="11"/>
       <c r="AD892" s="11"/>
     </row>
-    <row r="893" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A893" s="11"/>
       <c r="B893" s="11"/>
       <c r="C893" s="11"/>
@@ -36841,7 +36865,7 @@
       <c r="AC893" s="11"/>
       <c r="AD893" s="11"/>
     </row>
-    <row r="894" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A894" s="11"/>
       <c r="B894" s="11"/>
       <c r="C894" s="11"/>
@@ -36873,7 +36897,7 @@
       <c r="AC894" s="11"/>
       <c r="AD894" s="11"/>
     </row>
-    <row r="895" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A895" s="11"/>
       <c r="B895" s="11"/>
       <c r="C895" s="11"/>
@@ -36905,7 +36929,7 @@
       <c r="AC895" s="11"/>
       <c r="AD895" s="11"/>
     </row>
-    <row r="896" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A896" s="11"/>
       <c r="B896" s="11"/>
       <c r="C896" s="11"/>
@@ -36937,7 +36961,7 @@
       <c r="AC896" s="11"/>
       <c r="AD896" s="11"/>
     </row>
-    <row r="897" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A897" s="11"/>
       <c r="B897" s="11"/>
       <c r="C897" s="11"/>
@@ -36969,7 +36993,7 @@
       <c r="AC897" s="11"/>
       <c r="AD897" s="11"/>
     </row>
-    <row r="898" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A898" s="11"/>
       <c r="B898" s="11"/>
       <c r="C898" s="11"/>
@@ -37001,7 +37025,7 @@
       <c r="AC898" s="11"/>
       <c r="AD898" s="11"/>
     </row>
-    <row r="899" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A899" s="11"/>
       <c r="B899" s="11"/>
       <c r="C899" s="11"/>
@@ -37033,7 +37057,7 @@
       <c r="AC899" s="11"/>
       <c r="AD899" s="11"/>
     </row>
-    <row r="900" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A900" s="11"/>
       <c r="B900" s="11"/>
       <c r="C900" s="11"/>
@@ -37065,7 +37089,7 @@
       <c r="AC900" s="11"/>
       <c r="AD900" s="11"/>
     </row>
-    <row r="901" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A901" s="11"/>
       <c r="B901" s="11"/>
       <c r="C901" s="11"/>
@@ -37097,7 +37121,7 @@
       <c r="AC901" s="11"/>
       <c r="AD901" s="11"/>
     </row>
-    <row r="902" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A902" s="11"/>
       <c r="B902" s="11"/>
       <c r="C902" s="11"/>
@@ -37129,7 +37153,7 @@
       <c r="AC902" s="11"/>
       <c r="AD902" s="11"/>
     </row>
-    <row r="903" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A903" s="11"/>
       <c r="B903" s="11"/>
       <c r="C903" s="11"/>
@@ -37161,7 +37185,7 @@
       <c r="AC903" s="11"/>
       <c r="AD903" s="11"/>
     </row>
-    <row r="904" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A904" s="11"/>
       <c r="B904" s="11"/>
       <c r="C904" s="11"/>
@@ -37193,7 +37217,7 @@
       <c r="AC904" s="11"/>
       <c r="AD904" s="11"/>
     </row>
-    <row r="905" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A905" s="11"/>
       <c r="B905" s="11"/>
       <c r="C905" s="11"/>
@@ -37225,7 +37249,7 @@
       <c r="AC905" s="11"/>
       <c r="AD905" s="11"/>
     </row>
-    <row r="906" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A906" s="11"/>
       <c r="B906" s="11"/>
       <c r="C906" s="11"/>
@@ -37257,7 +37281,7 @@
       <c r="AC906" s="11"/>
       <c r="AD906" s="11"/>
     </row>
-    <row r="907" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A907" s="11"/>
       <c r="B907" s="11"/>
       <c r="C907" s="11"/>
@@ -37289,7 +37313,7 @@
       <c r="AC907" s="11"/>
       <c r="AD907" s="11"/>
     </row>
-    <row r="908" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A908" s="11"/>
       <c r="B908" s="11"/>
       <c r="C908" s="11"/>
@@ -37321,7 +37345,7 @@
       <c r="AC908" s="11"/>
       <c r="AD908" s="11"/>
     </row>
-    <row r="909" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A909" s="11"/>
       <c r="B909" s="11"/>
       <c r="C909" s="11"/>
@@ -37353,7 +37377,7 @@
       <c r="AC909" s="11"/>
       <c r="AD909" s="11"/>
     </row>
-    <row r="910" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A910" s="11"/>
       <c r="B910" s="11"/>
       <c r="C910" s="11"/>
@@ -37385,7 +37409,7 @@
       <c r="AC910" s="11"/>
       <c r="AD910" s="11"/>
     </row>
-    <row r="911" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A911" s="11"/>
       <c r="B911" s="11"/>
       <c r="C911" s="11"/>
@@ -37417,7 +37441,7 @@
       <c r="AC911" s="11"/>
       <c r="AD911" s="11"/>
     </row>
-    <row r="912" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A912" s="11"/>
       <c r="B912" s="11"/>
       <c r="C912" s="11"/>
@@ -37449,7 +37473,7 @@
       <c r="AC912" s="11"/>
       <c r="AD912" s="11"/>
     </row>
-    <row r="913" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A913" s="11"/>
       <c r="B913" s="11"/>
       <c r="C913" s="11"/>
@@ -37481,7 +37505,7 @@
       <c r="AC913" s="11"/>
       <c r="AD913" s="11"/>
     </row>
-    <row r="914" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A914" s="11"/>
       <c r="B914" s="11"/>
       <c r="C914" s="11"/>
@@ -37513,7 +37537,7 @@
       <c r="AC914" s="11"/>
       <c r="AD914" s="11"/>
     </row>
-    <row r="915" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A915" s="11"/>
       <c r="B915" s="11"/>
       <c r="C915" s="11"/>
@@ -37545,7 +37569,7 @@
       <c r="AC915" s="11"/>
       <c r="AD915" s="11"/>
     </row>
-    <row r="916" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A916" s="11"/>
       <c r="B916" s="11"/>
       <c r="C916" s="11"/>
@@ -37577,7 +37601,7 @@
       <c r="AC916" s="11"/>
       <c r="AD916" s="11"/>
     </row>
-    <row r="917" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A917" s="11"/>
       <c r="B917" s="11"/>
       <c r="C917" s="11"/>
@@ -37609,7 +37633,7 @@
       <c r="AC917" s="11"/>
       <c r="AD917" s="11"/>
     </row>
-    <row r="918" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A918" s="11"/>
       <c r="B918" s="11"/>
       <c r="C918" s="11"/>
@@ -37641,7 +37665,7 @@
       <c r="AC918" s="11"/>
       <c r="AD918" s="11"/>
     </row>
-    <row r="919" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A919" s="11"/>
       <c r="B919" s="11"/>
       <c r="C919" s="11"/>
@@ -37673,7 +37697,7 @@
       <c r="AC919" s="11"/>
       <c r="AD919" s="11"/>
     </row>
-    <row r="920" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A920" s="11"/>
       <c r="B920" s="11"/>
       <c r="C920" s="11"/>
@@ -37705,7 +37729,7 @@
       <c r="AC920" s="11"/>
       <c r="AD920" s="11"/>
     </row>
-    <row r="921" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A921" s="11"/>
       <c r="B921" s="11"/>
       <c r="C921" s="11"/>
@@ -37737,7 +37761,7 @@
       <c r="AC921" s="11"/>
       <c r="AD921" s="11"/>
     </row>
-    <row r="922" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A922" s="11"/>
       <c r="B922" s="11"/>
       <c r="C922" s="11"/>
@@ -37769,7 +37793,7 @@
       <c r="AC922" s="11"/>
       <c r="AD922" s="11"/>
     </row>
-    <row r="923" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A923" s="11"/>
       <c r="B923" s="11"/>
       <c r="C923" s="11"/>
@@ -37801,7 +37825,7 @@
       <c r="AC923" s="11"/>
       <c r="AD923" s="11"/>
     </row>
-    <row r="924" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A924" s="11"/>
       <c r="B924" s="11"/>
       <c r="C924" s="11"/>
@@ -37833,7 +37857,7 @@
       <c r="AC924" s="11"/>
       <c r="AD924" s="11"/>
     </row>
-    <row r="925" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A925" s="11"/>
       <c r="B925" s="11"/>
       <c r="C925" s="11"/>
@@ -37865,7 +37889,7 @@
       <c r="AC925" s="11"/>
       <c r="AD925" s="11"/>
     </row>
-    <row r="926" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A926" s="11"/>
       <c r="B926" s="11"/>
       <c r="C926" s="11"/>
@@ -37897,7 +37921,7 @@
       <c r="AC926" s="11"/>
       <c r="AD926" s="11"/>
     </row>
-    <row r="927" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A927" s="11"/>
       <c r="B927" s="11"/>
       <c r="C927" s="11"/>
@@ -37929,7 +37953,7 @@
       <c r="AC927" s="11"/>
       <c r="AD927" s="11"/>
     </row>
-    <row r="928" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A928" s="11"/>
       <c r="B928" s="11"/>
       <c r="C928" s="11"/>
@@ -37961,7 +37985,7 @@
       <c r="AC928" s="11"/>
       <c r="AD928" s="11"/>
     </row>
-    <row r="929" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A929" s="11"/>
       <c r="B929" s="11"/>
       <c r="C929" s="11"/>
@@ -37993,7 +38017,7 @@
       <c r="AC929" s="11"/>
       <c r="AD929" s="11"/>
     </row>
-    <row r="930" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A930" s="11"/>
       <c r="B930" s="11"/>
       <c r="C930" s="11"/>
@@ -38025,7 +38049,7 @@
       <c r="AC930" s="11"/>
       <c r="AD930" s="11"/>
     </row>
-    <row r="931" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A931" s="11"/>
       <c r="B931" s="11"/>
       <c r="C931" s="11"/>
@@ -38057,7 +38081,7 @@
       <c r="AC931" s="11"/>
       <c r="AD931" s="11"/>
     </row>
-    <row r="932" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A932" s="11"/>
       <c r="B932" s="11"/>
       <c r="C932" s="11"/>
@@ -38089,7 +38113,7 @@
       <c r="AC932" s="11"/>
       <c r="AD932" s="11"/>
     </row>
-    <row r="933" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A933" s="11"/>
       <c r="B933" s="11"/>
       <c r="C933" s="11"/>
@@ -38121,7 +38145,7 @@
       <c r="AC933" s="11"/>
       <c r="AD933" s="11"/>
     </row>
-    <row r="934" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A934" s="11"/>
       <c r="B934" s="11"/>
       <c r="C934" s="11"/>
@@ -38153,7 +38177,7 @@
       <c r="AC934" s="11"/>
       <c r="AD934" s="11"/>
     </row>
-    <row r="935" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A935" s="11"/>
       <c r="B935" s="11"/>
       <c r="C935" s="11"/>
@@ -38185,7 +38209,7 @@
       <c r="AC935" s="11"/>
       <c r="AD935" s="11"/>
     </row>
-    <row r="936" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A936" s="11"/>
       <c r="B936" s="11"/>
       <c r="C936" s="11"/>
@@ -38217,7 +38241,7 @@
       <c r="AC936" s="11"/>
       <c r="AD936" s="11"/>
     </row>
-    <row r="937" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A937" s="11"/>
       <c r="B937" s="11"/>
       <c r="C937" s="11"/>
@@ -38249,7 +38273,7 @@
       <c r="AC937" s="11"/>
       <c r="AD937" s="11"/>
     </row>
-    <row r="938" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A938" s="11"/>
       <c r="B938" s="11"/>
       <c r="C938" s="11"/>
@@ -38281,7 +38305,7 @@
       <c r="AC938" s="11"/>
       <c r="AD938" s="11"/>
     </row>
-    <row r="939" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A939" s="11"/>
       <c r="B939" s="11"/>
       <c r="C939" s="11"/>
@@ -38313,7 +38337,7 @@
       <c r="AC939" s="11"/>
       <c r="AD939" s="11"/>
     </row>
-    <row r="940" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A940" s="11"/>
       <c r="B940" s="11"/>
       <c r="C940" s="11"/>
@@ -38345,7 +38369,7 @@
       <c r="AC940" s="11"/>
       <c r="AD940" s="11"/>
     </row>
-    <row r="941" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A941" s="11"/>
       <c r="B941" s="11"/>
       <c r="C941" s="11"/>
@@ -38377,7 +38401,7 @@
       <c r="AC941" s="11"/>
       <c r="AD941" s="11"/>
     </row>
-    <row r="942" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A942" s="11"/>
       <c r="B942" s="11"/>
       <c r="C942" s="11"/>
@@ -38409,7 +38433,7 @@
       <c r="AC942" s="11"/>
       <c r="AD942" s="11"/>
     </row>
-    <row r="943" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A943" s="11"/>
       <c r="B943" s="11"/>
       <c r="C943" s="11"/>
@@ -38441,7 +38465,7 @@
       <c r="AC943" s="11"/>
       <c r="AD943" s="11"/>
     </row>
-    <row r="944" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A944" s="11"/>
       <c r="B944" s="11"/>
       <c r="C944" s="11"/>
@@ -38473,7 +38497,7 @@
       <c r="AC944" s="11"/>
       <c r="AD944" s="11"/>
     </row>
-    <row r="945" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A945" s="11"/>
       <c r="B945" s="11"/>
       <c r="C945" s="11"/>
@@ -38505,7 +38529,7 @@
       <c r="AC945" s="11"/>
       <c r="AD945" s="11"/>
     </row>
-    <row r="946" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A946" s="11"/>
       <c r="B946" s="11"/>
       <c r="C946" s="11"/>
@@ -38537,7 +38561,7 @@
       <c r="AC946" s="11"/>
       <c r="AD946" s="11"/>
     </row>
-    <row r="947" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A947" s="11"/>
       <c r="B947" s="11"/>
       <c r="C947" s="11"/>
@@ -38569,7 +38593,7 @@
       <c r="AC947" s="11"/>
       <c r="AD947" s="11"/>
     </row>
-    <row r="948" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A948" s="11"/>
       <c r="B948" s="11"/>
       <c r="C948" s="11"/>
@@ -38601,7 +38625,7 @@
       <c r="AC948" s="11"/>
       <c r="AD948" s="11"/>
     </row>
-    <row r="949" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A949" s="11"/>
       <c r="B949" s="11"/>
       <c r="C949" s="11"/>
@@ -38633,7 +38657,7 @@
       <c r="AC949" s="11"/>
       <c r="AD949" s="11"/>
     </row>
-    <row r="950" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A950" s="11"/>
       <c r="B950" s="11"/>
       <c r="C950" s="11"/>
@@ -38665,7 +38689,7 @@
       <c r="AC950" s="11"/>
       <c r="AD950" s="11"/>
     </row>
-    <row r="951" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A951" s="11"/>
       <c r="B951" s="11"/>
       <c r="C951" s="11"/>
@@ -38697,7 +38721,7 @@
       <c r="AC951" s="11"/>
       <c r="AD951" s="11"/>
     </row>
-    <row r="952" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A952" s="11"/>
       <c r="B952" s="11"/>
       <c r="C952" s="11"/>
@@ -38729,7 +38753,7 @@
       <c r="AC952" s="11"/>
       <c r="AD952" s="11"/>
     </row>
-    <row r="953" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A953" s="11"/>
       <c r="B953" s="11"/>
       <c r="C953" s="11"/>
@@ -38761,7 +38785,7 @@
       <c r="AC953" s="11"/>
       <c r="AD953" s="11"/>
     </row>
-    <row r="954" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A954" s="11"/>
       <c r="B954" s="11"/>
       <c r="C954" s="11"/>
@@ -38793,7 +38817,7 @@
       <c r="AC954" s="11"/>
       <c r="AD954" s="11"/>
     </row>
-    <row r="955" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A955" s="11"/>
       <c r="B955" s="11"/>
       <c r="C955" s="11"/>
@@ -38825,7 +38849,7 @@
       <c r="AC955" s="11"/>
       <c r="AD955" s="11"/>
     </row>
-    <row r="956" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A956" s="11"/>
       <c r="B956" s="11"/>
       <c r="C956" s="11"/>
@@ -38857,7 +38881,7 @@
       <c r="AC956" s="11"/>
       <c r="AD956" s="11"/>
     </row>
-    <row r="957" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A957" s="11"/>
       <c r="B957" s="11"/>
       <c r="C957" s="11"/>
@@ -38889,7 +38913,7 @@
       <c r="AC957" s="11"/>
       <c r="AD957" s="11"/>
     </row>
-    <row r="958" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A958" s="11"/>
       <c r="B958" s="11"/>
       <c r="C958" s="11"/>
@@ -38921,7 +38945,7 @@
       <c r="AC958" s="11"/>
       <c r="AD958" s="11"/>
     </row>
-    <row r="959" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A959" s="11"/>
       <c r="B959" s="11"/>
       <c r="C959" s="11"/>
@@ -38953,7 +38977,7 @@
       <c r="AC959" s="11"/>
       <c r="AD959" s="11"/>
     </row>
-    <row r="960" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A960" s="11"/>
       <c r="B960" s="11"/>
       <c r="C960" s="11"/>
@@ -38985,7 +39009,7 @@
       <c r="AC960" s="11"/>
       <c r="AD960" s="11"/>
     </row>
-    <row r="961" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A961" s="11"/>
       <c r="B961" s="11"/>
       <c r="C961" s="11"/>
@@ -39017,7 +39041,7 @@
       <c r="AC961" s="11"/>
       <c r="AD961" s="11"/>
     </row>
-    <row r="962" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A962" s="11"/>
       <c r="B962" s="11"/>
       <c r="C962" s="11"/>
@@ -39049,7 +39073,7 @@
       <c r="AC962" s="11"/>
       <c r="AD962" s="11"/>
     </row>
-    <row r="963" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A963" s="11"/>
       <c r="B963" s="11"/>
       <c r="C963" s="11"/>
@@ -39081,7 +39105,7 @@
       <c r="AC963" s="11"/>
       <c r="AD963" s="11"/>
     </row>
-    <row r="964" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A964" s="11"/>
       <c r="B964" s="11"/>
       <c r="C964" s="11"/>
@@ -39113,7 +39137,7 @@
       <c r="AC964" s="11"/>
       <c r="AD964" s="11"/>
     </row>
-    <row r="965" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A965" s="11"/>
       <c r="B965" s="11"/>
       <c r="C965" s="11"/>
@@ -39145,7 +39169,7 @@
       <c r="AC965" s="11"/>
       <c r="AD965" s="11"/>
     </row>
-    <row r="966" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A966" s="11"/>
       <c r="B966" s="11"/>
       <c r="C966" s="11"/>
@@ -39177,7 +39201,7 @@
       <c r="AC966" s="11"/>
       <c r="AD966" s="11"/>
     </row>
-    <row r="967" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A967" s="11"/>
       <c r="B967" s="11"/>
       <c r="C967" s="11"/>
@@ -39209,7 +39233,7 @@
       <c r="AC967" s="11"/>
       <c r="AD967" s="11"/>
     </row>
-    <row r="968" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A968" s="11"/>
       <c r="B968" s="11"/>
       <c r="C968" s="11"/>
@@ -39241,7 +39265,7 @@
       <c r="AC968" s="11"/>
       <c r="AD968" s="11"/>
     </row>
-    <row r="969" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A969" s="11"/>
       <c r="B969" s="11"/>
       <c r="C969" s="11"/>
@@ -39273,7 +39297,7 @@
       <c r="AC969" s="11"/>
       <c r="AD969" s="11"/>
     </row>
-    <row r="970" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A970" s="11"/>
       <c r="B970" s="11"/>
       <c r="C970" s="11"/>
@@ -39305,7 +39329,7 @@
       <c r="AC970" s="11"/>
       <c r="AD970" s="11"/>
     </row>
-    <row r="971" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A971" s="11"/>
       <c r="B971" s="11"/>
       <c r="C971" s="11"/>
@@ -39337,7 +39361,7 @@
       <c r="AC971" s="11"/>
       <c r="AD971" s="11"/>
     </row>
-    <row r="972" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A972" s="11"/>
       <c r="B972" s="11"/>
       <c r="C972" s="11"/>
@@ -39369,7 +39393,7 @@
       <c r="AC972" s="11"/>
       <c r="AD972" s="11"/>
     </row>
-    <row r="973" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A973" s="11"/>
       <c r="B973" s="11"/>
       <c r="C973" s="11"/>
@@ -39401,7 +39425,7 @@
       <c r="AC973" s="11"/>
       <c r="AD973" s="11"/>
     </row>
-    <row r="974" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A974" s="11"/>
       <c r="B974" s="11"/>
       <c r="C974" s="11"/>
@@ -39433,7 +39457,7 @@
       <c r="AC974" s="11"/>
       <c r="AD974" s="11"/>
     </row>
-    <row r="975" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A975" s="11"/>
       <c r="B975" s="11"/>
       <c r="C975" s="11"/>
@@ -39465,7 +39489,7 @@
       <c r="AC975" s="11"/>
       <c r="AD975" s="11"/>
     </row>
-    <row r="976" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A976" s="11"/>
       <c r="B976" s="11"/>
       <c r="C976" s="11"/>
@@ -39497,7 +39521,7 @@
       <c r="AC976" s="11"/>
       <c r="AD976" s="11"/>
     </row>
-    <row r="977" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A977" s="11"/>
       <c r="B977" s="11"/>
       <c r="C977" s="11"/>
@@ -39529,7 +39553,7 @@
       <c r="AC977" s="11"/>
       <c r="AD977" s="11"/>
     </row>
-    <row r="978" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A978" s="11"/>
       <c r="B978" s="11"/>
       <c r="C978" s="11"/>
@@ -39561,7 +39585,7 @@
       <c r="AC978" s="11"/>
       <c r="AD978" s="11"/>
     </row>
-    <row r="979" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A979" s="11"/>
       <c r="B979" s="11"/>
       <c r="C979" s="11"/>
@@ -39593,7 +39617,7 @@
       <c r="AC979" s="11"/>
       <c r="AD979" s="11"/>
     </row>
-    <row r="980" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A980" s="11"/>
       <c r="B980" s="11"/>
       <c r="C980" s="11"/>
@@ -39625,7 +39649,7 @@
       <c r="AC980" s="11"/>
       <c r="AD980" s="11"/>
     </row>
-    <row r="981" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A981" s="11"/>
       <c r="B981" s="11"/>
       <c r="C981" s="11"/>
@@ -39657,7 +39681,7 @@
       <c r="AC981" s="11"/>
       <c r="AD981" s="11"/>
     </row>
-    <row r="982" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A982" s="11"/>
       <c r="B982" s="11"/>
       <c r="C982" s="11"/>
@@ -39689,7 +39713,7 @@
       <c r="AC982" s="11"/>
       <c r="AD982" s="11"/>
     </row>
-    <row r="983" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A983" s="11"/>
       <c r="B983" s="11"/>
       <c r="C983" s="11"/>
@@ -39721,7 +39745,7 @@
       <c r="AC983" s="11"/>
       <c r="AD983" s="11"/>
     </row>
-    <row r="984" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A984" s="11"/>
       <c r="B984" s="11"/>
       <c r="C984" s="11"/>
@@ -40123,4 +40147,51 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86014C54-5CBA-41FB-A043-B71E90D8BB20}">
+  <dimension ref="B2:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C4" t="s">
+        <v>744</v>
+      </c>
+      <c r="D4" t="s">
+        <v>745</v>
+      </c>
+      <c r="E4" t="s">
+        <v>746</v>
+      </c>
+      <c r="F4" t="s">
+        <v>747</v>
+      </c>
+      <c r="G4" t="s">
+        <v>748</v>
+      </c>
+      <c r="H4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>